--- a/03.TestCase/测试用例.xlsx
+++ b/03.TestCase/测试用例.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhouq\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57919742-2A0A-478E-B1F4-E07529744282}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11620" windowHeight="5730" xr2:uid="{3852E578-EB8F-45E1-ACF1-CA568D9871B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +24,649 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环输入0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0.00000000000000000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1.0000000000000000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框此时最大18位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框此时最大1位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框此时最大17位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"10000000000000000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框此时最大16位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“-”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“x²”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："1-" 输入框：“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字小数点正常操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环输入“.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"0."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存添加“0”记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存最上项"5"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存最上项"0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框为内存最上项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存中的最上一个值 -= 输入框中的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框只能有一个“.”小数点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“2”清除表达式平方操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存中的最上一个值 += 输入框中的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存中添加输入框中的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："8-" 输入框：“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框清”0“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："" 输入框：“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式框清空，输入框清”0“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“退格”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 测试用例_计算器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一位数，输入框清”0“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于一位数，退格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“内存”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“历史纪录”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“垃圾桶”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存栏清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史栏清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“垃圾桶”按钮正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”2“</t>
+  </si>
+  <si>
+    <t>“1”</t>
+  </si>
+  <si>
+    <t>“3”</t>
+  </si>
+  <si>
+    <t>表达式："0 +" 输入框：“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“+”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："1 +2+" 输入框：“3”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："2 +" 输入框：“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”√“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”+“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：”√(4) +“ 输入框：“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："negate(5) +" 输入框：“-5”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"+"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"±"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“±”按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：“0 - ” 输入框：“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”-“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：“1 - 2 -” 输入框：“3”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“*”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：“0 * ” 输入框：“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：“0 * ” 输入框：“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：“1 * 2 *” 输入框：“3”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式“+”前自动补“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环输入“+”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式正确规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“+”按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“+”替换“-”，双目运算符彼此替换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双目不替换双单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：“2 - ” 输入框：“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“-”按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式“*”前自动补“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“*”按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环输入”-“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环输入“*”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“x²”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："sqr(5)" 输入框：“25”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“x²”按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："sqr(sqr(5))" 输入框：“625”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"+"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："2+sqr(2)" 输入框：“4”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对双目，“x²”按键的正常拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对单目，“x²”按键的正常拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”√“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：”√(25)" 输入框：“5”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：”√(√(625))“ 输入框：“5”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："25+√(25)" 输入框：“5”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表达式："√(2)" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框：“1.414213562373095”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对开方后不为整数的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"±"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：”√(-5)" 输入框：“无效输入”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误表达式，开方负数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”¹/x“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：”1/(2)" 输入框：“0.5”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”¹/x“按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式：”1/(1/(2))“ 输入框：“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对单目，”¹/x“按键的正常拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："2+1/(2)" 输入框：“0.5”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对双目，”¹/x“按键的正常拼接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表达式："1/(3)" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框：“0.33333333333333333”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对倒数不尽的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">表达式：”1/(0)" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框：“除数不能为0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误表达式，0的倒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“.”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环输入2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框：“-0.2222222222222222”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框至多19位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“%”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："0" 输入框：“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”%“按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“+”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："2+0.04" 输入框：“0.04”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 + 2 % =2 + (2 * 2%) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“=”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每点“=”，历史纪录多“2=2”输入框“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框“8”，表达式空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史纪录,”6+2=8“,”4+2=6“,”2+2=4“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字定义，”=“按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双目运算，”=“按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”=“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框“25”，表达式空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史纪录,”sqr(5)=25“,”25=25“,”25=25“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单目运算，”=“按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单目+双目运算，”=“按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框“55”，表达式空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史纪录,”30+25=55“,”5+sqr(5)=30“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"="</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>”÷“</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“÷”按键的正常使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式“÷”前自动补“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："0 ÷  " 输入框：“0”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："2÷ " 输入框：“2”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式："1 ÷ 2 ÷" 输入框：“3”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“÷”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环输入“÷”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式“5÷”，输入框“除数不能为零”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式“0÷5÷”，输入框“结果未定义”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误表达式的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -45,15 +686,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +950,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +966,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +978,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +995,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +1025,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +1077,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +1245,1990 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD38FDA-4BE0-439A-99CA-24F80F195D98}">
+  <dimension ref="B2:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6">
+        <v>2</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>11</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="6">
+        <v>5</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="1">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="12"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="20"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="1">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+    </row>
+    <row r="21" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>18</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="12"/>
+    </row>
+    <row r="22" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
+    </row>
+    <row r="23" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="9">
+        <v>3</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+    </row>
+    <row r="24" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>22</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+    </row>
+    <row r="25" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>24</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="6">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
+    </row>
+    <row r="27" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="12"/>
+    </row>
+    <row r="28" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15">
+        <v>2</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
+    </row>
+    <row r="29" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>27</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M29" s="22"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="12"/>
+    </row>
+    <row r="30" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+    </row>
+    <row r="31" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>29</v>
+      </c>
+      <c r="C31" s="15">
+        <v>2</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="6">
+        <v>3</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" s="22"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>31</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="12"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>32</v>
+      </c>
+      <c r="C34" s="25">
+        <v>2</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I34" s="18"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="3">
+        <v>33</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="22"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="12"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>34</v>
+      </c>
+      <c r="C36" s="25">
+        <v>5</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M36" s="22"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="3">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6">
+        <v>5</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M37" s="22"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M38" s="22"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="3">
+        <v>37</v>
+      </c>
+      <c r="C39" s="25">
+        <v>25</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M39" s="22"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="12"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
+        <v>38</v>
+      </c>
+      <c r="C40" s="6">
+        <v>625</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="25"/>
+      <c r="H40" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="M40" s="22"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="5">
+        <v>39</v>
+      </c>
+      <c r="C41" s="6">
+        <v>25</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="25"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M41" s="22"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="12"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="29">
+        <v>40</v>
+      </c>
+      <c r="C42" s="25">
+        <v>2</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="30"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="22"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
+        <v>41</v>
+      </c>
+      <c r="C44" s="28">
+        <v>5</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="M44" s="14"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="12"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
+        <v>42</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M45" s="22"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M46" s="22"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="3">
+        <v>44</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="25"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M47" s="22"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="12"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="14">
+        <v>45</v>
+      </c>
+      <c r="C48" s="25">
+        <v>3</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I48" s="25"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M48" s="14"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="14"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="25"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="22"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="31">
+        <v>46</v>
+      </c>
+      <c r="C50" s="34">
+        <v>0</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="25"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="31">
+        <v>47</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I51" s="25"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="31">
+        <v>48</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52" s="25"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="31">
+        <v>49</v>
+      </c>
+      <c r="C53" s="25">
+        <v>5</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" s="25"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M53" s="14"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="12"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="31">
+        <v>50</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I54" s="25"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M54" s="14"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="12"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="31">
+        <v>51</v>
+      </c>
+      <c r="C55" s="6">
+        <v>2</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="25"/>
+      <c r="H55" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="M55" s="14"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="12"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="33">
+        <v>52</v>
+      </c>
+      <c r="C56" s="25">
+        <v>2</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="25"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M56" s="14"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="12"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="33"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" s="25"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="12"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="33">
+        <v>53</v>
+      </c>
+      <c r="C58" s="25">
+        <v>5</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="25"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M58" s="14"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="12"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="33"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" s="25"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="12"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="14">
+        <v>54</v>
+      </c>
+      <c r="C60" s="25">
+        <v>5</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I60" s="25"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M60" s="14"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="12"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" s="25"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="12"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="3">
+        <v>55</v>
+      </c>
+      <c r="C62" s="6">
+        <v>5</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="35"/>
+      <c r="H62" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I62" s="25"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="3">
+        <v>56</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="6">
+        <v>5</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="I63" s="25"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="324">
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L56:M57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="L58:M59"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L42:M43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F36:G36"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03.TestCase/测试用例.xlsx
+++ b/03.TestCase/测试用例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15646\Documents\Tencent Files\1564686692\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ForTheWinPSZ-Calc\03.TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="474">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1895,6 +1895,26 @@
   </si>
   <si>
     <t>表达式空，历史记录 1+2-3=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加减乘除后不数字定义进行单目运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加减乘除后再数字定义并进行单目运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有平方后再数字定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有根号后再数字定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有百分号后再数字定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,7 +2139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2168,16 +2188,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2186,31 +2203,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,37 +2278,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2578,10 +2601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O246"/>
+  <dimension ref="B2:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75:K76"/>
+    <sheetView tabSelected="1" topLeftCell="H242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N247" sqref="N247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2597,50 +2620,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="26" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="26" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="26" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="27"/>
+      <c r="O3" s="17"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -2649,48 +2672,48 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="26" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="26" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -2702,23 +2725,23 @@
       <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="26" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="26" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -2727,24 +2750,24 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="26" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="26" t="s">
+      <c r="I7" s="17"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -2765,92 +2788,92 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="26" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="27"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="17"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="16">
         <v>1</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="17"/>
+      <c r="E9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="35"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="26" t="s">
+      <c r="I9" s="17"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="27"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="26" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="26" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="17"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="26" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="26" t="s">
+      <c r="I11" s="17"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="27"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -2859,24 +2882,24 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="26" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="26" t="s">
+      <c r="I12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="17"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
@@ -2885,48 +2908,48 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="26" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="26" t="s">
+      <c r="I14" s="17"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="27"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="17"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -2941,22 +2964,22 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="17"/>
+      <c r="H15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="26" t="s">
+      <c r="I15" s="17"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
@@ -2971,22 +2994,22 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="17"/>
+      <c r="H16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="26" t="s">
+      <c r="I16" s="17"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="17"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -2995,24 +3018,24 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="26" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="26" t="s">
+      <c r="I17" s="17"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -3024,23 +3047,23 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="26" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="26" t="s">
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="27"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="17"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
@@ -3049,24 +3072,24 @@
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="26" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="20" t="s">
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="21"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
@@ -3075,72 +3098,72 @@
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="26" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="17"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="26" t="s">
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="26" t="s">
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="26" t="s">
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="27"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="17"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
@@ -3161,18 +3184,18 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="26" t="s">
+      <c r="I23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="27"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
@@ -3181,26 +3204,26 @@
       <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="17"/>
+      <c r="F24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26" t="s">
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="27"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
@@ -3209,26 +3232,26 @@
       <c r="C25" s="3">
         <v>4</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="26" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="26" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="27"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
@@ -3249,68 +3272,68 @@
       <c r="G26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26" t="s">
+      <c r="I26" s="17"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="17"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="26" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="26" t="s">
+      <c r="I27" s="17"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="16">
         <v>2</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26" t="s">
+      <c r="D28" s="35"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="26" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="26" t="s">
+      <c r="I28" s="17"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M28" s="27"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="27"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="17"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
@@ -3331,68 +3354,68 @@
       <c r="G29" s="4">
         <v>3</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="26" t="s">
+      <c r="I29" s="17"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="27"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="27"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="26" t="s">
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="26" t="s">
+      <c r="I30" s="17"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="27"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="27"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="17"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="16">
         <v>2</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="26" t="s">
+      <c r="D31" s="35"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="26" t="s">
+      <c r="G31" s="17"/>
+      <c r="H31" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="26" t="s">
+      <c r="I31" s="17"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
@@ -3413,68 +3436,68 @@
       <c r="G32" s="1">
         <v>3</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="27"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="26" t="s">
+      <c r="I32" s="17"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="M32" s="27"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="27"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="17"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="26" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="26" t="s">
+      <c r="I33" s="17"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="27"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="16">
         <v>2</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="26" t="s">
+      <c r="D34" s="35"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="26" t="s">
+      <c r="G34" s="17"/>
+      <c r="H34" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="27"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="26" t="s">
+      <c r="I34" s="17"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M34" s="27"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="17"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
@@ -3495,44 +3518,44 @@
       <c r="G35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="26" t="s">
+      <c r="I35" s="17"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="16">
         <v>5</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="26" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="26" t="s">
+      <c r="G36" s="17"/>
+      <c r="H36" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="26" t="s">
+      <c r="I36" s="17"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="27"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
@@ -3541,26 +3564,26 @@
       <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="26" t="s">
+      <c r="E37" s="17"/>
+      <c r="F37" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="26" t="s">
+      <c r="G37" s="17"/>
+      <c r="H37" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="27"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="26" t="s">
+      <c r="I37" s="17"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="M37" s="27"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="17"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
@@ -3569,52 +3592,52 @@
       <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="17"/>
+      <c r="F38" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="26" t="s">
+      <c r="G38" s="17"/>
+      <c r="H38" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="27"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="26" t="s">
+      <c r="I38" s="17"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M38" s="27"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="27"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="17"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="16">
         <v>25</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="26" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="26" t="s">
+      <c r="G39" s="17"/>
+      <c r="H39" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="27"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="26" t="s">
+      <c r="I39" s="17"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="27"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="17"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
@@ -3623,26 +3646,26 @@
       <c r="C40" s="1">
         <v>625</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="17"/>
+      <c r="F40" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="26" t="s">
+      <c r="G40" s="17"/>
+      <c r="H40" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="27"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="26" t="s">
+      <c r="I40" s="17"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="M40" s="27"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="17"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
@@ -3651,70 +3674,70 @@
       <c r="C41" s="1">
         <v>25</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="26" t="s">
+      <c r="G41" s="17"/>
+      <c r="H41" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="27"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="26" t="s">
+      <c r="I41" s="17"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M41" s="27"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="17"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="16">
+      <c r="B42" s="23">
         <v>40</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="19">
         <v>2</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="20" t="s">
+      <c r="D42" s="18"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="26" t="s">
+      <c r="G42" s="20"/>
+      <c r="H42" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="27"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="20" t="s">
+      <c r="I42" s="17"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="21"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="21"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="18"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="26" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="27"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
@@ -3723,52 +3746,52 @@
       <c r="C44" s="6">
         <v>5</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="17"/>
+      <c r="F44" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="26" t="s">
+      <c r="G44" s="17"/>
+      <c r="H44" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="27"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="26" t="s">
+      <c r="I44" s="17"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="M44" s="27"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="27"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="17"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>42</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="16">
         <v>2</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="26" t="s">
+      <c r="D45" s="35"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="26" t="s">
+      <c r="G45" s="17"/>
+      <c r="H45" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I45" s="27"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="26" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M45" s="27"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="27"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="17"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
@@ -3777,26 +3800,26 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="26" t="s">
+      <c r="E46" s="17"/>
+      <c r="F46" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="26" t="s">
+      <c r="G46" s="17"/>
+      <c r="H46" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="27"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="26" t="s">
+      <c r="I46" s="17"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="M46" s="27"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="27"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="17"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
@@ -3805,124 +3828,124 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="26" t="s">
+      <c r="E47" s="17"/>
+      <c r="F47" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="26" t="s">
+      <c r="G47" s="17"/>
+      <c r="H47" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="I47" s="27"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="26" t="s">
+      <c r="I47" s="17"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="M47" s="27"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="27"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="17"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="16">
+      <c r="B48" s="23">
         <v>45</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="19">
         <v>3</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="20" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="26" t="s">
+      <c r="G48" s="20"/>
+      <c r="H48" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="I48" s="27"/>
-      <c r="J48" s="26" t="s">
+      <c r="I48" s="17"/>
+      <c r="J48" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="K48" s="27"/>
-      <c r="L48" s="20" t="s">
+      <c r="K48" s="17"/>
+      <c r="L48" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="M48" s="21"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="21"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="I49" s="27"/>
-      <c r="J49" s="26" t="s">
+      <c r="I49" s="17"/>
+      <c r="J49" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="K49" s="27"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="25"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="22"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="6">
         <v>46</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="40">
         <v>0</v>
       </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="20" t="s">
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="26" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="27"/>
-      <c r="J50" s="26" t="s">
+      <c r="I50" s="17"/>
+      <c r="J50" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="20" t="s">
+      <c r="K50" s="17"/>
+      <c r="L50" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="M50" s="21"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="21"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="6">
         <v>47</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="26" t="s">
+      <c r="C51" s="43"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="26" t="s">
+      <c r="I51" s="17"/>
+      <c r="J51" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="K51" s="27"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="25"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="22"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="6">
@@ -3931,56 +3954,56 @@
       <c r="C52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="26" t="s">
+      <c r="E52" s="17"/>
+      <c r="F52" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="26" t="s">
+      <c r="G52" s="17"/>
+      <c r="H52" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="27"/>
-      <c r="J52" s="26" t="s">
+      <c r="I52" s="17"/>
+      <c r="J52" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="K52" s="27"/>
-      <c r="L52" s="26" t="s">
+      <c r="K52" s="17"/>
+      <c r="L52" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="M52" s="27"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="27"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="17"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="6">
         <v>49</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C53" s="16">
         <v>5</v>
       </c>
-      <c r="D53" s="30"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="26" t="s">
+      <c r="D53" s="35"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="26" t="s">
+      <c r="G53" s="17"/>
+      <c r="H53" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="27"/>
-      <c r="J53" s="26" t="s">
+      <c r="I53" s="17"/>
+      <c r="J53" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="K53" s="27"/>
-      <c r="L53" s="26" t="s">
+      <c r="K53" s="17"/>
+      <c r="L53" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="M53" s="27"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="27"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="17"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="6">
@@ -3989,28 +4012,28 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="26" t="s">
+      <c r="E54" s="17"/>
+      <c r="F54" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="26" t="s">
+      <c r="G54" s="17"/>
+      <c r="H54" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="I54" s="27"/>
-      <c r="J54" s="26" t="s">
+      <c r="I54" s="17"/>
+      <c r="J54" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="K54" s="27"/>
-      <c r="L54" s="26" t="s">
+      <c r="K54" s="17"/>
+      <c r="L54" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="M54" s="27"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="27"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="17"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="6">
@@ -4019,190 +4042,190 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E55" s="27"/>
-      <c r="F55" s="26" t="s">
+      <c r="E55" s="17"/>
+      <c r="F55" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="26" t="s">
+      <c r="G55" s="17"/>
+      <c r="H55" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I55" s="27"/>
-      <c r="J55" s="26" t="s">
+      <c r="I55" s="17"/>
+      <c r="J55" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K55" s="27"/>
-      <c r="L55" s="26" t="s">
+      <c r="K55" s="17"/>
+      <c r="L55" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="M55" s="27"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="27"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="17"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="28">
+      <c r="B56" s="46">
         <v>52</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="23">
         <v>2</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I56" s="27"/>
-      <c r="J56" s="26" t="s">
+      <c r="I56" s="17"/>
+      <c r="J56" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="K56" s="27"/>
-      <c r="L56" s="20" t="s">
+      <c r="K56" s="17"/>
+      <c r="L56" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="M56" s="21"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="27"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="17"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="29"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="26" t="s">
+      <c r="B57" s="47"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I57" s="27"/>
-      <c r="J57" s="26" t="s">
+      <c r="I57" s="17"/>
+      <c r="J57" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K57" s="27"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="27"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="17"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="28">
+      <c r="B58" s="46">
         <v>53</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="23">
         <v>5</v>
       </c>
-      <c r="D58" s="16" t="s">
+      <c r="D58" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="16" t="s">
+      <c r="F58" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I58" s="27"/>
-      <c r="J58" s="26" t="s">
+      <c r="I58" s="17"/>
+      <c r="J58" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="K58" s="27"/>
-      <c r="L58" s="20" t="s">
+      <c r="K58" s="17"/>
+      <c r="L58" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="M58" s="21"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="27"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="17"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="29"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="26" t="s">
+      <c r="B59" s="47"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="I59" s="27"/>
-      <c r="J59" s="26" t="s">
+      <c r="I59" s="17"/>
+      <c r="J59" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="27"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="27"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="17"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="16">
+      <c r="B60" s="23">
         <v>54</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="23">
         <v>5</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="16" t="s">
+      <c r="F60" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="16" t="s">
+      <c r="G60" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="26" t="s">
+      <c r="I60" s="17"/>
+      <c r="J60" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K60" s="27"/>
-      <c r="L60" s="20" t="s">
+      <c r="K60" s="17"/>
+      <c r="L60" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="M60" s="21"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="27"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="17"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="26" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I61" s="27"/>
-      <c r="J61" s="26" t="s">
+      <c r="I61" s="17"/>
+      <c r="J61" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="K61" s="27"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="27"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="17"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
@@ -4217,22 +4240,22 @@
       <c r="E62" s="1">
         <v>0</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="27"/>
-      <c r="H62" s="26" t="s">
+      <c r="G62" s="17"/>
+      <c r="H62" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="I62" s="27"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="26" t="s">
+      <c r="I62" s="17"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M62" s="27"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="27"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="17"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
@@ -4253,57 +4276,57 @@
       <c r="G63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="I63" s="27"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="26" t="s">
+      <c r="I63" s="17"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="M63" s="27"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="27"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="17"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>57</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="27"/>
-      <c r="E64" s="26" t="s">
+      <c r="D64" s="17"/>
+      <c r="E64" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F64" s="27"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I64" s="27"/>
-      <c r="J64" s="26" t="s">
+      <c r="I64" s="17"/>
+      <c r="J64" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="27"/>
-      <c r="L64" s="26" t="s">
+      <c r="K64" s="17"/>
+      <c r="L64" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="M64" s="27"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="27"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="17"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>58</v>
       </c>
-      <c r="C65" s="26">
+      <c r="C65" s="16">
         <v>5</v>
       </c>
-      <c r="D65" s="27"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="1" t="s">
         <v>154</v>
       </c>
@@ -4313,20 +4336,20 @@
       <c r="G65" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="I65" s="27"/>
-      <c r="J65" s="26" t="s">
+      <c r="I65" s="17"/>
+      <c r="J65" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="K65" s="27"/>
-      <c r="L65" s="26" t="s">
+      <c r="K65" s="17"/>
+      <c r="L65" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="M65" s="27"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="27"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="17"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
@@ -4335,28 +4358,28 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="26" t="s">
+      <c r="E66" s="17"/>
+      <c r="F66" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G66" s="27"/>
-      <c r="H66" s="26" t="s">
+      <c r="G66" s="17"/>
+      <c r="H66" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="I66" s="27"/>
-      <c r="J66" s="26" t="s">
+      <c r="I66" s="17"/>
+      <c r="J66" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="K66" s="27"/>
-      <c r="L66" s="26" t="s">
+      <c r="K66" s="17"/>
+      <c r="L66" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="M66" s="27"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="27"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="17"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
@@ -4371,24 +4394,24 @@
       <c r="E67" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="26" t="s">
+      <c r="F67" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="26" t="s">
+      <c r="G67" s="17"/>
+      <c r="H67" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="I67" s="27"/>
-      <c r="J67" s="26" t="s">
+      <c r="I67" s="17"/>
+      <c r="J67" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="K67" s="27"/>
-      <c r="L67" s="26" t="s">
+      <c r="K67" s="17"/>
+      <c r="L67" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="M67" s="27"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="27"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="17"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
@@ -4409,566 +4432,566 @@
       <c r="G68" s="1">
         <v>3</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="I68" s="27"/>
-      <c r="J68" s="26" t="s">
+      <c r="I68" s="17"/>
+      <c r="J68" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="K68" s="27"/>
-      <c r="L68" s="26" t="s">
+      <c r="K68" s="17"/>
+      <c r="L68" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="M68" s="27"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="27"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="17"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="16">
+      <c r="B69" s="23">
         <v>62</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="20" t="s">
+      <c r="D69" s="18"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="26" t="s">
+      <c r="G69" s="20"/>
+      <c r="H69" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="I69" s="27"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="20" t="s">
+      <c r="I69" s="17"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="M69" s="21"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="21"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="20"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="18"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26" t="s">
+      <c r="B70" s="24"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I70" s="27"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="25"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="25"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="22"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="16">
+      <c r="B71" s="23">
         <v>64</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="20" t="s">
+      <c r="D71" s="18"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G71" s="21"/>
-      <c r="H71" s="26" t="s">
+      <c r="G71" s="20"/>
+      <c r="H71" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="I71" s="27"/>
-      <c r="J71" s="26" t="s">
+      <c r="I71" s="17"/>
+      <c r="J71" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="K71" s="27"/>
-      <c r="L71" s="20" t="s">
+      <c r="K71" s="17"/>
+      <c r="L71" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="21"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="21"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="20"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="18"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="I72" s="27"/>
-      <c r="J72" s="26" t="s">
+      <c r="I72" s="17"/>
+      <c r="J72" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="K72" s="27"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="25"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="25"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="21"/>
+      <c r="O72" s="22"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="16">
+      <c r="B73" s="23">
         <v>65</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="20" t="s">
+      <c r="D73" s="18"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G73" s="21"/>
-      <c r="H73" s="26" t="s">
+      <c r="G73" s="20"/>
+      <c r="H73" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="I73" s="27"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="20" t="s">
+      <c r="I73" s="17"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="M73" s="21"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="21"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="20"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="18"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26" t="s">
+      <c r="B74" s="24"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="I74" s="27"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="25"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="22"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="16">
+      <c r="B75" s="23">
         <v>66</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="37"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="16" t="s">
+      <c r="D75" s="18"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G75" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="27"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="20" t="s">
+      <c r="I75" s="17"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="M75" s="21"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="21"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="20"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="18"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="26" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="I76" s="27"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="25"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="22"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="16">
+      <c r="B77" s="23">
         <v>67</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D77" s="37"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="20" t="s">
+      <c r="D77" s="18"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G77" s="21"/>
-      <c r="H77" s="26" t="s">
+      <c r="G77" s="20"/>
+      <c r="H77" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="I77" s="27"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="20" t="s">
+      <c r="I77" s="17"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M77" s="21"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="21"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="20"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="18"/>
-      <c r="C78" s="24"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I78" s="27"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="25"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="25"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="22"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="16">
+      <c r="B79" s="23">
         <v>68</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="37"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="16" t="s">
+      <c r="D79" s="18"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="16" t="s">
+      <c r="G79" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="I79" s="27"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="20" t="s">
+      <c r="I79" s="17"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M79" s="21"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="21"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="20"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="18"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="26" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="I80" s="27"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="25"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="25"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="22"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="16">
+      <c r="B81" s="23">
         <v>69</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="21"/>
-      <c r="E81" s="16" t="s">
+      <c r="D81" s="20"/>
+      <c r="E81" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="F81" s="16" t="s">
+      <c r="F81" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H81" s="26" t="s">
+      <c r="H81" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I81" s="27"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="20" t="s">
+      <c r="I81" s="17"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M81" s="21"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="21"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="20"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="18"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="26" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="I82" s="27"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="25"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="25"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="21"/>
+      <c r="O82" s="22"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="16">
+      <c r="B83" s="23">
         <v>70</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="37"/>
-      <c r="E83" s="21"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="20"/>
       <c r="F83" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="I83" s="27"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="20" t="s">
+      <c r="I83" s="17"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M83" s="21"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="21"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="20"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="18"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="25"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H84" s="26" t="s">
+      <c r="H84" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I84" s="27"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="25"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="22"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="16">
+      <c r="B85" s="23">
         <v>71</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="20" t="s">
+      <c r="D85" s="20"/>
+      <c r="E85" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="26" t="s">
+      <c r="F85" s="18"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="I85" s="27"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="20" t="s">
+      <c r="I85" s="17"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M85" s="21"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="21"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="20"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="18"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="26" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="I86" s="27"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="25"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="25"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="22"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="16">
+      <c r="B87" s="23">
         <v>72</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="21"/>
-      <c r="E87" s="20" t="s">
+      <c r="D87" s="20"/>
+      <c r="E87" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="F87" s="37"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="26" t="s">
+      <c r="F87" s="18"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="I87" s="27"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="20" t="s">
+      <c r="I87" s="17"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M87" s="21"/>
-      <c r="N87" s="20"/>
-      <c r="O87" s="21"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="20"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="18"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="26" t="s">
+      <c r="B88" s="24"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="I88" s="27"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="25"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="25"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="22"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="16">
+      <c r="B89" s="23">
         <v>73</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="21"/>
-      <c r="E89" s="20" t="s">
+      <c r="D89" s="20"/>
+      <c r="E89" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="26" t="s">
+      <c r="F89" s="18"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="I89" s="27"/>
-      <c r="J89" s="20"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="20" t="s">
+      <c r="I89" s="17"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M89" s="21"/>
-      <c r="N89" s="20"/>
-      <c r="O89" s="21"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="20"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="18"/>
-      <c r="C90" s="24"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="26" t="s">
+      <c r="B90" s="24"/>
+      <c r="C90" s="21"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="I90" s="27"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="25"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="25"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="22"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="16">
+      <c r="B91" s="23">
         <v>74</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="21"/>
-      <c r="E91" s="20" t="s">
+      <c r="D91" s="20"/>
+      <c r="E91" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="F91" s="37"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="26" t="s">
+      <c r="F91" s="18"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="I91" s="27"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="20" t="s">
+      <c r="I91" s="17"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="M91" s="21"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="21"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="20"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="18"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="26" t="s">
+      <c r="B92" s="24"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="27"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="25"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="25"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="22"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
@@ -4989,20 +5012,20 @@
       <c r="G93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H93" s="26" t="s">
+      <c r="H93" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="I93" s="27"/>
-      <c r="J93" s="26" t="s">
+      <c r="I93" s="17"/>
+      <c r="J93" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="K93" s="27"/>
-      <c r="L93" s="26" t="s">
+      <c r="K93" s="17"/>
+      <c r="L93" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="M93" s="27"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="27"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="17"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
@@ -5014,25 +5037,25 @@
       <c r="D94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E94" s="26" t="s">
+      <c r="E94" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="F94" s="30"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="26" t="s">
+      <c r="F94" s="35"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="I94" s="27"/>
-      <c r="J94" s="26" t="s">
+      <c r="I94" s="17"/>
+      <c r="J94" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="K94" s="27"/>
-      <c r="L94" s="26" t="s">
+      <c r="K94" s="17"/>
+      <c r="L94" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="M94" s="27"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="27"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="17"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
@@ -5044,23 +5067,23 @@
       <c r="D95" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E95" s="26">
+      <c r="E95" s="16">
         <v>6</v>
       </c>
-      <c r="F95" s="30"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="26" t="s">
+      <c r="F95" s="35"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="I95" s="27"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="26" t="s">
+      <c r="I95" s="17"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="M95" s="27"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="27"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="17"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="6">
@@ -5081,23 +5104,23 @@
       <c r="G96" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="I96" s="27"/>
-      <c r="J96" s="26" t="s">
+      <c r="I96" s="17"/>
+      <c r="J96" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="K96" s="27"/>
-      <c r="L96" s="26" t="s">
+      <c r="K96" s="17"/>
+      <c r="L96" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="M96" s="27"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="27"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="17"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="28">
+      <c r="B97" s="46">
         <v>79</v>
       </c>
       <c r="C97" s="6">
@@ -5115,23 +5138,23 @@
       <c r="G97" s="1">
         <v>3</v>
       </c>
-      <c r="H97" s="26" t="s">
+      <c r="H97" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="I97" s="27"/>
-      <c r="J97" s="26" t="s">
+      <c r="I97" s="17"/>
+      <c r="J97" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="K97" s="27"/>
-      <c r="L97" s="20" t="s">
+      <c r="K97" s="17"/>
+      <c r="L97" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="21"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="21"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="20"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="29"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="1" t="s">
         <v>223</v>
       </c>
@@ -5139,21 +5162,21 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="26" t="s">
+      <c r="H98" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="I98" s="27"/>
-      <c r="J98" s="26" t="s">
+      <c r="I98" s="17"/>
+      <c r="J98" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="K98" s="27"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="25"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="25"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="22"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="28">
+      <c r="B99" s="46">
         <v>80</v>
       </c>
       <c r="C99" s="6">
@@ -5171,23 +5194,23 @@
       <c r="G99" s="1">
         <v>4</v>
       </c>
-      <c r="H99" s="26" t="s">
+      <c r="H99" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="I99" s="27"/>
-      <c r="J99" s="26" t="s">
+      <c r="I99" s="17"/>
+      <c r="J99" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="K99" s="27"/>
-      <c r="L99" s="20" t="s">
+      <c r="K99" s="17"/>
+      <c r="L99" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="M99" s="21"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="21"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="20"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="29"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="1" t="s">
         <v>223</v>
       </c>
@@ -5195,21 +5218,21 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="26" t="s">
+      <c r="H100" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="I100" s="27"/>
-      <c r="J100" s="26" t="s">
+      <c r="I100" s="17"/>
+      <c r="J100" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="K100" s="27"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="25"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="25"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="22"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="28">
+      <c r="B101" s="46">
         <v>81</v>
       </c>
       <c r="C101" s="6">
@@ -5227,23 +5250,23 @@
       <c r="G101" s="1">
         <v>5</v>
       </c>
-      <c r="H101" s="26" t="s">
+      <c r="H101" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="I101" s="27"/>
-      <c r="J101" s="26" t="s">
+      <c r="I101" s="17"/>
+      <c r="J101" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="K101" s="27"/>
-      <c r="L101" s="20" t="s">
+      <c r="K101" s="17"/>
+      <c r="L101" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="M101" s="21"/>
-      <c r="N101" s="20"/>
-      <c r="O101" s="21"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="20"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="29"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="1" t="s">
         <v>223</v>
       </c>
@@ -5251,21 +5274,21 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="I102" s="27"/>
-      <c r="J102" s="26" t="s">
+      <c r="I102" s="17"/>
+      <c r="J102" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="K102" s="27"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="25"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="25"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="22"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="28">
+      <c r="B103" s="46">
         <v>82</v>
       </c>
       <c r="C103" s="6">
@@ -5283,23 +5306,23 @@
       <c r="G103" s="1">
         <v>6</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H103" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I103" s="27"/>
-      <c r="J103" s="26" t="s">
+      <c r="I103" s="17"/>
+      <c r="J103" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="K103" s="27"/>
-      <c r="L103" s="20" t="s">
+      <c r="K103" s="17"/>
+      <c r="L103" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="M103" s="21"/>
-      <c r="N103" s="20"/>
-      <c r="O103" s="21"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="20"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="29"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="1" t="s">
         <v>223</v>
       </c>
@@ -5307,21 +5330,21 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="26" t="s">
+      <c r="H104" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="I104" s="27"/>
-      <c r="J104" s="26" t="s">
+      <c r="I104" s="17"/>
+      <c r="J104" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="K104" s="27"/>
-      <c r="L104" s="24"/>
-      <c r="M104" s="25"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="25"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="22"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="28">
+      <c r="B105" s="46">
         <v>83</v>
       </c>
       <c r="C105" s="6">
@@ -5339,23 +5362,23 @@
       <c r="G105" s="1">
         <v>5</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H105" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="I105" s="27"/>
-      <c r="J105" s="26" t="s">
+      <c r="I105" s="17"/>
+      <c r="J105" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="K105" s="27"/>
-      <c r="L105" s="20" t="s">
+      <c r="K105" s="17"/>
+      <c r="L105" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="M105" s="21"/>
-      <c r="N105" s="20"/>
-      <c r="O105" s="21"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="20"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="29"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="1" t="s">
         <v>223</v>
       </c>
@@ -5363,21 +5386,21 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="26" t="s">
+      <c r="H106" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="I106" s="27"/>
-      <c r="J106" s="26" t="s">
+      <c r="I106" s="17"/>
+      <c r="J106" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="K106" s="27"/>
-      <c r="L106" s="24"/>
-      <c r="M106" s="25"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="25"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="22"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="28">
+      <c r="B107" s="46">
         <v>84</v>
       </c>
       <c r="C107" s="6">
@@ -5395,23 +5418,23 @@
       <c r="G107" s="1">
         <v>7</v>
       </c>
-      <c r="H107" s="26" t="s">
+      <c r="H107" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="I107" s="27"/>
-      <c r="J107" s="26" t="s">
+      <c r="I107" s="17"/>
+      <c r="J107" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="K107" s="27"/>
-      <c r="L107" s="20" t="s">
+      <c r="K107" s="17"/>
+      <c r="L107" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="M107" s="21"/>
-      <c r="N107" s="20"/>
-      <c r="O107" s="21"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="20"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="29"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="1" t="s">
         <v>223</v>
       </c>
@@ -5419,21 +5442,21 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="26" t="s">
+      <c r="H108" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="I108" s="27"/>
-      <c r="J108" s="26" t="s">
+      <c r="I108" s="17"/>
+      <c r="J108" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="K108" s="27"/>
-      <c r="L108" s="24"/>
-      <c r="M108" s="25"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="25"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="22"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="28">
+      <c r="B109" s="46">
         <v>85</v>
       </c>
       <c r="C109" s="6">
@@ -5451,23 +5474,23 @@
       <c r="G109" s="1">
         <v>8</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H109" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="I109" s="27"/>
-      <c r="J109" s="26" t="s">
+      <c r="I109" s="17"/>
+      <c r="J109" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="K109" s="27"/>
-      <c r="L109" s="20" t="s">
+      <c r="K109" s="17"/>
+      <c r="L109" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="M109" s="21"/>
-      <c r="N109" s="20"/>
-      <c r="O109" s="21"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="20"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="29"/>
+      <c r="B110" s="47"/>
       <c r="C110" s="1" t="s">
         <v>227</v>
       </c>
@@ -5479,21 +5502,21 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="26" t="s">
+      <c r="H110" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="I110" s="27"/>
-      <c r="J110" s="26" t="s">
+      <c r="I110" s="17"/>
+      <c r="J110" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="K110" s="27"/>
-      <c r="L110" s="24"/>
-      <c r="M110" s="25"/>
-      <c r="N110" s="24"/>
-      <c r="O110" s="25"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="22"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="28">
+      <c r="B111" s="46">
         <v>86</v>
       </c>
       <c r="C111" s="6">
@@ -5511,23 +5534,23 @@
       <c r="G111" s="1">
         <v>1</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="I111" s="27"/>
-      <c r="J111" s="26" t="s">
+      <c r="I111" s="17"/>
+      <c r="J111" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="K111" s="27"/>
-      <c r="L111" s="20" t="s">
+      <c r="K111" s="17"/>
+      <c r="L111" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="M111" s="21"/>
-      <c r="N111" s="20"/>
-      <c r="O111" s="21"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="20"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="29"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="1" t="s">
         <v>230</v>
       </c>
@@ -5539,21 +5562,21 @@
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="26" t="s">
+      <c r="H112" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="I112" s="27"/>
-      <c r="J112" s="26" t="s">
+      <c r="I112" s="17"/>
+      <c r="J112" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="K112" s="27"/>
-      <c r="L112" s="24"/>
-      <c r="M112" s="25"/>
-      <c r="N112" s="24"/>
-      <c r="O112" s="25"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="22"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="28">
+      <c r="B113" s="46">
         <v>87</v>
       </c>
       <c r="C113" s="6">
@@ -5571,23 +5594,23 @@
       <c r="G113" s="1">
         <v>2</v>
       </c>
-      <c r="H113" s="26" t="s">
+      <c r="H113" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="I113" s="27"/>
-      <c r="J113" s="26" t="s">
+      <c r="I113" s="17"/>
+      <c r="J113" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="K113" s="27"/>
-      <c r="L113" s="20" t="s">
+      <c r="K113" s="17"/>
+      <c r="L113" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="M113" s="21"/>
-      <c r="N113" s="20"/>
-      <c r="O113" s="21"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="20"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B114" s="29"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="1" t="s">
         <v>230</v>
       </c>
@@ -5599,21 +5622,21 @@
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="26" t="s">
+      <c r="H114" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="I114" s="27"/>
-      <c r="J114" s="26" t="s">
+      <c r="I114" s="17"/>
+      <c r="J114" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K114" s="27"/>
-      <c r="L114" s="24"/>
-      <c r="M114" s="25"/>
-      <c r="N114" s="24"/>
-      <c r="O114" s="25"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="22"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B115" s="28">
+      <c r="B115" s="46">
         <v>88</v>
       </c>
       <c r="C115" s="6">
@@ -5631,23 +5654,23 @@
       <c r="G115" s="1">
         <v>3</v>
       </c>
-      <c r="H115" s="26" t="s">
+      <c r="H115" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="I115" s="27"/>
-      <c r="J115" s="26" t="s">
+      <c r="I115" s="17"/>
+      <c r="J115" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="K115" s="27"/>
-      <c r="L115" s="20" t="s">
+      <c r="K115" s="17"/>
+      <c r="L115" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="M115" s="21"/>
-      <c r="N115" s="20"/>
-      <c r="O115" s="21"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="20"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B116" s="29"/>
+      <c r="B116" s="47"/>
       <c r="C116" s="1" t="s">
         <v>230</v>
       </c>
@@ -5659,21 +5682,21 @@
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="26" t="s">
+      <c r="H116" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="I116" s="27"/>
-      <c r="J116" s="26" t="s">
+      <c r="I116" s="17"/>
+      <c r="J116" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="K116" s="27"/>
-      <c r="L116" s="24"/>
-      <c r="M116" s="25"/>
-      <c r="N116" s="24"/>
-      <c r="O116" s="25"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="22"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="28">
+      <c r="B117" s="46">
         <v>89</v>
       </c>
       <c r="C117" s="6">
@@ -5691,23 +5714,23 @@
       <c r="G117" s="1">
         <v>4</v>
       </c>
-      <c r="H117" s="26" t="s">
+      <c r="H117" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="I117" s="27"/>
-      <c r="J117" s="26" t="s">
+      <c r="I117" s="17"/>
+      <c r="J117" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="K117" s="27"/>
-      <c r="L117" s="20" t="s">
+      <c r="K117" s="17"/>
+      <c r="L117" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="M117" s="21"/>
-      <c r="N117" s="20"/>
-      <c r="O117" s="21"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="20"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="29"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="1" t="s">
         <v>243</v>
       </c>
@@ -5723,21 +5746,21 @@
       <c r="G118" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="I118" s="27"/>
-      <c r="J118" s="26" t="s">
+      <c r="I118" s="17"/>
+      <c r="J118" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="K118" s="27"/>
-      <c r="L118" s="24"/>
-      <c r="M118" s="25"/>
-      <c r="N118" s="24"/>
-      <c r="O118" s="25"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="22"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" s="28">
+      <c r="B119" s="46">
         <v>90</v>
       </c>
       <c r="C119" s="6">
@@ -5755,23 +5778,23 @@
       <c r="G119" s="1">
         <v>0.3</v>
       </c>
-      <c r="H119" s="26" t="s">
+      <c r="H119" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="I119" s="27"/>
-      <c r="J119" s="26" t="s">
+      <c r="I119" s="17"/>
+      <c r="J119" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="K119" s="27"/>
-      <c r="L119" s="20" t="s">
+      <c r="K119" s="17"/>
+      <c r="L119" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="M119" s="21"/>
-      <c r="N119" s="20"/>
-      <c r="O119" s="21"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="20"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="29"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="1" t="s">
         <v>223</v>
       </c>
@@ -5779,21 +5802,21 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="26" t="s">
+      <c r="H120" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="I120" s="27"/>
-      <c r="J120" s="26" t="s">
+      <c r="I120" s="17"/>
+      <c r="J120" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="K120" s="27"/>
-      <c r="L120" s="24"/>
-      <c r="M120" s="25"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="25"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="22"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="28">
+      <c r="B121" s="46">
         <v>91</v>
       </c>
       <c r="C121" s="6">
@@ -5811,23 +5834,23 @@
       <c r="G121" s="1">
         <v>0.3</v>
       </c>
-      <c r="H121" s="26" t="s">
+      <c r="H121" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="I121" s="27"/>
-      <c r="J121" s="26" t="s">
+      <c r="I121" s="17"/>
+      <c r="J121" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="K121" s="27"/>
-      <c r="L121" s="20" t="s">
+      <c r="K121" s="17"/>
+      <c r="L121" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="M121" s="21"/>
-      <c r="N121" s="20"/>
-      <c r="O121" s="21"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="20"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="29"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="1" t="s">
         <v>223</v>
       </c>
@@ -5835,21 +5858,21 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="I122" s="27"/>
-      <c r="J122" s="26" t="s">
+      <c r="I122" s="17"/>
+      <c r="J122" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="K122" s="27"/>
-      <c r="L122" s="24"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="24"/>
-      <c r="O122" s="25"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="22"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="28">
+      <c r="B123" s="46">
         <v>92</v>
       </c>
       <c r="C123" s="6">
@@ -5867,23 +5890,23 @@
       <c r="G123" s="1">
         <v>0.3</v>
       </c>
-      <c r="H123" s="26" t="s">
+      <c r="H123" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="I123" s="27"/>
-      <c r="J123" s="26" t="s">
+      <c r="I123" s="17"/>
+      <c r="J123" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="K123" s="27"/>
-      <c r="L123" s="20" t="s">
+      <c r="K123" s="17"/>
+      <c r="L123" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="M123" s="21"/>
-      <c r="N123" s="20"/>
-      <c r="O123" s="21"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="20"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="29"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="1" t="s">
         <v>223</v>
       </c>
@@ -5891,21 +5914,21 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="26" t="s">
+      <c r="H124" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="I124" s="27"/>
-      <c r="J124" s="26" t="s">
+      <c r="I124" s="17"/>
+      <c r="J124" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="K124" s="27"/>
-      <c r="L124" s="24"/>
-      <c r="M124" s="25"/>
-      <c r="N124" s="24"/>
-      <c r="O124" s="25"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="22"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="28">
+      <c r="B125" s="46">
         <v>93</v>
       </c>
       <c r="C125" s="6">
@@ -5923,23 +5946,23 @@
       <c r="G125" s="1">
         <v>0.3</v>
       </c>
-      <c r="H125" s="26" t="s">
+      <c r="H125" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="I125" s="27"/>
-      <c r="J125" s="26" t="s">
+      <c r="I125" s="17"/>
+      <c r="J125" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="K125" s="27"/>
-      <c r="L125" s="20" t="s">
+      <c r="K125" s="17"/>
+      <c r="L125" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="M125" s="21"/>
-      <c r="N125" s="20"/>
-      <c r="O125" s="21"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="19"/>
+      <c r="O125" s="20"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="29"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="1" t="s">
         <v>223</v>
       </c>
@@ -5947,21 +5970,21 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="26" t="s">
+      <c r="H126" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="I126" s="27"/>
-      <c r="J126" s="26" t="s">
+      <c r="I126" s="17"/>
+      <c r="J126" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="K126" s="27"/>
-      <c r="L126" s="24"/>
-      <c r="M126" s="25"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="25"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="21"/>
+      <c r="O126" s="22"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="28">
+      <c r="B127" s="46">
         <v>94</v>
       </c>
       <c r="C127" s="6">
@@ -5979,23 +6002,23 @@
       <c r="G127" s="1">
         <v>0.05</v>
       </c>
-      <c r="H127" s="26" t="s">
+      <c r="H127" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="I127" s="27"/>
-      <c r="J127" s="26" t="s">
+      <c r="I127" s="17"/>
+      <c r="J127" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="K127" s="27"/>
-      <c r="L127" s="20" t="s">
+      <c r="K127" s="17"/>
+      <c r="L127" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="M127" s="21"/>
-      <c r="N127" s="20"/>
-      <c r="O127" s="21"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="20"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="29"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="1" t="s">
         <v>223</v>
       </c>
@@ -6003,21 +6026,21 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="26" t="s">
+      <c r="H128" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="I128" s="27"/>
-      <c r="J128" s="26" t="s">
+      <c r="I128" s="17"/>
+      <c r="J128" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="K128" s="27"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="25"/>
-      <c r="N128" s="24"/>
-      <c r="O128" s="25"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="21"/>
+      <c r="O128" s="22"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="28">
+      <c r="B129" s="46">
         <v>95</v>
       </c>
       <c r="C129" s="6">
@@ -6035,23 +6058,23 @@
       <c r="G129" s="1">
         <v>0.05</v>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="I129" s="27"/>
-      <c r="J129" s="26" t="s">
+      <c r="I129" s="17"/>
+      <c r="J129" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="K129" s="27"/>
-      <c r="L129" s="20" t="s">
+      <c r="K129" s="17"/>
+      <c r="L129" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="M129" s="21"/>
-      <c r="N129" s="20"/>
-      <c r="O129" s="21"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="19"/>
+      <c r="O129" s="20"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="29"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="1" t="s">
         <v>223</v>
       </c>
@@ -6059,21 +6082,21 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="26" t="s">
+      <c r="H130" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="I130" s="27"/>
-      <c r="J130" s="26" t="s">
+      <c r="I130" s="17"/>
+      <c r="J130" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="K130" s="27"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="25"/>
-      <c r="N130" s="24"/>
-      <c r="O130" s="25"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="21"/>
+      <c r="O130" s="22"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="28">
+      <c r="B131" s="46">
         <v>96</v>
       </c>
       <c r="C131" s="6">
@@ -6091,23 +6114,23 @@
       <c r="G131" s="1">
         <v>0.3</v>
       </c>
-      <c r="H131" s="26" t="s">
+      <c r="H131" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="I131" s="27"/>
-      <c r="J131" s="26" t="s">
+      <c r="I131" s="17"/>
+      <c r="J131" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="K131" s="27"/>
-      <c r="L131" s="20" t="s">
+      <c r="K131" s="17"/>
+      <c r="L131" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="M131" s="21"/>
-      <c r="N131" s="20"/>
-      <c r="O131" s="21"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="19"/>
+      <c r="O131" s="20"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="29"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="1" t="s">
         <v>227</v>
       </c>
@@ -6119,21 +6142,21 @@
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="26" t="s">
+      <c r="H132" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="I132" s="27"/>
-      <c r="J132" s="26" t="s">
+      <c r="I132" s="17"/>
+      <c r="J132" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="K132" s="27"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="25"/>
-      <c r="N132" s="24"/>
-      <c r="O132" s="25"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="21"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="21"/>
+      <c r="O132" s="22"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" s="28">
+      <c r="B133" s="46">
         <v>97</v>
       </c>
       <c r="C133" s="6">
@@ -6151,23 +6174,23 @@
       <c r="G133" s="1">
         <v>0.3</v>
       </c>
-      <c r="H133" s="26" t="s">
+      <c r="H133" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="I133" s="27"/>
-      <c r="J133" s="26" t="s">
+      <c r="I133" s="17"/>
+      <c r="J133" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="K133" s="27"/>
-      <c r="L133" s="20" t="s">
+      <c r="K133" s="17"/>
+      <c r="L133" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="M133" s="21"/>
-      <c r="N133" s="20"/>
-      <c r="O133" s="21"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="19"/>
+      <c r="O133" s="20"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" s="29"/>
+      <c r="B134" s="47"/>
       <c r="C134" s="1" t="s">
         <v>230</v>
       </c>
@@ -6179,21 +6202,21 @@
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="26" t="s">
+      <c r="H134" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="I134" s="27"/>
-      <c r="J134" s="26" t="s">
+      <c r="I134" s="17"/>
+      <c r="J134" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="K134" s="27"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="25"/>
-      <c r="N134" s="24"/>
-      <c r="O134" s="25"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="21"/>
+      <c r="O134" s="22"/>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="28">
+      <c r="B135" s="46">
         <v>98</v>
       </c>
       <c r="C135" s="6">
@@ -6211,23 +6234,23 @@
       <c r="G135" s="1">
         <v>0.3</v>
       </c>
-      <c r="H135" s="26" t="s">
+      <c r="H135" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="I135" s="27"/>
-      <c r="J135" s="26" t="s">
+      <c r="I135" s="17"/>
+      <c r="J135" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="K135" s="27"/>
-      <c r="L135" s="20" t="s">
+      <c r="K135" s="17"/>
+      <c r="L135" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="M135" s="21"/>
-      <c r="N135" s="20"/>
-      <c r="O135" s="21"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="19"/>
+      <c r="O135" s="20"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="29"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="1" t="s">
         <v>230</v>
       </c>
@@ -6239,21 +6262,21 @@
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="I136" s="27"/>
-      <c r="J136" s="26" t="s">
+      <c r="I136" s="17"/>
+      <c r="J136" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="K136" s="27"/>
-      <c r="L136" s="24"/>
-      <c r="M136" s="25"/>
-      <c r="N136" s="24"/>
-      <c r="O136" s="25"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="21"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="21"/>
+      <c r="O136" s="22"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="28">
+      <c r="B137" s="46">
         <v>99</v>
       </c>
       <c r="C137" s="6">
@@ -6271,23 +6294,23 @@
       <c r="G137" s="1">
         <v>0.3</v>
       </c>
-      <c r="H137" s="26" t="s">
+      <c r="H137" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="I137" s="27"/>
-      <c r="J137" s="26" t="s">
+      <c r="I137" s="17"/>
+      <c r="J137" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="K137" s="27"/>
-      <c r="L137" s="20" t="s">
+      <c r="K137" s="17"/>
+      <c r="L137" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="M137" s="21"/>
-      <c r="N137" s="20"/>
-      <c r="O137" s="21"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="19"/>
+      <c r="O137" s="20"/>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="29"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="1" t="s">
         <v>230</v>
       </c>
@@ -6299,21 +6322,21 @@
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="26" t="s">
+      <c r="H138" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="I138" s="27"/>
-      <c r="J138" s="26" t="s">
+      <c r="I138" s="17"/>
+      <c r="J138" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="K138" s="27"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="25"/>
-      <c r="N138" s="24"/>
-      <c r="O138" s="25"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="21"/>
+      <c r="M138" s="22"/>
+      <c r="N138" s="21"/>
+      <c r="O138" s="22"/>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="28">
+      <c r="B139" s="46">
         <v>100</v>
       </c>
       <c r="C139" s="6">
@@ -6331,23 +6354,23 @@
       <c r="G139" s="1">
         <v>2.25</v>
       </c>
-      <c r="H139" s="26" t="s">
+      <c r="H139" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="I139" s="27"/>
-      <c r="J139" s="26" t="s">
+      <c r="I139" s="17"/>
+      <c r="J139" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="K139" s="27"/>
-      <c r="L139" s="20" t="s">
+      <c r="K139" s="17"/>
+      <c r="L139" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="M139" s="21"/>
-      <c r="N139" s="20"/>
-      <c r="O139" s="21"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="20"/>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="29"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="1" t="s">
         <v>243</v>
       </c>
@@ -6363,21 +6386,21 @@
       <c r="G140" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H140" s="26" t="s">
+      <c r="H140" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="I140" s="27"/>
-      <c r="J140" s="26" t="s">
+      <c r="I140" s="17"/>
+      <c r="J140" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="K140" s="27"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="25"/>
-      <c r="N140" s="24"/>
-      <c r="O140" s="25"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="21"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="21"/>
+      <c r="O140" s="22"/>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" s="28">
+      <c r="B141" s="46">
         <v>101</v>
       </c>
       <c r="C141" s="6">
@@ -6395,23 +6418,23 @@
       <c r="G141" s="1">
         <v>0.3</v>
       </c>
-      <c r="H141" s="26" t="s">
+      <c r="H141" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="I141" s="27"/>
-      <c r="J141" s="26" t="s">
+      <c r="I141" s="17"/>
+      <c r="J141" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="K141" s="27"/>
-      <c r="L141" s="20" t="s">
+      <c r="K141" s="17"/>
+      <c r="L141" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="M141" s="21"/>
-      <c r="N141" s="20"/>
-      <c r="O141" s="21"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="19"/>
+      <c r="O141" s="20"/>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="29"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="1" t="s">
         <v>223</v>
       </c>
@@ -6419,21 +6442,21 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="26" t="s">
+      <c r="H142" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="I142" s="27"/>
-      <c r="J142" s="26" t="s">
+      <c r="I142" s="17"/>
+      <c r="J142" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="K142" s="27"/>
-      <c r="L142" s="24"/>
-      <c r="M142" s="25"/>
-      <c r="N142" s="24"/>
-      <c r="O142" s="25"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="21"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="21"/>
+      <c r="O142" s="22"/>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="28">
+      <c r="B143" s="46">
         <v>102</v>
       </c>
       <c r="C143" s="6">
@@ -6451,23 +6474,23 @@
       <c r="G143" s="1">
         <v>1.3</v>
       </c>
-      <c r="H143" s="26" t="s">
+      <c r="H143" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="I143" s="27"/>
-      <c r="J143" s="26" t="s">
+      <c r="I143" s="17"/>
+      <c r="J143" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="K143" s="27"/>
-      <c r="L143" s="20" t="s">
+      <c r="K143" s="17"/>
+      <c r="L143" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="M143" s="21"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="21"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="20"/>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="29"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="1" t="s">
         <v>223</v>
       </c>
@@ -6475,21 +6498,21 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="26" t="s">
+      <c r="H144" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="I144" s="27"/>
-      <c r="J144" s="26" t="s">
+      <c r="I144" s="17"/>
+      <c r="J144" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="K144" s="27"/>
-      <c r="L144" s="24"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="24"/>
-      <c r="O144" s="25"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="21"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="21"/>
+      <c r="O144" s="22"/>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B145" s="28">
+      <c r="B145" s="46">
         <v>103</v>
       </c>
       <c r="C145" s="6">
@@ -6507,23 +6530,23 @@
       <c r="G145" s="1">
         <v>0.2</v>
       </c>
-      <c r="H145" s="26" t="s">
+      <c r="H145" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="I145" s="27"/>
-      <c r="J145" s="26" t="s">
+      <c r="I145" s="17"/>
+      <c r="J145" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="K145" s="27"/>
-      <c r="L145" s="20" t="s">
+      <c r="K145" s="17"/>
+      <c r="L145" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="M145" s="21"/>
-      <c r="N145" s="20"/>
-      <c r="O145" s="21"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="19"/>
+      <c r="O145" s="20"/>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B146" s="29"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="1" t="s">
         <v>223</v>
       </c>
@@ -6531,21 +6554,21 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="26" t="s">
+      <c r="H146" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="I146" s="27"/>
-      <c r="J146" s="26" t="s">
+      <c r="I146" s="17"/>
+      <c r="J146" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="K146" s="27"/>
-      <c r="L146" s="24"/>
-      <c r="M146" s="25"/>
-      <c r="N146" s="24"/>
-      <c r="O146" s="25"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="21"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="21"/>
+      <c r="O146" s="22"/>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B147" s="28">
+      <c r="B147" s="46">
         <v>104</v>
       </c>
       <c r="C147" s="6">
@@ -6563,23 +6586,23 @@
       <c r="G147" s="1">
         <v>3.3</v>
       </c>
-      <c r="H147" s="26" t="s">
+      <c r="H147" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="I147" s="27"/>
-      <c r="J147" s="26" t="s">
+      <c r="I147" s="17"/>
+      <c r="J147" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="K147" s="27"/>
-      <c r="L147" s="20" t="s">
+      <c r="K147" s="17"/>
+      <c r="L147" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="M147" s="21"/>
-      <c r="N147" s="20"/>
-      <c r="O147" s="21"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="20"/>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B148" s="29"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="1" t="s">
         <v>223</v>
       </c>
@@ -6587,21 +6610,21 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="26" t="s">
+      <c r="H148" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="I148" s="27"/>
-      <c r="J148" s="26" t="s">
+      <c r="I148" s="17"/>
+      <c r="J148" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="K148" s="27"/>
-      <c r="L148" s="24"/>
-      <c r="M148" s="25"/>
-      <c r="N148" s="24"/>
-      <c r="O148" s="25"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="21"/>
+      <c r="M148" s="22"/>
+      <c r="N148" s="21"/>
+      <c r="O148" s="22"/>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" s="28">
+      <c r="B149" s="46">
         <v>105</v>
       </c>
       <c r="C149" s="6">
@@ -6619,23 +6642,23 @@
       <c r="G149" s="1">
         <v>0.2</v>
       </c>
-      <c r="H149" s="26" t="s">
+      <c r="H149" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="I149" s="27"/>
-      <c r="J149" s="26" t="s">
+      <c r="I149" s="17"/>
+      <c r="J149" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="K149" s="27"/>
-      <c r="L149" s="20" t="s">
+      <c r="K149" s="17"/>
+      <c r="L149" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="M149" s="21"/>
-      <c r="N149" s="20"/>
-      <c r="O149" s="21"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="19"/>
+      <c r="O149" s="20"/>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" s="29"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="1" t="s">
         <v>223</v>
       </c>
@@ -6643,21 +6666,21 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="I150" s="27"/>
-      <c r="J150" s="26" t="s">
+      <c r="I150" s="17"/>
+      <c r="J150" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="K150" s="27"/>
-      <c r="L150" s="24"/>
-      <c r="M150" s="25"/>
-      <c r="N150" s="24"/>
-      <c r="O150" s="25"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="21"/>
+      <c r="M150" s="22"/>
+      <c r="N150" s="21"/>
+      <c r="O150" s="22"/>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" s="28">
+      <c r="B151" s="46">
         <v>106</v>
       </c>
       <c r="C151" s="6">
@@ -6675,23 +6698,23 @@
       <c r="G151" s="1">
         <v>0.2</v>
       </c>
-      <c r="H151" s="26" t="s">
+      <c r="H151" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="I151" s="27"/>
-      <c r="J151" s="26" t="s">
+      <c r="I151" s="17"/>
+      <c r="J151" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="K151" s="27"/>
-      <c r="L151" s="20" t="s">
+      <c r="K151" s="17"/>
+      <c r="L151" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="M151" s="21"/>
-      <c r="N151" s="20"/>
-      <c r="O151" s="21"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="20"/>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B152" s="29"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="1" t="s">
         <v>223</v>
       </c>
@@ -6699,21 +6722,21 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="26" t="s">
+      <c r="H152" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="I152" s="27"/>
-      <c r="J152" s="26" t="s">
+      <c r="I152" s="17"/>
+      <c r="J152" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="K152" s="27"/>
-      <c r="L152" s="24"/>
-      <c r="M152" s="25"/>
-      <c r="N152" s="24"/>
-      <c r="O152" s="25"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="21"/>
+      <c r="M152" s="22"/>
+      <c r="N152" s="21"/>
+      <c r="O152" s="22"/>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B153" s="28">
+      <c r="B153" s="46">
         <v>107</v>
       </c>
       <c r="C153" s="6">
@@ -6731,23 +6754,23 @@
       <c r="G153" s="1">
         <v>0.3</v>
       </c>
-      <c r="H153" s="26" t="s">
+      <c r="H153" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="I153" s="27"/>
-      <c r="J153" s="26" t="s">
+      <c r="I153" s="17"/>
+      <c r="J153" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="K153" s="27"/>
-      <c r="L153" s="20" t="s">
+      <c r="K153" s="17"/>
+      <c r="L153" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="M153" s="21"/>
-      <c r="N153" s="20"/>
-      <c r="O153" s="21"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="20"/>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B154" s="29"/>
+      <c r="B154" s="47"/>
       <c r="C154" s="1" t="s">
         <v>227</v>
       </c>
@@ -6759,21 +6782,21 @@
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="26" t="s">
+      <c r="H154" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="I154" s="27"/>
-      <c r="J154" s="26" t="s">
+      <c r="I154" s="17"/>
+      <c r="J154" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="K154" s="27"/>
-      <c r="L154" s="24"/>
-      <c r="M154" s="25"/>
-      <c r="N154" s="24"/>
-      <c r="O154" s="25"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="21"/>
+      <c r="M154" s="22"/>
+      <c r="N154" s="21"/>
+      <c r="O154" s="22"/>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B155" s="28">
+      <c r="B155" s="46">
         <v>108</v>
       </c>
       <c r="C155" s="6">
@@ -6791,23 +6814,23 @@
       <c r="G155" s="1">
         <v>0.3</v>
       </c>
-      <c r="H155" s="26" t="s">
+      <c r="H155" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I155" s="27"/>
-      <c r="J155" s="26" t="s">
+      <c r="I155" s="17"/>
+      <c r="J155" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="K155" s="27"/>
-      <c r="L155" s="20" t="s">
+      <c r="K155" s="17"/>
+      <c r="L155" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="M155" s="21"/>
-      <c r="N155" s="20"/>
-      <c r="O155" s="21"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="19"/>
+      <c r="O155" s="20"/>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B156" s="29"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="1" t="s">
         <v>230</v>
       </c>
@@ -6819,21 +6842,21 @@
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="26" t="s">
+      <c r="H156" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="I156" s="27"/>
-      <c r="J156" s="26" t="s">
+      <c r="I156" s="17"/>
+      <c r="J156" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="K156" s="27"/>
-      <c r="L156" s="24"/>
-      <c r="M156" s="25"/>
-      <c r="N156" s="24"/>
-      <c r="O156" s="25"/>
+      <c r="K156" s="17"/>
+      <c r="L156" s="21"/>
+      <c r="M156" s="22"/>
+      <c r="N156" s="21"/>
+      <c r="O156" s="22"/>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B157" s="28">
+      <c r="B157" s="46">
         <v>109</v>
       </c>
       <c r="C157" s="6">
@@ -6851,23 +6874,23 @@
       <c r="G157" s="1">
         <v>0.3</v>
       </c>
-      <c r="H157" s="26" t="s">
+      <c r="H157" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="I157" s="27"/>
-      <c r="J157" s="26" t="s">
+      <c r="I157" s="17"/>
+      <c r="J157" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="K157" s="27"/>
-      <c r="L157" s="20" t="s">
+      <c r="K157" s="17"/>
+      <c r="L157" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="M157" s="21"/>
-      <c r="N157" s="20"/>
-      <c r="O157" s="21"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="19"/>
+      <c r="O157" s="20"/>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B158" s="29"/>
+      <c r="B158" s="47"/>
       <c r="C158" s="1" t="s">
         <v>230</v>
       </c>
@@ -6879,21 +6902,21 @@
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="26" t="s">
+      <c r="H158" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="I158" s="27"/>
-      <c r="J158" s="26" t="s">
+      <c r="I158" s="17"/>
+      <c r="J158" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="K158" s="27"/>
-      <c r="L158" s="24"/>
-      <c r="M158" s="25"/>
-      <c r="N158" s="24"/>
-      <c r="O158" s="25"/>
+      <c r="K158" s="17"/>
+      <c r="L158" s="21"/>
+      <c r="M158" s="22"/>
+      <c r="N158" s="21"/>
+      <c r="O158" s="22"/>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B159" s="28">
+      <c r="B159" s="46">
         <v>110</v>
       </c>
       <c r="C159" s="6">
@@ -6911,23 +6934,23 @@
       <c r="G159" s="1">
         <v>0.3</v>
       </c>
-      <c r="H159" s="26" t="s">
+      <c r="H159" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="I159" s="27"/>
-      <c r="J159" s="26" t="s">
+      <c r="I159" s="17"/>
+      <c r="J159" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="K159" s="27"/>
-      <c r="L159" s="20" t="s">
+      <c r="K159" s="17"/>
+      <c r="L159" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="M159" s="21"/>
-      <c r="N159" s="20"/>
-      <c r="O159" s="21"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="20"/>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B160" s="29"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="1" t="s">
         <v>230</v>
       </c>
@@ -6939,21 +6962,21 @@
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="26" t="s">
+      <c r="H160" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="I160" s="27"/>
-      <c r="J160" s="26" t="s">
+      <c r="I160" s="17"/>
+      <c r="J160" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="K160" s="27"/>
-      <c r="L160" s="24"/>
-      <c r="M160" s="25"/>
-      <c r="N160" s="24"/>
-      <c r="O160" s="25"/>
+      <c r="K160" s="17"/>
+      <c r="L160" s="21"/>
+      <c r="M160" s="22"/>
+      <c r="N160" s="21"/>
+      <c r="O160" s="22"/>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B161" s="28">
+      <c r="B161" s="46">
         <v>111</v>
       </c>
       <c r="C161" s="6">
@@ -6971,23 +6994,23 @@
       <c r="G161" s="1">
         <v>3</v>
       </c>
-      <c r="H161" s="26" t="s">
+      <c r="H161" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="I161" s="27"/>
-      <c r="J161" s="26" t="s">
+      <c r="I161" s="17"/>
+      <c r="J161" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="K161" s="27"/>
-      <c r="L161" s="20" t="s">
+      <c r="K161" s="17"/>
+      <c r="L161" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="M161" s="21"/>
-      <c r="N161" s="20"/>
-      <c r="O161" s="21"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="20"/>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B162" s="29"/>
+      <c r="B162" s="47"/>
       <c r="C162" s="1" t="s">
         <v>243</v>
       </c>
@@ -7003,18 +7026,18 @@
       <c r="G162" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H162" s="26" t="s">
+      <c r="H162" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="I162" s="27"/>
-      <c r="J162" s="26" t="s">
+      <c r="I162" s="17"/>
+      <c r="J162" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="K162" s="27"/>
-      <c r="L162" s="24"/>
-      <c r="M162" s="25"/>
-      <c r="N162" s="24"/>
-      <c r="O162" s="25"/>
+      <c r="K162" s="17"/>
+      <c r="L162" s="21"/>
+      <c r="M162" s="22"/>
+      <c r="N162" s="21"/>
+      <c r="O162" s="22"/>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B163" s="6">
@@ -7035,20 +7058,20 @@
       <c r="G163" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H163" s="26" t="s">
+      <c r="H163" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="I163" s="27"/>
-      <c r="J163" s="26" t="s">
+      <c r="I163" s="17"/>
+      <c r="J163" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="K163" s="27"/>
-      <c r="L163" s="26" t="s">
+      <c r="K163" s="17"/>
+      <c r="L163" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="M163" s="27"/>
-      <c r="N163" s="26"/>
-      <c r="O163" s="27"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="16"/>
+      <c r="O163" s="17"/>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B164" s="6">
@@ -7069,23 +7092,23 @@
       <c r="G164" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H164" s="26" t="s">
+      <c r="H164" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="I164" s="27"/>
-      <c r="J164" s="26" t="s">
+      <c r="I164" s="17"/>
+      <c r="J164" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="K164" s="27"/>
-      <c r="L164" s="26" t="s">
+      <c r="K164" s="17"/>
+      <c r="L164" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="M164" s="27"/>
-      <c r="N164" s="26"/>
-      <c r="O164" s="27"/>
+      <c r="M164" s="17"/>
+      <c r="N164" s="16"/>
+      <c r="O164" s="17"/>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B165" s="16">
+      <c r="B165" s="23">
         <v>114</v>
       </c>
       <c r="C165" s="6">
@@ -7103,23 +7126,23 @@
       <c r="G165" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H165" s="19" t="s">
+      <c r="H165" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19" t="s">
+      <c r="I165" s="31"/>
+      <c r="J165" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="K165" s="19"/>
-      <c r="L165" s="20" t="s">
+      <c r="K165" s="31"/>
+      <c r="L165" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="M165" s="21"/>
-      <c r="N165" s="26"/>
-      <c r="O165" s="27"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="16"/>
+      <c r="O165" s="17"/>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B166" s="17"/>
+      <c r="B166" s="27"/>
       <c r="C166" s="1" t="s">
         <v>221</v>
       </c>
@@ -7135,21 +7158,21 @@
       <c r="G166" s="1">
         <v>2</v>
       </c>
-      <c r="H166" s="26" t="s">
+      <c r="H166" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="I166" s="27"/>
-      <c r="J166" s="26" t="s">
+      <c r="I166" s="17"/>
+      <c r="J166" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="K166" s="27"/>
-      <c r="L166" s="22"/>
-      <c r="M166" s="23"/>
-      <c r="N166" s="26"/>
-      <c r="O166" s="27"/>
+      <c r="K166" s="17"/>
+      <c r="L166" s="25"/>
+      <c r="M166" s="26"/>
+      <c r="N166" s="16"/>
+      <c r="O166" s="17"/>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B167" s="18"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="1" t="s">
         <v>293</v>
       </c>
@@ -7159,21 +7182,21 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="19">
+      <c r="H167" s="31">
         <v>7</v>
       </c>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19">
+      <c r="I167" s="31"/>
+      <c r="J167" s="31">
         <v>7</v>
       </c>
-      <c r="K167" s="19"/>
-      <c r="L167" s="24"/>
-      <c r="M167" s="25"/>
-      <c r="N167" s="26"/>
-      <c r="O167" s="27"/>
+      <c r="K167" s="31"/>
+      <c r="L167" s="21"/>
+      <c r="M167" s="22"/>
+      <c r="N167" s="16"/>
+      <c r="O167" s="17"/>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B168" s="16">
+      <c r="B168" s="23">
         <v>115</v>
       </c>
       <c r="C168" s="6">
@@ -7191,23 +7214,23 @@
       <c r="G168" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H168" s="19" t="s">
+      <c r="H168" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19" t="s">
+      <c r="I168" s="31"/>
+      <c r="J168" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="K168" s="19"/>
-      <c r="L168" s="20" t="s">
+      <c r="K168" s="31"/>
+      <c r="L168" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="M168" s="21"/>
-      <c r="N168" s="26"/>
-      <c r="O168" s="27"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="16"/>
+      <c r="O168" s="17"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B169" s="17"/>
+      <c r="B169" s="27"/>
       <c r="C169" s="1" t="s">
         <v>222</v>
       </c>
@@ -7223,21 +7246,21 @@
       <c r="G169" s="1">
         <v>3</v>
       </c>
-      <c r="H169" s="26" t="s">
+      <c r="H169" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="I169" s="27"/>
-      <c r="J169" s="26" t="s">
+      <c r="I169" s="17"/>
+      <c r="J169" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="K169" s="27"/>
-      <c r="L169" s="22"/>
-      <c r="M169" s="23"/>
-      <c r="N169" s="26"/>
-      <c r="O169" s="27"/>
+      <c r="K169" s="17"/>
+      <c r="L169" s="25"/>
+      <c r="M169" s="26"/>
+      <c r="N169" s="16"/>
+      <c r="O169" s="17"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B170" s="18"/>
+      <c r="B170" s="24"/>
       <c r="C170" s="1" t="s">
         <v>293</v>
       </c>
@@ -7247,21 +7270,21 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="19">
+      <c r="H170" s="31">
         <v>2</v>
       </c>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19">
+      <c r="I170" s="31"/>
+      <c r="J170" s="31">
         <v>2</v>
       </c>
-      <c r="K170" s="19"/>
-      <c r="L170" s="24"/>
-      <c r="M170" s="25"/>
-      <c r="N170" s="26"/>
-      <c r="O170" s="27"/>
+      <c r="K170" s="31"/>
+      <c r="L170" s="21"/>
+      <c r="M170" s="22"/>
+      <c r="N170" s="16"/>
+      <c r="O170" s="17"/>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B171" s="16">
+      <c r="B171" s="23">
         <v>116</v>
       </c>
       <c r="C171" s="6">
@@ -7279,23 +7302,23 @@
       <c r="G171" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H171" s="19" t="s">
+      <c r="H171" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="I171" s="19"/>
-      <c r="J171" s="19" t="s">
+      <c r="I171" s="31"/>
+      <c r="J171" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="K171" s="19"/>
-      <c r="L171" s="20" t="s">
+      <c r="K171" s="31"/>
+      <c r="L171" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="M171" s="21"/>
-      <c r="N171" s="26"/>
-      <c r="O171" s="27"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="16"/>
+      <c r="O171" s="17"/>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B172" s="17"/>
+      <c r="B172" s="27"/>
       <c r="C172" s="1" t="s">
         <v>227</v>
       </c>
@@ -7311,21 +7334,21 @@
       <c r="G172" s="1">
         <v>3</v>
       </c>
-      <c r="H172" s="26" t="s">
+      <c r="H172" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="I172" s="27"/>
-      <c r="J172" s="26" t="s">
+      <c r="I172" s="17"/>
+      <c r="J172" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="K172" s="27"/>
-      <c r="L172" s="22"/>
-      <c r="M172" s="23"/>
-      <c r="N172" s="26"/>
-      <c r="O172" s="27"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="26"/>
+      <c r="N172" s="16"/>
+      <c r="O172" s="17"/>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B173" s="18"/>
+      <c r="B173" s="24"/>
       <c r="C173" s="1" t="s">
         <v>293</v>
       </c>
@@ -7335,21 +7358,21 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="19">
+      <c r="H173" s="31">
         <v>-72</v>
       </c>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19">
+      <c r="I173" s="31"/>
+      <c r="J173" s="31">
         <v>-72</v>
       </c>
-      <c r="K173" s="19"/>
-      <c r="L173" s="24"/>
-      <c r="M173" s="25"/>
-      <c r="N173" s="26"/>
-      <c r="O173" s="27"/>
+      <c r="K173" s="31"/>
+      <c r="L173" s="21"/>
+      <c r="M173" s="22"/>
+      <c r="N173" s="16"/>
+      <c r="O173" s="17"/>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B174" s="16">
+      <c r="B174" s="23">
         <v>117</v>
       </c>
       <c r="C174" s="6">
@@ -7367,23 +7390,23 @@
       <c r="G174" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H174" s="19" t="s">
+      <c r="H174" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19" t="s">
+      <c r="I174" s="31"/>
+      <c r="J174" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="K174" s="19"/>
-      <c r="L174" s="20" t="s">
+      <c r="K174" s="31"/>
+      <c r="L174" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="M174" s="21"/>
-      <c r="N174" s="26"/>
-      <c r="O174" s="27"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="16"/>
+      <c r="O174" s="17"/>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B175" s="17"/>
+      <c r="B175" s="27"/>
       <c r="C175" s="1" t="s">
         <v>230</v>
       </c>
@@ -7399,21 +7422,21 @@
       <c r="G175" s="1">
         <v>4</v>
       </c>
-      <c r="H175" s="26" t="s">
+      <c r="H175" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="I175" s="27"/>
-      <c r="J175" s="26" t="s">
+      <c r="I175" s="17"/>
+      <c r="J175" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="K175" s="27"/>
-      <c r="L175" s="22"/>
-      <c r="M175" s="23"/>
-      <c r="N175" s="26"/>
-      <c r="O175" s="27"/>
+      <c r="K175" s="17"/>
+      <c r="L175" s="25"/>
+      <c r="M175" s="26"/>
+      <c r="N175" s="16"/>
+      <c r="O175" s="17"/>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="18"/>
+      <c r="B176" s="24"/>
       <c r="C176" s="1" t="s">
         <v>293</v>
       </c>
@@ -7423,21 +7446,21 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="19">
+      <c r="H176" s="31">
         <v>-0.125</v>
       </c>
-      <c r="I176" s="19"/>
-      <c r="J176" s="19">
+      <c r="I176" s="31"/>
+      <c r="J176" s="31">
         <v>-0.125</v>
       </c>
-      <c r="K176" s="19"/>
-      <c r="L176" s="24"/>
-      <c r="M176" s="25"/>
-      <c r="N176" s="26"/>
-      <c r="O176" s="27"/>
+      <c r="K176" s="31"/>
+      <c r="L176" s="21"/>
+      <c r="M176" s="22"/>
+      <c r="N176" s="16"/>
+      <c r="O176" s="17"/>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B177" s="42">
+      <c r="B177" s="32">
         <v>118</v>
       </c>
       <c r="C177" s="1">
@@ -7455,23 +7478,23 @@
       <c r="G177" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H177" s="19" t="s">
+      <c r="H177" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="I177" s="19"/>
-      <c r="J177" s="19" t="s">
+      <c r="I177" s="31"/>
+      <c r="J177" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="K177" s="19"/>
-      <c r="L177" s="20" t="s">
+      <c r="K177" s="31"/>
+      <c r="L177" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="M177" s="21"/>
+      <c r="M177" s="20"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B178" s="43"/>
+      <c r="B178" s="33"/>
       <c r="C178" s="1" t="s">
         <v>297</v>
       </c>
@@ -7487,21 +7510,21 @@
       <c r="G178" s="1">
         <v>3.9990000000000001</v>
       </c>
-      <c r="H178" s="26" t="s">
+      <c r="H178" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="I178" s="27"/>
-      <c r="J178" s="26" t="s">
+      <c r="I178" s="17"/>
+      <c r="J178" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="K178" s="27"/>
-      <c r="L178" s="22"/>
-      <c r="M178" s="23"/>
+      <c r="K178" s="17"/>
+      <c r="L178" s="25"/>
+      <c r="M178" s="26"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B179" s="44"/>
+      <c r="B179" s="34"/>
       <c r="C179" s="1" t="s">
         <v>295</v>
       </c>
@@ -7511,21 +7534,21 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="19">
+      <c r="H179" s="31">
         <v>15.75606</v>
       </c>
-      <c r="I179" s="19"/>
-      <c r="J179" s="19">
+      <c r="I179" s="31"/>
+      <c r="J179" s="31">
         <v>15.75606</v>
       </c>
-      <c r="K179" s="19"/>
-      <c r="L179" s="24"/>
-      <c r="M179" s="25"/>
+      <c r="K179" s="31"/>
+      <c r="L179" s="21"/>
+      <c r="M179" s="22"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B180" s="16">
+      <c r="B180" s="23">
         <v>119</v>
       </c>
       <c r="C180" s="1">
@@ -7543,23 +7566,23 @@
       <c r="G180" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H180" s="20" t="s">
+      <c r="H180" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="I180" s="21"/>
-      <c r="J180" s="20" t="s">
+      <c r="I180" s="20"/>
+      <c r="J180" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="K180" s="21"/>
-      <c r="L180" s="20" t="s">
+      <c r="K180" s="20"/>
+      <c r="L180" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="M180" s="21"/>
+      <c r="M180" s="20"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B181" s="17"/>
+      <c r="B181" s="27"/>
       <c r="C181" s="1" t="s">
         <v>292</v>
       </c>
@@ -7575,17 +7598,17 @@
       <c r="G181" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H181" s="24"/>
-      <c r="I181" s="25"/>
-      <c r="J181" s="24"/>
-      <c r="K181" s="25"/>
-      <c r="L181" s="22"/>
-      <c r="M181" s="23"/>
+      <c r="H181" s="21"/>
+      <c r="I181" s="22"/>
+      <c r="J181" s="21"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="25"/>
+      <c r="M181" s="26"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B182" s="18"/>
+      <c r="B182" s="24"/>
       <c r="C182" s="1" t="s">
         <v>294</v>
       </c>
@@ -7593,21 +7616,21 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="26" t="s">
+      <c r="H182" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="I182" s="27"/>
-      <c r="J182" s="26" t="s">
+      <c r="I182" s="17"/>
+      <c r="J182" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="K182" s="27"/>
-      <c r="L182" s="24"/>
-      <c r="M182" s="25"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="21"/>
+      <c r="M182" s="22"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B183" s="16">
+      <c r="B183" s="23">
         <v>120</v>
       </c>
       <c r="C183" s="1">
@@ -7625,23 +7648,23 @@
       <c r="G183" s="1">
         <v>6.66</v>
       </c>
-      <c r="H183" s="26" t="s">
+      <c r="H183" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="I183" s="27"/>
-      <c r="J183" s="26" t="s">
+      <c r="I183" s="17"/>
+      <c r="J183" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="K183" s="27"/>
-      <c r="L183" s="20" t="s">
+      <c r="K183" s="17"/>
+      <c r="L183" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="M183" s="21"/>
+      <c r="M183" s="20"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B184" s="17"/>
+      <c r="B184" s="27"/>
       <c r="C184" s="1" t="s">
         <v>295</v>
       </c>
@@ -7657,21 +7680,21 @@
       <c r="G184" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H184" s="26" t="s">
+      <c r="H184" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="I184" s="27"/>
-      <c r="J184" s="26" t="s">
+      <c r="I184" s="17"/>
+      <c r="J184" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="K184" s="27"/>
-      <c r="L184" s="22"/>
-      <c r="M184" s="23"/>
+      <c r="K184" s="17"/>
+      <c r="L184" s="25"/>
+      <c r="M184" s="26"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B185" s="18"/>
+      <c r="B185" s="24"/>
       <c r="C185" s="1" t="s">
         <v>296</v>
       </c>
@@ -7679,21 +7702,21 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="45" t="s">
+      <c r="H185" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="I185" s="45"/>
-      <c r="J185" s="45" t="s">
+      <c r="I185" s="30"/>
+      <c r="J185" s="30" t="s">
         <v>411</v>
       </c>
-      <c r="K185" s="45"/>
-      <c r="L185" s="24"/>
-      <c r="M185" s="25"/>
+      <c r="K185" s="30"/>
+      <c r="L185" s="21"/>
+      <c r="M185" s="22"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B186" s="16">
+      <c r="B186" s="23">
         <v>121</v>
       </c>
       <c r="C186" s="1">
@@ -7711,21 +7734,21 @@
       <c r="G186" s="8">
         <v>0.88</v>
       </c>
-      <c r="H186" s="19" t="s">
+      <c r="H186" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="I186" s="19"/>
-      <c r="J186" s="37" t="s">
+      <c r="I186" s="31"/>
+      <c r="J186" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="K186" s="21"/>
-      <c r="L186" s="20" t="s">
+      <c r="K186" s="20"/>
+      <c r="L186" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="M186" s="21"/>
+      <c r="M186" s="20"/>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B187" s="17"/>
+      <c r="B187" s="27"/>
       <c r="C187" s="1" t="s">
         <v>294</v>
       </c>
@@ -7749,11 +7772,11 @@
       <c r="K187" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="L187" s="22"/>
-      <c r="M187" s="23"/>
+      <c r="L187" s="25"/>
+      <c r="M187" s="26"/>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B188" s="18"/>
+      <c r="B188" s="24"/>
       <c r="C188" s="1" t="s">
         <v>296</v>
       </c>
@@ -7761,19 +7784,19 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="46" t="s">
+      <c r="H188" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="I188" s="47"/>
-      <c r="J188" s="46" t="s">
+      <c r="I188" s="29"/>
+      <c r="J188" s="28" t="s">
         <v>409</v>
       </c>
-      <c r="K188" s="47"/>
-      <c r="L188" s="24"/>
-      <c r="M188" s="25"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="21"/>
+      <c r="M188" s="22"/>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B189" s="16">
+      <c r="B189" s="23">
         <v>122</v>
       </c>
       <c r="C189" s="1">
@@ -7791,21 +7814,21 @@
       <c r="G189" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H189" s="20" t="s">
+      <c r="H189" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="I189" s="21"/>
-      <c r="J189" s="20" t="s">
+      <c r="I189" s="20"/>
+      <c r="J189" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="K189" s="21"/>
-      <c r="L189" s="20" t="s">
+      <c r="K189" s="20"/>
+      <c r="L189" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="M189" s="21"/>
+      <c r="M189" s="20"/>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B190" s="17"/>
+      <c r="B190" s="27"/>
       <c r="C190" s="1">
         <v>66.599999999999994</v>
       </c>
@@ -7821,19 +7844,19 @@
       <c r="G190" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H190" s="19" t="s">
+      <c r="H190" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="I190" s="19"/>
-      <c r="J190" s="24" t="s">
+      <c r="I190" s="31"/>
+      <c r="J190" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="K190" s="25"/>
-      <c r="L190" s="22"/>
-      <c r="M190" s="23"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="25"/>
+      <c r="M190" s="26"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B191" s="18"/>
+      <c r="B191" s="24"/>
       <c r="C191" s="1" t="s">
         <v>294</v>
       </c>
@@ -7843,19 +7866,19 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="46" t="s">
+      <c r="H191" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="I191" s="47"/>
-      <c r="J191" s="46" t="s">
+      <c r="I191" s="29"/>
+      <c r="J191" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="K191" s="47"/>
-      <c r="L191" s="24"/>
-      <c r="M191" s="25"/>
+      <c r="K191" s="29"/>
+      <c r="L191" s="21"/>
+      <c r="M191" s="22"/>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B192" s="16">
+      <c r="B192" s="23">
         <v>123</v>
       </c>
       <c r="C192" s="1">
@@ -7873,21 +7896,21 @@
       <c r="G192" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H192" s="26" t="s">
+      <c r="H192" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="I192" s="27"/>
-      <c r="J192" s="26" t="s">
+      <c r="I192" s="17"/>
+      <c r="J192" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="K192" s="27"/>
-      <c r="L192" s="20" t="s">
+      <c r="K192" s="17"/>
+      <c r="L192" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="M192" s="21"/>
+      <c r="M192" s="20"/>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B193" s="18"/>
+      <c r="B193" s="24"/>
       <c r="C193" s="1" t="s">
         <v>296</v>
       </c>
@@ -7895,19 +7918,19 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="26" t="s">
+      <c r="H193" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="I193" s="27"/>
-      <c r="J193" s="26" t="s">
+      <c r="I193" s="17"/>
+      <c r="J193" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="K193" s="27"/>
-      <c r="L193" s="24"/>
-      <c r="M193" s="25"/>
+      <c r="K193" s="17"/>
+      <c r="L193" s="21"/>
+      <c r="M193" s="22"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B194" s="16">
+      <c r="B194" s="23">
         <v>124</v>
       </c>
       <c r="C194" s="1">
@@ -7925,19 +7948,19 @@
       <c r="G194" s="7">
         <v>10</v>
       </c>
-      <c r="H194" s="26" t="s">
+      <c r="H194" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="I194" s="27"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="27"/>
-      <c r="L194" s="20" t="s">
+      <c r="I194" s="17"/>
+      <c r="J194" s="16"/>
+      <c r="K194" s="17"/>
+      <c r="L194" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="M194" s="21"/>
+      <c r="M194" s="20"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B195" s="18"/>
+      <c r="B195" s="24"/>
       <c r="C195" s="7" t="s">
         <v>88</v>
       </c>
@@ -7947,17 +7970,17 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="26" t="s">
+      <c r="H195" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="I195" s="27"/>
-      <c r="J195" s="26"/>
-      <c r="K195" s="27"/>
-      <c r="L195" s="24"/>
-      <c r="M195" s="25"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="16"/>
+      <c r="K195" s="17"/>
+      <c r="L195" s="21"/>
+      <c r="M195" s="22"/>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B196" s="16">
+      <c r="B196" s="23">
         <v>125</v>
       </c>
       <c r="C196" s="1">
@@ -7975,21 +7998,21 @@
       <c r="G196" s="1">
         <v>60</v>
       </c>
-      <c r="H196" s="26" t="s">
+      <c r="H196" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="I196" s="27"/>
-      <c r="J196" s="26" t="s">
+      <c r="I196" s="17"/>
+      <c r="J196" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="K196" s="27"/>
-      <c r="L196" s="20" t="s">
+      <c r="K196" s="17"/>
+      <c r="L196" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="M196" s="21"/>
+      <c r="M196" s="20"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B197" s="18"/>
+      <c r="B197" s="24"/>
       <c r="C197" s="1" t="s">
         <v>294</v>
       </c>
@@ -7999,19 +8022,19 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="26" t="s">
+      <c r="H197" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="I197" s="27"/>
-      <c r="J197" s="26" t="s">
+      <c r="I197" s="17"/>
+      <c r="J197" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="K197" s="27"/>
-      <c r="L197" s="24"/>
-      <c r="M197" s="25"/>
+      <c r="K197" s="17"/>
+      <c r="L197" s="21"/>
+      <c r="M197" s="22"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B198" s="16">
+      <c r="B198" s="23">
         <v>126</v>
       </c>
       <c r="C198" s="1">
@@ -8029,21 +8052,21 @@
       <c r="G198" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H198" s="26" t="s">
+      <c r="H198" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="I198" s="27"/>
-      <c r="J198" s="26" t="s">
+      <c r="I198" s="17"/>
+      <c r="J198" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="K198" s="27"/>
-      <c r="L198" s="20" t="s">
+      <c r="K198" s="17"/>
+      <c r="L198" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="M198" s="21"/>
+      <c r="M198" s="20"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B199" s="18"/>
+      <c r="B199" s="24"/>
       <c r="C199" s="1" t="s">
         <v>293</v>
       </c>
@@ -8053,19 +8076,19 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="26" t="s">
+      <c r="H199" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="I199" s="27"/>
-      <c r="J199" s="26" t="s">
+      <c r="I199" s="17"/>
+      <c r="J199" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="K199" s="27"/>
-      <c r="L199" s="24"/>
-      <c r="M199" s="25"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="21"/>
+      <c r="M199" s="22"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B200" s="16">
+      <c r="B200" s="23">
         <v>127</v>
       </c>
       <c r="C200" s="1">
@@ -8083,21 +8106,21 @@
       <c r="G200" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H200" s="20" t="s">
+      <c r="H200" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="I200" s="21"/>
-      <c r="J200" s="20" t="s">
+      <c r="I200" s="20"/>
+      <c r="J200" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="K200" s="21"/>
-      <c r="L200" s="20" t="s">
+      <c r="K200" s="20"/>
+      <c r="L200" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="M200" s="21"/>
+      <c r="M200" s="20"/>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B201" s="17"/>
+      <c r="B201" s="27"/>
       <c r="C201" s="1" t="s">
         <v>292</v>
       </c>
@@ -8113,19 +8136,19 @@
       <c r="G201" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H201" s="22" t="s">
+      <c r="H201" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="I201" s="23"/>
-      <c r="J201" s="22" t="s">
+      <c r="I201" s="26"/>
+      <c r="J201" s="25" t="s">
         <v>397</v>
       </c>
-      <c r="K201" s="23"/>
-      <c r="L201" s="22"/>
-      <c r="M201" s="23"/>
+      <c r="K201" s="26"/>
+      <c r="L201" s="25"/>
+      <c r="M201" s="26"/>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B202" s="18"/>
+      <c r="B202" s="24"/>
       <c r="C202" s="1" t="s">
         <v>308</v>
       </c>
@@ -8139,12 +8162,12 @@
         <v>296</v>
       </c>
       <c r="G202" s="1"/>
-      <c r="H202" s="24"/>
-      <c r="I202" s="25"/>
-      <c r="J202" s="24"/>
-      <c r="K202" s="25"/>
-      <c r="L202" s="24"/>
-      <c r="M202" s="25"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="22"/>
+      <c r="J202" s="21"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="21"/>
+      <c r="M202" s="22"/>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B203" s="1">
@@ -8159,18 +8182,18 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="26" t="s">
+      <c r="H203" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="I203" s="27"/>
-      <c r="J203" s="26" t="s">
+      <c r="I203" s="17"/>
+      <c r="J203" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="K203" s="27"/>
-      <c r="L203" s="26" t="s">
+      <c r="K203" s="17"/>
+      <c r="L203" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="M203" s="27"/>
+      <c r="M203" s="17"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
@@ -8191,18 +8214,18 @@
       <c r="G204" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H204" s="26" t="s">
+      <c r="H204" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="I204" s="27"/>
-      <c r="J204" s="26" t="s">
+      <c r="I204" s="17"/>
+      <c r="J204" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="K204" s="27"/>
-      <c r="L204" s="26" t="s">
+      <c r="K204" s="17"/>
+      <c r="L204" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="M204" s="27"/>
+      <c r="M204" s="17"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
@@ -8221,18 +8244,18 @@
         <v>320</v>
       </c>
       <c r="G205" s="1"/>
-      <c r="H205" s="26" t="s">
+      <c r="H205" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="I205" s="27"/>
-      <c r="J205" s="26" t="s">
+      <c r="I205" s="17"/>
+      <c r="J205" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="K205" s="27"/>
-      <c r="L205" s="26" t="s">
+      <c r="K205" s="17"/>
+      <c r="L205" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="M205" s="27"/>
+      <c r="M205" s="17"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B206" s="1">
@@ -8251,18 +8274,18 @@
         <v>320</v>
       </c>
       <c r="G206" s="1"/>
-      <c r="H206" s="26" t="s">
+      <c r="H206" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="I206" s="27"/>
-      <c r="J206" s="26" t="s">
+      <c r="I206" s="17"/>
+      <c r="J206" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="K206" s="27"/>
-      <c r="L206" s="26" t="s">
+      <c r="K206" s="17"/>
+      <c r="L206" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="M206" s="27"/>
+      <c r="M206" s="17"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B207" s="1">
@@ -8281,18 +8304,18 @@
         <v>320</v>
       </c>
       <c r="G207" s="1"/>
-      <c r="H207" s="26" t="s">
+      <c r="H207" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="I207" s="27"/>
-      <c r="J207" s="26" t="s">
+      <c r="I207" s="17"/>
+      <c r="J207" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="K207" s="27"/>
-      <c r="L207" s="26" t="s">
+      <c r="K207" s="17"/>
+      <c r="L207" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="M207" s="27"/>
+      <c r="M207" s="17"/>
     </row>
     <row r="208" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B208" s="1">
@@ -8311,21 +8334,21 @@
         <v>320</v>
       </c>
       <c r="G208" s="1"/>
-      <c r="H208" s="26" t="s">
+      <c r="H208" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="I208" s="27"/>
-      <c r="J208" s="26" t="s">
+      <c r="I208" s="17"/>
+      <c r="J208" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="K208" s="27"/>
-      <c r="L208" s="26" t="s">
+      <c r="K208" s="17"/>
+      <c r="L208" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="M208" s="27"/>
+      <c r="M208" s="17"/>
     </row>
     <row r="209" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B209" s="16">
+      <c r="B209" s="23">
         <v>134</v>
       </c>
       <c r="C209" s="1">
@@ -8343,39 +8366,39 @@
       <c r="G209" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H209" s="26" t="s">
+      <c r="H209" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="I209" s="27"/>
-      <c r="J209" s="26" t="s">
+      <c r="I209" s="17"/>
+      <c r="J209" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="K209" s="27"/>
-      <c r="L209" s="20" t="s">
+      <c r="K209" s="17"/>
+      <c r="L209" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="M209" s="21"/>
+      <c r="M209" s="20"/>
     </row>
     <row r="210" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B210" s="18"/>
+      <c r="B210" s="24"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="26" t="s">
+      <c r="H210" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="I210" s="27"/>
-      <c r="J210" s="26" t="s">
+      <c r="I210" s="17"/>
+      <c r="J210" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="K210" s="27"/>
-      <c r="L210" s="24"/>
-      <c r="M210" s="25"/>
+      <c r="K210" s="17"/>
+      <c r="L210" s="21"/>
+      <c r="M210" s="22"/>
     </row>
     <row r="211" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B211" s="16">
+      <c r="B211" s="23">
         <v>135</v>
       </c>
       <c r="C211" s="1">
@@ -8393,39 +8416,39 @@
       <c r="G211" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H211" s="26" t="s">
+      <c r="H211" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="I211" s="27"/>
-      <c r="J211" s="26" t="s">
+      <c r="I211" s="17"/>
+      <c r="J211" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="K211" s="27"/>
-      <c r="L211" s="20" t="s">
+      <c r="K211" s="17"/>
+      <c r="L211" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="M211" s="21"/>
+      <c r="M211" s="20"/>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B212" s="18"/>
+      <c r="B212" s="24"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="26" t="s">
+      <c r="H212" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="I212" s="27"/>
-      <c r="J212" s="26" t="s">
+      <c r="I212" s="17"/>
+      <c r="J212" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="K212" s="27"/>
-      <c r="L212" s="24"/>
-      <c r="M212" s="25"/>
+      <c r="K212" s="17"/>
+      <c r="L212" s="21"/>
+      <c r="M212" s="22"/>
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B213" s="16">
+      <c r="B213" s="23">
         <v>136</v>
       </c>
       <c r="C213" s="1">
@@ -8443,39 +8466,39 @@
       <c r="G213" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H213" s="26" t="s">
+      <c r="H213" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="I213" s="27"/>
-      <c r="J213" s="26" t="s">
+      <c r="I213" s="17"/>
+      <c r="J213" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="K213" s="27"/>
-      <c r="L213" s="20" t="s">
+      <c r="K213" s="17"/>
+      <c r="L213" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="M213" s="21"/>
+      <c r="M213" s="20"/>
     </row>
     <row r="214" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B214" s="18"/>
+      <c r="B214" s="24"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="26" t="s">
+      <c r="H214" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="I214" s="27"/>
-      <c r="J214" s="26" t="s">
+      <c r="I214" s="17"/>
+      <c r="J214" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K214" s="27"/>
-      <c r="L214" s="24"/>
-      <c r="M214" s="25"/>
+      <c r="K214" s="17"/>
+      <c r="L214" s="21"/>
+      <c r="M214" s="22"/>
     </row>
     <row r="215" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B215" s="16">
+      <c r="B215" s="23">
         <v>137</v>
       </c>
       <c r="C215" s="1">
@@ -8493,39 +8516,39 @@
       <c r="G215" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H215" s="26" t="s">
+      <c r="H215" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="I215" s="27"/>
-      <c r="J215" s="26" t="s">
+      <c r="I215" s="17"/>
+      <c r="J215" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="K215" s="27"/>
-      <c r="L215" s="20" t="s">
+      <c r="K215" s="17"/>
+      <c r="L215" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="M215" s="21"/>
+      <c r="M215" s="20"/>
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B216" s="18"/>
+      <c r="B216" s="24"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="26" t="s">
+      <c r="H216" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="I216" s="27"/>
-      <c r="J216" s="26" t="s">
+      <c r="I216" s="17"/>
+      <c r="J216" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="K216" s="27"/>
-      <c r="L216" s="24"/>
-      <c r="M216" s="25"/>
+      <c r="K216" s="17"/>
+      <c r="L216" s="21"/>
+      <c r="M216" s="22"/>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B217" s="16">
+      <c r="B217" s="23">
         <v>138</v>
       </c>
       <c r="C217" s="1">
@@ -8543,21 +8566,21 @@
       <c r="G217" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H217" s="26" t="s">
+      <c r="H217" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="I217" s="27"/>
-      <c r="J217" s="26" t="s">
+      <c r="I217" s="17"/>
+      <c r="J217" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="K217" s="27"/>
-      <c r="L217" s="20" t="s">
+      <c r="K217" s="17"/>
+      <c r="L217" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="M217" s="21"/>
+      <c r="M217" s="20"/>
     </row>
     <row r="218" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B218" s="18"/>
+      <c r="B218" s="24"/>
       <c r="C218" s="1" t="s">
         <v>320</v>
       </c>
@@ -8565,19 +8588,19 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="26" t="s">
+      <c r="H218" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="I218" s="27"/>
-      <c r="J218" s="26" t="s">
+      <c r="I218" s="17"/>
+      <c r="J218" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="K218" s="27"/>
-      <c r="L218" s="24"/>
-      <c r="M218" s="25"/>
+      <c r="K218" s="17"/>
+      <c r="L218" s="21"/>
+      <c r="M218" s="22"/>
     </row>
     <row r="219" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B219" s="16">
+      <c r="B219" s="23">
         <v>139</v>
       </c>
       <c r="C219" s="1">
@@ -8595,21 +8618,21 @@
       <c r="G219" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H219" s="26" t="s">
+      <c r="H219" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="I219" s="27"/>
-      <c r="J219" s="26" t="s">
+      <c r="I219" s="17"/>
+      <c r="J219" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="K219" s="27"/>
-      <c r="L219" s="20" t="s">
+      <c r="K219" s="17"/>
+      <c r="L219" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="M219" s="21"/>
+      <c r="M219" s="20"/>
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B220" s="18"/>
+      <c r="B220" s="24"/>
       <c r="C220" s="1" t="s">
         <v>320</v>
       </c>
@@ -8619,19 +8642,19 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="26" t="s">
+      <c r="H220" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="I220" s="27"/>
-      <c r="J220" s="26" t="s">
+      <c r="I220" s="17"/>
+      <c r="J220" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="K220" s="27"/>
-      <c r="L220" s="24"/>
-      <c r="M220" s="25"/>
+      <c r="K220" s="17"/>
+      <c r="L220" s="21"/>
+      <c r="M220" s="22"/>
     </row>
     <row r="221" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B221" s="16">
+      <c r="B221" s="23">
         <v>140</v>
       </c>
       <c r="C221" s="1">
@@ -8649,21 +8672,21 @@
       <c r="G221" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H221" s="26" t="s">
+      <c r="H221" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="I221" s="27"/>
-      <c r="J221" s="26" t="s">
+      <c r="I221" s="17"/>
+      <c r="J221" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="K221" s="27"/>
-      <c r="L221" s="20" t="s">
+      <c r="K221" s="17"/>
+      <c r="L221" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="M221" s="21"/>
+      <c r="M221" s="20"/>
     </row>
     <row r="222" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B222" s="18"/>
+      <c r="B222" s="24"/>
       <c r="C222" s="1" t="s">
         <v>320</v>
       </c>
@@ -8677,19 +8700,19 @@
         <v>320</v>
       </c>
       <c r="G222" s="1"/>
-      <c r="H222" s="26" t="s">
+      <c r="H222" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="I222" s="27"/>
-      <c r="J222" s="26" t="s">
+      <c r="I222" s="17"/>
+      <c r="J222" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="K222" s="27"/>
-      <c r="L222" s="24"/>
-      <c r="M222" s="25"/>
+      <c r="K222" s="17"/>
+      <c r="L222" s="21"/>
+      <c r="M222" s="22"/>
     </row>
     <row r="223" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B223" s="16">
+      <c r="B223" s="23">
         <v>141</v>
       </c>
       <c r="C223" s="1">
@@ -8707,21 +8730,21 @@
       <c r="G223" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H223" s="26" t="s">
+      <c r="H223" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="I223" s="27"/>
-      <c r="J223" s="26" t="s">
+      <c r="I223" s="17"/>
+      <c r="J223" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="K223" s="27"/>
-      <c r="L223" s="20" t="s">
+      <c r="K223" s="17"/>
+      <c r="L223" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="M223" s="21"/>
+      <c r="M223" s="20"/>
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B224" s="18"/>
+      <c r="B224" s="24"/>
       <c r="C224" s="1" t="s">
         <v>320</v>
       </c>
@@ -8737,19 +8760,19 @@
       <c r="G224" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H224" s="26" t="s">
+      <c r="H224" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="I224" s="27"/>
-      <c r="J224" s="26" t="s">
+      <c r="I224" s="17"/>
+      <c r="J224" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="K224" s="27"/>
-      <c r="L224" s="24"/>
-      <c r="M224" s="25"/>
+      <c r="K224" s="17"/>
+      <c r="L224" s="21"/>
+      <c r="M224" s="22"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B225" s="16">
+      <c r="B225" s="23">
         <v>142</v>
       </c>
       <c r="C225" s="1">
@@ -8767,21 +8790,21 @@
       <c r="G225" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H225" s="26" t="s">
+      <c r="H225" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="I225" s="27"/>
-      <c r="J225" s="26" t="s">
+      <c r="I225" s="17"/>
+      <c r="J225" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="K225" s="27"/>
-      <c r="L225" s="20" t="s">
+      <c r="K225" s="17"/>
+      <c r="L225" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="M225" s="21"/>
+      <c r="M225" s="20"/>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B226" s="17"/>
+      <c r="B226" s="27"/>
       <c r="C226" s="1" t="s">
         <v>320</v>
       </c>
@@ -8797,19 +8820,19 @@
       <c r="G226" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H226" s="26" t="s">
+      <c r="H226" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="I226" s="27"/>
-      <c r="J226" s="26" t="s">
+      <c r="I226" s="17"/>
+      <c r="J226" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K226" s="27"/>
-      <c r="L226" s="22"/>
-      <c r="M226" s="23"/>
+      <c r="K226" s="17"/>
+      <c r="L226" s="25"/>
+      <c r="M226" s="26"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B227" s="18"/>
+      <c r="B227" s="24"/>
       <c r="C227" s="1" t="s">
         <v>296</v>
       </c>
@@ -8817,16 +8840,16 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="26" t="s">
+      <c r="H227" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="I227" s="27"/>
-      <c r="J227" s="26" t="s">
+      <c r="I227" s="17"/>
+      <c r="J227" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="K227" s="27"/>
-      <c r="L227" s="24"/>
-      <c r="M227" s="25"/>
+      <c r="K227" s="17"/>
+      <c r="L227" s="21"/>
+      <c r="M227" s="22"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B228" s="1">
@@ -8843,18 +8866,18 @@
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="26" t="s">
+      <c r="H228" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="I228" s="27"/>
-      <c r="J228" s="26" t="s">
+      <c r="I228" s="17"/>
+      <c r="J228" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="K228" s="27"/>
-      <c r="L228" s="26" t="s">
+      <c r="K228" s="17"/>
+      <c r="L228" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="M228" s="27"/>
+      <c r="M228" s="17"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B229" s="1">
@@ -8871,18 +8894,18 @@
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="26" t="s">
+      <c r="H229" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="I229" s="27"/>
-      <c r="J229" s="26" t="s">
+      <c r="I229" s="17"/>
+      <c r="J229" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="K229" s="27"/>
-      <c r="L229" s="26" t="s">
+      <c r="K229" s="17"/>
+      <c r="L229" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="M229" s="27"/>
+      <c r="M229" s="17"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B230" s="1">
@@ -8899,18 +8922,18 @@
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="26" t="s">
+      <c r="H230" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="I230" s="27"/>
-      <c r="J230" s="26" t="s">
+      <c r="I230" s="17"/>
+      <c r="J230" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="K230" s="27"/>
-      <c r="L230" s="26" t="s">
+      <c r="K230" s="17"/>
+      <c r="L230" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="M230" s="27"/>
+      <c r="M230" s="17"/>
     </row>
     <row r="231" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B231" s="1">
@@ -8927,18 +8950,18 @@
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="26" t="s">
+      <c r="H231" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="I231" s="27"/>
-      <c r="J231" s="26" t="s">
+      <c r="I231" s="17"/>
+      <c r="J231" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="K231" s="27"/>
-      <c r="L231" s="26" t="s">
+      <c r="K231" s="17"/>
+      <c r="L231" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="M231" s="27"/>
+      <c r="M231" s="17"/>
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
@@ -8955,18 +8978,18 @@
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="26" t="s">
+      <c r="H232" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="I232" s="27"/>
-      <c r="J232" s="26" t="s">
+      <c r="I232" s="17"/>
+      <c r="J232" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="K232" s="27"/>
-      <c r="L232" s="26" t="s">
+      <c r="K232" s="17"/>
+      <c r="L232" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="M232" s="27"/>
+      <c r="M232" s="17"/>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B233" s="1">
@@ -8985,21 +9008,21 @@
         <v>296</v>
       </c>
       <c r="G233" s="1"/>
-      <c r="H233" s="26" t="s">
+      <c r="H233" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="I233" s="27"/>
-      <c r="J233" s="26" t="s">
+      <c r="I233" s="17"/>
+      <c r="J233" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="K233" s="27"/>
-      <c r="L233" s="26" t="s">
+      <c r="K233" s="17"/>
+      <c r="L233" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="M233" s="27"/>
+      <c r="M233" s="17"/>
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B234" s="16">
+      <c r="B234" s="23">
         <v>149</v>
       </c>
       <c r="C234" s="1">
@@ -9017,21 +9040,21 @@
       <c r="G234" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H234" s="26" t="s">
+      <c r="H234" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="I234" s="27"/>
-      <c r="J234" s="26" t="s">
+      <c r="I234" s="17"/>
+      <c r="J234" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="K234" s="27"/>
-      <c r="L234" s="20" t="s">
+      <c r="K234" s="17"/>
+      <c r="L234" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="M234" s="21"/>
+      <c r="M234" s="20"/>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B235" s="18"/>
+      <c r="B235" s="24"/>
       <c r="C235" s="1" t="s">
         <v>296</v>
       </c>
@@ -9039,19 +9062,19 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="26" t="s">
+      <c r="H235" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="I235" s="27"/>
-      <c r="J235" s="26" t="s">
+      <c r="I235" s="17"/>
+      <c r="J235" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="K235" s="27"/>
-      <c r="L235" s="24"/>
-      <c r="M235" s="25"/>
+      <c r="K235" s="17"/>
+      <c r="L235" s="21"/>
+      <c r="M235" s="22"/>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B236" s="16">
+      <c r="B236" s="23">
         <v>150</v>
       </c>
       <c r="C236" s="1">
@@ -9069,21 +9092,21 @@
       <c r="G236" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H236" s="26" t="s">
+      <c r="H236" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="I236" s="27"/>
-      <c r="J236" s="26" t="s">
+      <c r="I236" s="17"/>
+      <c r="J236" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="K236" s="27"/>
-      <c r="L236" s="20" t="s">
+      <c r="K236" s="17"/>
+      <c r="L236" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="M236" s="21"/>
+      <c r="M236" s="20"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B237" s="18"/>
+      <c r="B237" s="24"/>
       <c r="C237" s="1" t="s">
         <v>296</v>
       </c>
@@ -9091,19 +9114,19 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="26" t="s">
+      <c r="H237" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="I237" s="27"/>
-      <c r="J237" s="26" t="s">
+      <c r="I237" s="17"/>
+      <c r="J237" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="K237" s="27"/>
-      <c r="L237" s="24"/>
-      <c r="M237" s="25"/>
+      <c r="K237" s="17"/>
+      <c r="L237" s="21"/>
+      <c r="M237" s="22"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B238" s="16">
+      <c r="B238" s="23">
         <v>151</v>
       </c>
       <c r="C238" s="1">
@@ -9121,21 +9144,21 @@
       <c r="G238" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H238" s="26" t="s">
+      <c r="H238" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="I238" s="27"/>
-      <c r="J238" s="26" t="s">
+      <c r="I238" s="17"/>
+      <c r="J238" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="K238" s="27"/>
-      <c r="L238" s="20" t="s">
+      <c r="K238" s="17"/>
+      <c r="L238" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="M238" s="21"/>
+      <c r="M238" s="20"/>
     </row>
     <row r="239" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B239" s="18"/>
+      <c r="B239" s="24"/>
       <c r="C239" s="1" t="s">
         <v>296</v>
       </c>
@@ -9143,19 +9166,19 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="26" t="s">
+      <c r="H239" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="I239" s="27"/>
-      <c r="J239" s="26" t="s">
+      <c r="I239" s="17"/>
+      <c r="J239" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="K239" s="27"/>
-      <c r="L239" s="24"/>
-      <c r="M239" s="25"/>
+      <c r="K239" s="17"/>
+      <c r="L239" s="21"/>
+      <c r="M239" s="22"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B240" s="16">
+      <c r="B240" s="23">
         <v>152</v>
       </c>
       <c r="C240" s="1">
@@ -9173,21 +9196,21 @@
       <c r="G240" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H240" s="26" t="s">
+      <c r="H240" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="I240" s="27"/>
-      <c r="J240" s="26" t="s">
+      <c r="I240" s="17"/>
+      <c r="J240" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="K240" s="27"/>
-      <c r="L240" s="20" t="s">
+      <c r="K240" s="17"/>
+      <c r="L240" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="M240" s="21"/>
+      <c r="M240" s="20"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B241" s="18"/>
+      <c r="B241" s="24"/>
       <c r="C241" s="1" t="s">
         <v>296</v>
       </c>
@@ -9195,16 +9218,16 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="26" t="s">
+      <c r="H241" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="I241" s="27"/>
-      <c r="J241" s="26" t="s">
+      <c r="I241" s="17"/>
+      <c r="J241" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="K241" s="27"/>
-      <c r="L241" s="24"/>
-      <c r="M241" s="25"/>
+      <c r="K241" s="17"/>
+      <c r="L241" s="21"/>
+      <c r="M241" s="22"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B242" s="1">
@@ -9223,16 +9246,16 @@
         <v>296</v>
       </c>
       <c r="G242" s="1"/>
-      <c r="H242" s="26" t="s">
+      <c r="H242" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="I242" s="27"/>
-      <c r="J242" s="26"/>
-      <c r="K242" s="27"/>
-      <c r="L242" s="26" t="s">
+      <c r="I242" s="17"/>
+      <c r="J242" s="16"/>
+      <c r="K242" s="17"/>
+      <c r="L242" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="M242" s="27"/>
+      <c r="M242" s="17"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B243" s="1">
@@ -9251,18 +9274,18 @@
         <v>296</v>
       </c>
       <c r="G243" s="1"/>
-      <c r="H243" s="26" t="s">
+      <c r="H243" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="I243" s="27"/>
-      <c r="J243" s="26" t="s">
+      <c r="I243" s="17"/>
+      <c r="J243" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="K243" s="27"/>
-      <c r="L243" s="26" t="s">
+      <c r="K243" s="17"/>
+      <c r="L243" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="M243" s="27"/>
+      <c r="M243" s="17"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B244" s="1">
@@ -9281,18 +9304,18 @@
         <v>296</v>
       </c>
       <c r="G244" s="1"/>
-      <c r="H244" s="26" t="s">
+      <c r="H244" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="I244" s="27"/>
-      <c r="J244" s="26" t="s">
+      <c r="I244" s="17"/>
+      <c r="J244" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="K244" s="27"/>
-      <c r="L244" s="26" t="s">
+      <c r="K244" s="17"/>
+      <c r="L244" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="M244" s="27"/>
+      <c r="M244" s="17"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B245" s="1">
@@ -9307,88 +9330,929 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="26" t="s">
+      <c r="H245" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="I245" s="27"/>
-      <c r="J245" s="26" t="s">
+      <c r="I245" s="17"/>
+      <c r="J245" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="K245" s="27"/>
-      <c r="L245" s="26" t="s">
+      <c r="K245" s="17"/>
+      <c r="L245" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="M245" s="27"/>
+      <c r="M245" s="17"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L246" s="37"/>
-      <c r="M246" s="37"/>
+      <c r="L246" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="M246" s="18"/>
+    </row>
+    <row r="247" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L247" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="M247" s="18"/>
+    </row>
+    <row r="248" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L248" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="M248" s="48"/>
+    </row>
+    <row r="249" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L249" s="48" t="s">
+        <v>472</v>
+      </c>
+      <c r="M249" s="48"/>
+    </row>
+    <row r="250" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L250" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="M250" s="48"/>
+    </row>
+    <row r="251" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L251" s="48"/>
+      <c r="M251" s="48"/>
+    </row>
+    <row r="252" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L252" s="48"/>
+      <c r="M252" s="48"/>
+    </row>
+    <row r="253" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L253" s="48"/>
+      <c r="M253" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="946">
-    <mergeCell ref="L242:M242"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="L243:M243"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="L244:M244"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="L245:M245"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="L246:M246"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="J245:K245"/>
-    <mergeCell ref="L236:M237"/>
-    <mergeCell ref="L238:M239"/>
-    <mergeCell ref="L240:M241"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="L234:M235"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="L225:M227"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
+  <mergeCells count="953">
+    <mergeCell ref="L247:M247"/>
+    <mergeCell ref="L248:M248"/>
+    <mergeCell ref="L249:M249"/>
+    <mergeCell ref="L250:M250"/>
+    <mergeCell ref="L251:M251"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M176"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="L171:M173"/>
+    <mergeCell ref="N171:O171"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="N172:O172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="N167:O167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="L168:M170"/>
+    <mergeCell ref="N168:O168"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="N169:O169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="N170:O170"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="L165:M167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="L159:M160"/>
+    <mergeCell ref="N159:O160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="L161:M162"/>
+    <mergeCell ref="N161:O162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M156"/>
+    <mergeCell ref="N155:O156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M158"/>
+    <mergeCell ref="N157:O158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M152"/>
+    <mergeCell ref="N151:O152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M154"/>
+    <mergeCell ref="N153:O154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M148"/>
+    <mergeCell ref="N147:O148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M150"/>
+    <mergeCell ref="N149:O150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="L143:M144"/>
+    <mergeCell ref="N143:O144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="L145:M146"/>
+    <mergeCell ref="N145:O146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="L139:M140"/>
+    <mergeCell ref="N139:O140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M142"/>
+    <mergeCell ref="N141:O142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M136"/>
+    <mergeCell ref="N135:O136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="L137:M138"/>
+    <mergeCell ref="N137:O138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="J138:K138"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="L131:M132"/>
+    <mergeCell ref="N131:O132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="L133:M134"/>
+    <mergeCell ref="N133:O134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M128"/>
+    <mergeCell ref="N127:O128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="L129:M130"/>
+    <mergeCell ref="N129:O130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M124"/>
+    <mergeCell ref="N123:O124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M126"/>
+    <mergeCell ref="N125:O126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:M120"/>
+    <mergeCell ref="N119:O120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M122"/>
+    <mergeCell ref="N121:O122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M116"/>
+    <mergeCell ref="N115:O116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M118"/>
+    <mergeCell ref="N117:O118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M112"/>
+    <mergeCell ref="N111:O112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M114"/>
+    <mergeCell ref="N113:O114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="L107:M108"/>
+    <mergeCell ref="N107:O108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M110"/>
+    <mergeCell ref="N109:O110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M104"/>
+    <mergeCell ref="N103:O104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M106"/>
+    <mergeCell ref="N105:O106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="N99:O100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M102"/>
+    <mergeCell ref="N101:O102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L97:M98"/>
+    <mergeCell ref="N97:O98"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L56:M57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="L58:M59"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="L48:M49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L42:M43"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="J69:K70"/>
+    <mergeCell ref="L69:M70"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J73:K74"/>
+    <mergeCell ref="L73:M74"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:E76"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K80"/>
+    <mergeCell ref="L79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K82"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="N81:O82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K86"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="N85:O86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:E84"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K84"/>
+    <mergeCell ref="L83:M84"/>
+    <mergeCell ref="N83:O84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K88"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="N87:O88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K90"/>
+    <mergeCell ref="L89:M90"/>
+    <mergeCell ref="N89:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="E87:G88"/>
+    <mergeCell ref="H164:I164"/>
+    <mergeCell ref="J164:K164"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="N163:O163"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="N165:O165"/>
+    <mergeCell ref="N166:O166"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:G92"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K92"/>
+    <mergeCell ref="L91:M92"/>
+    <mergeCell ref="N91:O92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M100"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="H179:I179"/>
+    <mergeCell ref="L177:M179"/>
+    <mergeCell ref="J178:K178"/>
+    <mergeCell ref="J179:K179"/>
+    <mergeCell ref="H196:I196"/>
+    <mergeCell ref="H197:I197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="H189:I189"/>
+    <mergeCell ref="H190:I190"/>
+    <mergeCell ref="H186:I186"/>
+    <mergeCell ref="H183:I183"/>
+    <mergeCell ref="H184:I184"/>
+    <mergeCell ref="J180:K181"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="L180:M182"/>
+    <mergeCell ref="L183:M185"/>
+    <mergeCell ref="L186:M188"/>
+    <mergeCell ref="H180:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="L189:M191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="L192:M193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="L194:M195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L196:M197"/>
+    <mergeCell ref="L198:M199"/>
+    <mergeCell ref="L200:M202"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I202"/>
+    <mergeCell ref="J201:K202"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="L208:M208"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="L213:M214"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="L209:M210"/>
+    <mergeCell ref="L211:M212"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="L215:M216"/>
     <mergeCell ref="B217:B218"/>
     <mergeCell ref="B219:B220"/>
     <mergeCell ref="L221:M222"/>
@@ -9413,865 +10277,69 @@
     <mergeCell ref="H218:I218"/>
     <mergeCell ref="H219:I219"/>
     <mergeCell ref="H220:I220"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="L213:M214"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="L209:M210"/>
-    <mergeCell ref="L211:M212"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="L215:M216"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="L194:M195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L196:M197"/>
-    <mergeCell ref="L198:M199"/>
-    <mergeCell ref="L200:M202"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="L189:M191"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I202"/>
-    <mergeCell ref="J201:K202"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="L192:M193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="H179:I179"/>
-    <mergeCell ref="L177:M179"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="H196:I196"/>
-    <mergeCell ref="H197:I197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="H189:I189"/>
-    <mergeCell ref="H190:I190"/>
-    <mergeCell ref="H186:I186"/>
-    <mergeCell ref="H183:I183"/>
-    <mergeCell ref="H184:I184"/>
-    <mergeCell ref="J180:K181"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="L180:M182"/>
-    <mergeCell ref="L183:M185"/>
-    <mergeCell ref="L186:M188"/>
-    <mergeCell ref="H180:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="H164:I164"/>
-    <mergeCell ref="J164:K164"/>
-    <mergeCell ref="L164:M164"/>
-    <mergeCell ref="L163:M163"/>
-    <mergeCell ref="N163:O163"/>
-    <mergeCell ref="N164:O164"/>
-    <mergeCell ref="N165:O165"/>
-    <mergeCell ref="N166:O166"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:G92"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K92"/>
-    <mergeCell ref="L91:M92"/>
-    <mergeCell ref="N91:O92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K88"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="N87:O88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K90"/>
-    <mergeCell ref="L89:M90"/>
-    <mergeCell ref="N89:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="E87:G88"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K86"/>
-    <mergeCell ref="L85:M86"/>
-    <mergeCell ref="N85:O86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:E84"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K84"/>
-    <mergeCell ref="L83:M84"/>
-    <mergeCell ref="N83:O84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K82"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="N81:O82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K80"/>
-    <mergeCell ref="L79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="C73:E74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J73:K74"/>
-    <mergeCell ref="L73:M74"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:E76"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="C69:E70"/>
-    <mergeCell ref="J69:K70"/>
-    <mergeCell ref="L69:M70"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L42:M43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="L48:M49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N42:O43"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="N48:O49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="L58:M59"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L56:M57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L97:M98"/>
-    <mergeCell ref="N97:O98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M100"/>
-    <mergeCell ref="N99:O100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M102"/>
-    <mergeCell ref="N101:O102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="L103:M104"/>
-    <mergeCell ref="N103:O104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M106"/>
-    <mergeCell ref="N105:O106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="L107:M108"/>
-    <mergeCell ref="N107:O108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M110"/>
-    <mergeCell ref="N109:O110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M112"/>
-    <mergeCell ref="N111:O112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M114"/>
-    <mergeCell ref="N113:O114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M116"/>
-    <mergeCell ref="N115:O116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:M118"/>
-    <mergeCell ref="N117:O118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:M120"/>
-    <mergeCell ref="N119:O120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M122"/>
-    <mergeCell ref="N121:O122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M124"/>
-    <mergeCell ref="N123:O124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M126"/>
-    <mergeCell ref="N125:O126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M128"/>
-    <mergeCell ref="N127:O128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="L129:M130"/>
-    <mergeCell ref="N129:O130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="L131:M132"/>
-    <mergeCell ref="N131:O132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="L133:M134"/>
-    <mergeCell ref="N133:O134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="L135:M136"/>
-    <mergeCell ref="N135:O136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="L137:M138"/>
-    <mergeCell ref="N137:O138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="J138:K138"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="J139:K139"/>
-    <mergeCell ref="L139:M140"/>
-    <mergeCell ref="N139:O140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="L141:M142"/>
-    <mergeCell ref="N141:O142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="L143:M144"/>
-    <mergeCell ref="N143:O144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="L145:M146"/>
-    <mergeCell ref="N145:O146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M148"/>
-    <mergeCell ref="N147:O148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M150"/>
-    <mergeCell ref="N149:O150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M152"/>
-    <mergeCell ref="N151:O152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M154"/>
-    <mergeCell ref="N153:O154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M156"/>
-    <mergeCell ref="N155:O156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M158"/>
-    <mergeCell ref="N157:O158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="L159:M160"/>
-    <mergeCell ref="N159:O160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="L161:M162"/>
-    <mergeCell ref="N161:O162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="N167:O167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="L168:M170"/>
-    <mergeCell ref="N168:O168"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="N169:O169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="N170:O170"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="L165:M167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="L171:M173"/>
-    <mergeCell ref="N171:O171"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="N172:O172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M176"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="L225:M227"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="L234:M235"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="L236:M237"/>
+    <mergeCell ref="L238:M239"/>
+    <mergeCell ref="L240:M241"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="L242:M242"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="L243:M243"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="L244:M244"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="L245:M245"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="L246:M246"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="J245:K245"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03.TestCase/测试用例.xlsx
+++ b/03.TestCase/测试用例.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="475">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1915,6 +1915,10 @@
   </si>
   <si>
     <t>只有百分号后再数字定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“=”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2139,7 +2143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2188,13 +2192,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2203,61 +2219,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2278,13 +2264,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2603,8 +2610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H242" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N247" sqref="N247"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I251" sqref="I251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2620,50 +2627,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="39"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="16" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="30"/>
+      <c r="L3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="17"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
@@ -2672,48 +2679,48 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="16" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="16" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="16" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="30"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
@@ -2725,23 +2732,23 @@
       <c r="D6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
@@ -2750,24 +2757,24 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16" t="s">
+      <c r="I7" s="30"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
@@ -2788,92 +2795,92 @@
       <c r="G8" s="1">
         <v>2</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16" t="s">
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>6</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16" t="s">
+      <c r="I9" s="30"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16" t="s">
+      <c r="I10" s="30"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16" t="s">
+      <c r="I11" s="30"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1">
@@ -2882,24 +2889,24 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="16" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="1">
@@ -2908,48 +2915,48 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="16" t="s">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16" t="s">
+      <c r="I13" s="30"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <v>11</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="16" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16" t="s">
+      <c r="I14" s="30"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1">
@@ -2964,22 +2971,22 @@
       <c r="E15" s="1">
         <v>5</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16" t="s">
+      <c r="G15" s="30"/>
+      <c r="H15" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="16" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="30"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1">
@@ -2994,22 +3001,22 @@
       <c r="E16" s="1">
         <v>5</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="30"/>
+      <c r="H16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="16" t="s">
+      <c r="I16" s="30"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="1">
@@ -3018,24 +3025,24 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="16" t="s">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="16" t="s">
+      <c r="I17" s="30"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="1">
@@ -3047,23 +3054,23 @@
       <c r="D18" s="9">
         <v>1</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="16" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="16" t="s">
+      <c r="I18" s="30"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="17"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="30"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
@@ -3072,24 +3079,24 @@
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="16" t="s">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="19" t="s">
+      <c r="I19" s="30"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="20"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="30"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="1">
@@ -3098,72 +3105,72 @@
       <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="16" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="16" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="17"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="16" t="s">
+      <c r="I21" s="30"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="17"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="29">
         <v>2</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="16" t="s">
+      <c r="I22" s="30"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="17"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
@@ -3184,18 +3191,18 @@
       <c r="G23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="16" t="s">
+      <c r="I23" s="30"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="30"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
@@ -3204,26 +3211,26 @@
       <c r="C24" s="3">
         <v>2</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16" t="s">
+      <c r="G24" s="30"/>
+      <c r="H24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="17"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="16" t="s">
+      <c r="I24" s="30"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="17"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
@@ -3232,26 +3239,26 @@
       <c r="C25" s="3">
         <v>4</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="16" t="s">
+      <c r="E25" s="30"/>
+      <c r="F25" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="16" t="s">
+      <c r="G25" s="30"/>
+      <c r="H25" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="I25" s="17"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="16" t="s">
+      <c r="I25" s="30"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="30"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
@@ -3272,68 +3279,68 @@
       <c r="G26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="17"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="16" t="s">
+      <c r="I26" s="30"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="16" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="16" t="s">
+      <c r="I27" s="30"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="17"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="30"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="29">
         <v>2</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="16" t="s">
+      <c r="G28" s="30"/>
+      <c r="H28" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="17"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="16" t="s">
+      <c r="I28" s="30"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="17"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="30"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="2">
@@ -3354,68 +3361,68 @@
       <c r="G29" s="4">
         <v>3</v>
       </c>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="16" t="s">
+      <c r="I29" s="30"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="M29" s="17"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="17"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="16" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="17"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="16" t="s">
+      <c r="I30" s="30"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="17"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="30"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <v>29</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="29">
         <v>2</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="16" t="s">
+      <c r="G31" s="30"/>
+      <c r="H31" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="16" t="s">
+      <c r="I31" s="30"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M31" s="17"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="17"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="1">
@@ -3436,68 +3443,68 @@
       <c r="G32" s="1">
         <v>3</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="17"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="16" t="s">
+      <c r="I32" s="30"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="17"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="30"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="1">
         <v>31</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="16" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="16" t="s">
+      <c r="I33" s="30"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="17"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="30"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="1">
         <v>32</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="29">
         <v>2</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="16" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="16" t="s">
+      <c r="G34" s="30"/>
+      <c r="H34" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="I34" s="17"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="16" t="s">
+      <c r="I34" s="30"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="17"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="30"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
@@ -3518,44 +3525,44 @@
       <c r="G35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="H35" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="I35" s="17"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="16" t="s">
+      <c r="I35" s="30"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="17"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="30"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>34</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="29">
         <v>5</v>
       </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="16" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="16" t="s">
+      <c r="G36" s="30"/>
+      <c r="H36" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="16" t="s">
+      <c r="I36" s="30"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="M36" s="17"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="17"/>
+      <c r="M36" s="30"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="30"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1">
@@ -3564,26 +3571,26 @@
       <c r="C37" s="1">
         <v>5</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="16" t="s">
+      <c r="E37" s="30"/>
+      <c r="F37" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="16" t="s">
+      <c r="G37" s="30"/>
+      <c r="H37" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="16" t="s">
+      <c r="I37" s="30"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="M37" s="17"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="17"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="30"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B38" s="1">
@@ -3592,52 +3599,52 @@
       <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16" t="s">
+      <c r="E38" s="30"/>
+      <c r="F38" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="16" t="s">
+      <c r="G38" s="30"/>
+      <c r="H38" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="17"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="16" t="s">
+      <c r="I38" s="30"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="M38" s="17"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="17"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="30"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B39" s="1">
         <v>37</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="29">
         <v>25</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="16" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="16" t="s">
+      <c r="G39" s="30"/>
+      <c r="H39" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="16" t="s">
+      <c r="I39" s="30"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="M39" s="17"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="17"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="30"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B40" s="1">
@@ -3646,26 +3653,26 @@
       <c r="C40" s="1">
         <v>625</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="16" t="s">
+      <c r="E40" s="30"/>
+      <c r="F40" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="16" t="s">
+      <c r="G40" s="30"/>
+      <c r="H40" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="17"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="16" t="s">
+      <c r="I40" s="30"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="M40" s="17"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="17"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B41" s="2">
@@ -3674,70 +3681,70 @@
       <c r="C41" s="1">
         <v>25</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="16" t="s">
+      <c r="E41" s="30"/>
+      <c r="F41" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="16" t="s">
+      <c r="G41" s="30"/>
+      <c r="H41" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="17"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="16" t="s">
+      <c r="I41" s="30"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="M41" s="17"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="17"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B42" s="23">
+      <c r="B42" s="19">
         <v>40</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="23">
         <v>2</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="16" t="s">
+      <c r="G42" s="24"/>
+      <c r="H42" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="I42" s="17"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="19" t="s">
+      <c r="I42" s="30"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="M42" s="20"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="24"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B43" s="24"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="16" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="I43" s="17"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="22"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="28"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B44" s="1">
@@ -3746,52 +3753,52 @@
       <c r="C44" s="6">
         <v>5</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16" t="s">
+      <c r="E44" s="30"/>
+      <c r="F44" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="16" t="s">
+      <c r="G44" s="30"/>
+      <c r="H44" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="17"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="16" t="s">
+      <c r="I44" s="30"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="M44" s="17"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="17"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="30"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B45" s="1">
         <v>42</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="29">
         <v>2</v>
       </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="16" t="s">
+      <c r="D45" s="33"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="16" t="s">
+      <c r="G45" s="30"/>
+      <c r="H45" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="I45" s="17"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="16" t="s">
+      <c r="I45" s="30"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="M45" s="17"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="17"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="30"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B46" s="2">
@@ -3800,26 +3807,26 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="17"/>
-      <c r="F46" s="16" t="s">
+      <c r="E46" s="30"/>
+      <c r="F46" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="16" t="s">
+      <c r="G46" s="30"/>
+      <c r="H46" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="17"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="16" t="s">
+      <c r="I46" s="30"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M46" s="17"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="17"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="30"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B47" s="1">
@@ -3828,124 +3835,124 @@
       <c r="C47" s="1">
         <v>2</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="16" t="s">
+      <c r="E47" s="30"/>
+      <c r="F47" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="16" t="s">
+      <c r="G47" s="30"/>
+      <c r="H47" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="I47" s="17"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="16" t="s">
+      <c r="I47" s="30"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="M47" s="17"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="17"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="30"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B48" s="23">
+      <c r="B48" s="19">
         <v>45</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="23">
         <v>3</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="16" t="s">
+      <c r="G48" s="24"/>
+      <c r="H48" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="I48" s="17"/>
-      <c r="J48" s="16" t="s">
+      <c r="I48" s="30"/>
+      <c r="J48" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="19" t="s">
+      <c r="K48" s="30"/>
+      <c r="L48" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="M48" s="20"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="24"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="24"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="16" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="I49" s="17"/>
-      <c r="J49" s="16" t="s">
+      <c r="I49" s="30"/>
+      <c r="J49" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="K49" s="17"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="22"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="28"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B50" s="6">
         <v>46</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="34">
         <v>0</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="19" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="16" t="s">
+      <c r="G50" s="24"/>
+      <c r="H50" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="16" t="s">
+      <c r="I50" s="30"/>
+      <c r="J50" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="K50" s="17"/>
-      <c r="L50" s="19" t="s">
+      <c r="K50" s="30"/>
+      <c r="L50" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="24"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B51" s="6">
         <v>47</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="16" t="s">
+      <c r="C51" s="37"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="16" t="s">
+      <c r="I51" s="30"/>
+      <c r="J51" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="22"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="28"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B52" s="6">
@@ -3954,56 +3961,56 @@
       <c r="C52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="16" t="s">
+      <c r="E52" s="30"/>
+      <c r="F52" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="16" t="s">
+      <c r="G52" s="30"/>
+      <c r="H52" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="16" t="s">
+      <c r="I52" s="30"/>
+      <c r="J52" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="K52" s="17"/>
-      <c r="L52" s="16" t="s">
+      <c r="K52" s="30"/>
+      <c r="L52" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="M52" s="17"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="17"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="30"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B53" s="6">
         <v>49</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="29">
         <v>5</v>
       </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="16" t="s">
+      <c r="D53" s="33"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="16" t="s">
+      <c r="G53" s="30"/>
+      <c r="H53" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="17"/>
-      <c r="J53" s="16" t="s">
+      <c r="I53" s="30"/>
+      <c r="J53" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="K53" s="17"/>
-      <c r="L53" s="16" t="s">
+      <c r="K53" s="30"/>
+      <c r="L53" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="M53" s="17"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="17"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="30"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B54" s="6">
@@ -4012,28 +4019,28 @@
       <c r="C54" s="1">
         <v>2</v>
       </c>
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="E54" s="17"/>
-      <c r="F54" s="16" t="s">
+      <c r="E54" s="30"/>
+      <c r="F54" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="16" t="s">
+      <c r="G54" s="30"/>
+      <c r="H54" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="I54" s="17"/>
-      <c r="J54" s="16" t="s">
+      <c r="I54" s="30"/>
+      <c r="J54" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="K54" s="17"/>
-      <c r="L54" s="16" t="s">
+      <c r="K54" s="30"/>
+      <c r="L54" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="M54" s="17"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="17"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="29"/>
+      <c r="O54" s="30"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B55" s="6">
@@ -4042,190 +4049,190 @@
       <c r="C55" s="1">
         <v>2</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="16" t="s">
+      <c r="E55" s="30"/>
+      <c r="F55" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="16" t="s">
+      <c r="G55" s="30"/>
+      <c r="H55" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="I55" s="17"/>
-      <c r="J55" s="16" t="s">
+      <c r="I55" s="30"/>
+      <c r="J55" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="K55" s="17"/>
-      <c r="L55" s="16" t="s">
+      <c r="K55" s="30"/>
+      <c r="L55" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="M55" s="17"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="17"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="29"/>
+      <c r="O55" s="30"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="46">
+      <c r="B56" s="31">
         <v>52</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="19">
         <v>2</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="23" t="s">
+      <c r="F56" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I56" s="17"/>
-      <c r="J56" s="16" t="s">
+      <c r="I56" s="30"/>
+      <c r="J56" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="K56" s="17"/>
-      <c r="L56" s="19" t="s">
+      <c r="K56" s="30"/>
+      <c r="L56" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="M56" s="20"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="17"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="29"/>
+      <c r="O56" s="30"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="47"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="16" t="s">
+      <c r="B57" s="32"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="I57" s="17"/>
-      <c r="J57" s="16" t="s">
+      <c r="I57" s="30"/>
+      <c r="J57" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="K57" s="17"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="17"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="30"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="46">
+      <c r="B58" s="31">
         <v>53</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="19">
         <v>5</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F58" s="23" t="s">
+      <c r="F58" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="I58" s="17"/>
-      <c r="J58" s="16" t="s">
+      <c r="I58" s="30"/>
+      <c r="J58" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="K58" s="17"/>
-      <c r="L58" s="19" t="s">
+      <c r="K58" s="30"/>
+      <c r="L58" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="M58" s="20"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="17"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="30"/>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="47"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="16" t="s">
+      <c r="B59" s="32"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="I59" s="17"/>
-      <c r="J59" s="16" t="s">
+      <c r="I59" s="30"/>
+      <c r="J59" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="K59" s="17"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="17"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="30"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="23">
+      <c r="B60" s="19">
         <v>54</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="19">
         <v>5</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="23" t="s">
+      <c r="F60" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="H60" s="16" t="s">
+      <c r="H60" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="16" t="s">
+      <c r="I60" s="30"/>
+      <c r="J60" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="K60" s="17"/>
-      <c r="L60" s="19" t="s">
+      <c r="K60" s="30"/>
+      <c r="L60" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="M60" s="20"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="17"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="30"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="16" t="s">
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="I61" s="17"/>
-      <c r="J61" s="16" t="s">
+      <c r="I61" s="30"/>
+      <c r="J61" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="K61" s="17"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="17"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="30"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B62" s="1">
@@ -4240,22 +4247,22 @@
       <c r="E62" s="1">
         <v>0</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G62" s="17"/>
-      <c r="H62" s="16" t="s">
+      <c r="G62" s="30"/>
+      <c r="H62" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="I62" s="17"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="17"/>
-      <c r="L62" s="16" t="s">
+      <c r="I62" s="30"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="M62" s="17"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="17"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="30"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
@@ -4276,57 +4283,57 @@
       <c r="G63" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="17"/>
-      <c r="L63" s="16" t="s">
+      <c r="I63" s="30"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="M63" s="17"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="17"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="30"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
         <v>57</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="16" t="s">
+      <c r="D64" s="30"/>
+      <c r="E64" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="F64" s="17"/>
+      <c r="F64" s="30"/>
       <c r="G64" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H64" s="16" t="s">
+      <c r="H64" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="I64" s="17"/>
-      <c r="J64" s="16" t="s">
+      <c r="I64" s="30"/>
+      <c r="J64" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="17"/>
-      <c r="L64" s="16" t="s">
+      <c r="K64" s="30"/>
+      <c r="L64" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M64" s="17"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="17"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="30"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <v>58</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="29">
         <v>5</v>
       </c>
-      <c r="D65" s="17"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="1" t="s">
         <v>154</v>
       </c>
@@ -4336,20 +4343,20 @@
       <c r="G65" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H65" s="16" t="s">
+      <c r="H65" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="16" t="s">
+      <c r="I65" s="30"/>
+      <c r="J65" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="K65" s="17"/>
-      <c r="L65" s="16" t="s">
+      <c r="K65" s="30"/>
+      <c r="L65" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="M65" s="17"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="17"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="30"/>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
@@ -4358,28 +4365,28 @@
       <c r="C66" s="1">
         <v>2</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="16" t="s">
+      <c r="E66" s="30"/>
+      <c r="F66" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="G66" s="17"/>
-      <c r="H66" s="16" t="s">
+      <c r="G66" s="30"/>
+      <c r="H66" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="I66" s="17"/>
-      <c r="J66" s="16" t="s">
+      <c r="I66" s="30"/>
+      <c r="J66" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="K66" s="17"/>
-      <c r="L66" s="16" t="s">
+      <c r="K66" s="30"/>
+      <c r="L66" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="M66" s="17"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="17"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="30"/>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
@@ -4394,24 +4401,24 @@
       <c r="E67" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F67" s="16" t="s">
+      <c r="F67" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="G67" s="17"/>
-      <c r="H67" s="16" t="s">
+      <c r="G67" s="30"/>
+      <c r="H67" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="I67" s="17"/>
-      <c r="J67" s="16" t="s">
+      <c r="I67" s="30"/>
+      <c r="J67" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="K67" s="17"/>
-      <c r="L67" s="16" t="s">
+      <c r="K67" s="30"/>
+      <c r="L67" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="M67" s="17"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="17"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="30"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
@@ -4432,566 +4439,566 @@
       <c r="G68" s="1">
         <v>3</v>
       </c>
-      <c r="H68" s="16" t="s">
+      <c r="H68" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="16" t="s">
+      <c r="I68" s="30"/>
+      <c r="J68" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="K68" s="17"/>
-      <c r="L68" s="16" t="s">
+      <c r="K68" s="30"/>
+      <c r="L68" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="M68" s="17"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="17"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="30"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="23">
+      <c r="B69" s="19">
         <v>62</v>
       </c>
-      <c r="C69" s="19" t="s">
+      <c r="C69" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="19" t="s">
+      <c r="D69" s="17"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="16" t="s">
+      <c r="G69" s="24"/>
+      <c r="H69" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="I69" s="17"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="19" t="s">
+      <c r="I69" s="30"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="20"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="24"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="24"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="16" t="s">
+      <c r="B70" s="21"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="I70" s="17"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="21"/>
-      <c r="O70" s="22"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="27"/>
+      <c r="O70" s="28"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="23">
+      <c r="B71" s="19">
         <v>64</v>
       </c>
-      <c r="C71" s="19" t="s">
+      <c r="C71" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="19" t="s">
+      <c r="D71" s="17"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G71" s="20"/>
-      <c r="H71" s="16" t="s">
+      <c r="G71" s="24"/>
+      <c r="H71" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="16" t="s">
+      <c r="I71" s="30"/>
+      <c r="J71" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="K71" s="17"/>
-      <c r="L71" s="19" t="s">
+      <c r="K71" s="30"/>
+      <c r="L71" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="M71" s="20"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="20"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="24"/>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="24"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="16" t="s">
+      <c r="B72" s="21"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="I72" s="17"/>
-      <c r="J72" s="16" t="s">
+      <c r="I72" s="30"/>
+      <c r="J72" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="K72" s="17"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="21"/>
-      <c r="O72" s="22"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="28"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="23">
+      <c r="B73" s="19">
         <v>65</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C73" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="19" t="s">
+      <c r="D73" s="17"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G73" s="20"/>
-      <c r="H73" s="16" t="s">
+      <c r="G73" s="24"/>
+      <c r="H73" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I73" s="17"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="19" t="s">
+      <c r="I73" s="30"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M73" s="20"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="20"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="24"/>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="24"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="16" t="s">
+      <c r="B74" s="21"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="I74" s="17"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="22"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="28"/>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="23">
+      <c r="B75" s="19">
         <v>66</v>
       </c>
-      <c r="C75" s="19" t="s">
+      <c r="C75" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D75" s="18"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="23" t="s">
+      <c r="D75" s="17"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="G75" s="23" t="s">
+      <c r="G75" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="H75" s="16" t="s">
+      <c r="H75" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="I75" s="17"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="19" t="s">
+      <c r="I75" s="30"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="M75" s="20"/>
-      <c r="N75" s="19"/>
-      <c r="O75" s="20"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="23"/>
+      <c r="O75" s="24"/>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="24"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="16" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="22"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="21"/>
-      <c r="O76" s="22"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="27"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="28"/>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="23">
+      <c r="B77" s="19">
         <v>67</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D77" s="18"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="19" t="s">
+      <c r="D77" s="17"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="G77" s="20"/>
-      <c r="H77" s="16" t="s">
+      <c r="G77" s="24"/>
+      <c r="H77" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="19" t="s">
+      <c r="I77" s="30"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="19"/>
-      <c r="O77" s="20"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="24"/>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="24"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="16" t="s">
+      <c r="B78" s="21"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="28"/>
+      <c r="H78" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="I78" s="17"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="22"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="21"/>
-      <c r="O78" s="22"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="27"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="28"/>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="23">
+      <c r="B79" s="19">
         <v>68</v>
       </c>
-      <c r="C79" s="19" t="s">
+      <c r="C79" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="23" t="s">
+      <c r="D79" s="17"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G79" s="23" t="s">
+      <c r="G79" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="H79" s="16" t="s">
+      <c r="H79" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="I79" s="17"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="19" t="s">
+      <c r="I79" s="30"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M79" s="20"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="20"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="24"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="24"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="36"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="16" t="s">
+      <c r="B80" s="21"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="I80" s="17"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="21"/>
-      <c r="O80" s="22"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="28"/>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="23">
+      <c r="B81" s="19">
         <v>69</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D81" s="20"/>
-      <c r="E81" s="23" t="s">
+      <c r="D81" s="24"/>
+      <c r="E81" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="H81" s="16" t="s">
+      <c r="H81" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="I81" s="17"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="19" t="s">
+      <c r="I81" s="30"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M81" s="20"/>
-      <c r="N81" s="19"/>
-      <c r="O81" s="20"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="24"/>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="24"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="16" t="s">
+      <c r="B82" s="21"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="I82" s="17"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="21"/>
-      <c r="O82" s="22"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="28"/>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="23">
+      <c r="B83" s="19">
         <v>70</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="20"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="24"/>
       <c r="F83" s="1" t="s">
         <v>160</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H83" s="16" t="s">
+      <c r="H83" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="I83" s="17"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="19" t="s">
+      <c r="I83" s="30"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M83" s="20"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="20"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="24"/>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="24"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="22"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="28"/>
       <c r="F84" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H84" s="16" t="s">
+      <c r="H84" s="29" t="s">
         <v>194</v>
       </c>
-      <c r="I84" s="17"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="22"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="21"/>
-      <c r="O84" s="22"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="28"/>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="23">
+      <c r="B85" s="19">
         <v>71</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19" t="s">
+      <c r="D85" s="24"/>
+      <c r="E85" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F85" s="18"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="16" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="19" t="s">
+      <c r="I85" s="30"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M85" s="20"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="20"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="24"/>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="24"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="36"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="16" t="s">
+      <c r="B86" s="21"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="40"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="I86" s="17"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="22"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="22"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="28"/>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="23">
+      <c r="B87" s="19">
         <v>72</v>
       </c>
-      <c r="C87" s="19" t="s">
+      <c r="C87" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19" t="s">
+      <c r="D87" s="24"/>
+      <c r="E87" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F87" s="18"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="16" t="s">
+      <c r="F87" s="17"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="I87" s="17"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="19" t="s">
+      <c r="I87" s="30"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M87" s="20"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="20"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="24"/>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="24"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="16" t="s">
+      <c r="B88" s="21"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I88" s="17"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="22"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="22"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="27"/>
+      <c r="O88" s="28"/>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="23">
+      <c r="B89" s="19">
         <v>73</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19" t="s">
+      <c r="D89" s="24"/>
+      <c r="E89" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="F89" s="18"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="16" t="s">
+      <c r="F89" s="17"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="I89" s="17"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="19" t="s">
+      <c r="I89" s="30"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="M89" s="20"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="20"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="24"/>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="24"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="36"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="16" t="s">
+      <c r="B90" s="21"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="I90" s="17"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="22"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="22"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="28"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="28"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="23">
+      <c r="B91" s="19">
         <v>74</v>
       </c>
-      <c r="C91" s="19" t="s">
+      <c r="C91" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="19" t="s">
+      <c r="D91" s="24"/>
+      <c r="E91" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="F91" s="18"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="16" t="s">
+      <c r="F91" s="17"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="I91" s="17"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="19" t="s">
+      <c r="I91" s="30"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="M91" s="20"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="20"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="24"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="24"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="36"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="16" t="s">
+      <c r="B92" s="21"/>
+      <c r="C92" s="27"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="17"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="22"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="22"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="27"/>
+      <c r="M92" s="28"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="28"/>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
@@ -5012,20 +5019,20 @@
       <c r="G93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H93" s="16" t="s">
+      <c r="H93" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="I93" s="17"/>
-      <c r="J93" s="16" t="s">
+      <c r="I93" s="30"/>
+      <c r="J93" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="K93" s="17"/>
-      <c r="L93" s="16" t="s">
+      <c r="K93" s="30"/>
+      <c r="L93" s="29" t="s">
         <v>211</v>
       </c>
-      <c r="M93" s="17"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="17"/>
+      <c r="M93" s="30"/>
+      <c r="N93" s="29"/>
+      <c r="O93" s="30"/>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
@@ -5037,25 +5044,25 @@
       <c r="D94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="F94" s="35"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="16" t="s">
+      <c r="F94" s="33"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="I94" s="17"/>
-      <c r="J94" s="16" t="s">
+      <c r="I94" s="30"/>
+      <c r="J94" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="K94" s="17"/>
-      <c r="L94" s="16" t="s">
+      <c r="K94" s="30"/>
+      <c r="L94" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="M94" s="17"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="17"/>
+      <c r="M94" s="30"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="30"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
@@ -5067,23 +5074,23 @@
       <c r="D95" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="29">
         <v>6</v>
       </c>
-      <c r="F95" s="35"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="16" t="s">
+      <c r="F95" s="33"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="16" t="s">
+      <c r="I95" s="30"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="M95" s="17"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="17"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="30"/>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B96" s="6">
@@ -5104,23 +5111,23 @@
       <c r="G96" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H96" s="16" t="s">
+      <c r="H96" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="I96" s="17"/>
-      <c r="J96" s="16" t="s">
+      <c r="I96" s="30"/>
+      <c r="J96" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="K96" s="17"/>
-      <c r="L96" s="16" t="s">
+      <c r="K96" s="30"/>
+      <c r="L96" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="M96" s="17"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="17"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="29"/>
+      <c r="O96" s="30"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="46">
+      <c r="B97" s="31">
         <v>79</v>
       </c>
       <c r="C97" s="6">
@@ -5138,23 +5145,23 @@
       <c r="G97" s="1">
         <v>3</v>
       </c>
-      <c r="H97" s="16" t="s">
+      <c r="H97" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="I97" s="17"/>
-      <c r="J97" s="16" t="s">
+      <c r="I97" s="30"/>
+      <c r="J97" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="K97" s="17"/>
-      <c r="L97" s="19" t="s">
+      <c r="K97" s="30"/>
+      <c r="L97" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="M97" s="20"/>
-      <c r="N97" s="19"/>
-      <c r="O97" s="20"/>
+      <c r="M97" s="24"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="24"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="47"/>
+      <c r="B98" s="32"/>
       <c r="C98" s="1" t="s">
         <v>223</v>
       </c>
@@ -5162,21 +5169,21 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="16" t="s">
+      <c r="H98" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="I98" s="17"/>
-      <c r="J98" s="16" t="s">
+      <c r="I98" s="30"/>
+      <c r="J98" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="K98" s="17"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="22"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="27"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="28"/>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="46">
+      <c r="B99" s="31">
         <v>80</v>
       </c>
       <c r="C99" s="6">
@@ -5194,23 +5201,23 @@
       <c r="G99" s="1">
         <v>4</v>
       </c>
-      <c r="H99" s="16" t="s">
+      <c r="H99" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="16" t="s">
+      <c r="I99" s="30"/>
+      <c r="J99" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="K99" s="17"/>
-      <c r="L99" s="19" t="s">
+      <c r="K99" s="30"/>
+      <c r="L99" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="M99" s="20"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="20"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="24"/>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="47"/>
+      <c r="B100" s="32"/>
       <c r="C100" s="1" t="s">
         <v>223</v>
       </c>
@@ -5218,21 +5225,21 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="16" t="s">
+      <c r="H100" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="I100" s="17"/>
-      <c r="J100" s="16" t="s">
+      <c r="I100" s="30"/>
+      <c r="J100" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="K100" s="17"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="22"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="27"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="28"/>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="46">
+      <c r="B101" s="31">
         <v>81</v>
       </c>
       <c r="C101" s="6">
@@ -5250,23 +5257,23 @@
       <c r="G101" s="1">
         <v>5</v>
       </c>
-      <c r="H101" s="16" t="s">
+      <c r="H101" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="I101" s="17"/>
-      <c r="J101" s="16" t="s">
+      <c r="I101" s="30"/>
+      <c r="J101" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="K101" s="17"/>
-      <c r="L101" s="19" t="s">
+      <c r="K101" s="30"/>
+      <c r="L101" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="M101" s="20"/>
-      <c r="N101" s="19"/>
-      <c r="O101" s="20"/>
+      <c r="M101" s="24"/>
+      <c r="N101" s="23"/>
+      <c r="O101" s="24"/>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="47"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="1" t="s">
         <v>223</v>
       </c>
@@ -5274,21 +5281,21 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
-      <c r="H102" s="16" t="s">
+      <c r="H102" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="I102" s="17"/>
-      <c r="J102" s="16" t="s">
+      <c r="I102" s="30"/>
+      <c r="J102" s="29" t="s">
         <v>463</v>
       </c>
-      <c r="K102" s="17"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="22"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="27"/>
+      <c r="M102" s="28"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="28"/>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="46">
+      <c r="B103" s="31">
         <v>82</v>
       </c>
       <c r="C103" s="6">
@@ -5306,23 +5313,23 @@
       <c r="G103" s="1">
         <v>6</v>
       </c>
-      <c r="H103" s="16" t="s">
+      <c r="H103" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="I103" s="17"/>
-      <c r="J103" s="16" t="s">
+      <c r="I103" s="30"/>
+      <c r="J103" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="K103" s="17"/>
-      <c r="L103" s="19" t="s">
+      <c r="K103" s="30"/>
+      <c r="L103" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="M103" s="20"/>
-      <c r="N103" s="19"/>
-      <c r="O103" s="20"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="24"/>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="47"/>
+      <c r="B104" s="32"/>
       <c r="C104" s="1" t="s">
         <v>223</v>
       </c>
@@ -5330,21 +5337,21 @@
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
-      <c r="H104" s="16" t="s">
+      <c r="H104" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="I104" s="17"/>
-      <c r="J104" s="16" t="s">
+      <c r="I104" s="30"/>
+      <c r="J104" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="K104" s="17"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="21"/>
-      <c r="O104" s="22"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="28"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="28"/>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="46">
+      <c r="B105" s="31">
         <v>83</v>
       </c>
       <c r="C105" s="6">
@@ -5362,23 +5369,23 @@
       <c r="G105" s="1">
         <v>5</v>
       </c>
-      <c r="H105" s="16" t="s">
+      <c r="H105" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="16" t="s">
+      <c r="I105" s="30"/>
+      <c r="J105" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="K105" s="17"/>
-      <c r="L105" s="19" t="s">
+      <c r="K105" s="30"/>
+      <c r="L105" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="M105" s="20"/>
-      <c r="N105" s="19"/>
-      <c r="O105" s="20"/>
+      <c r="M105" s="24"/>
+      <c r="N105" s="23"/>
+      <c r="O105" s="24"/>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="47"/>
+      <c r="B106" s="32"/>
       <c r="C106" s="1" t="s">
         <v>223</v>
       </c>
@@ -5386,21 +5393,21 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
-      <c r="H106" s="16" t="s">
+      <c r="H106" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="I106" s="17"/>
-      <c r="J106" s="16" t="s">
+      <c r="I106" s="30"/>
+      <c r="J106" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="K106" s="17"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="21"/>
-      <c r="O106" s="22"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="27"/>
+      <c r="M106" s="28"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="28"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="46">
+      <c r="B107" s="31">
         <v>84</v>
       </c>
       <c r="C107" s="6">
@@ -5418,23 +5425,23 @@
       <c r="G107" s="1">
         <v>7</v>
       </c>
-      <c r="H107" s="16" t="s">
+      <c r="H107" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="I107" s="17"/>
-      <c r="J107" s="16" t="s">
+      <c r="I107" s="30"/>
+      <c r="J107" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="K107" s="17"/>
-      <c r="L107" s="19" t="s">
+      <c r="K107" s="30"/>
+      <c r="L107" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="M107" s="20"/>
-      <c r="N107" s="19"/>
-      <c r="O107" s="20"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="24"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="47"/>
+      <c r="B108" s="32"/>
       <c r="C108" s="1" t="s">
         <v>223</v>
       </c>
@@ -5442,21 +5449,21 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
-      <c r="H108" s="16" t="s">
+      <c r="H108" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="I108" s="17"/>
-      <c r="J108" s="16" t="s">
+      <c r="I108" s="30"/>
+      <c r="J108" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="K108" s="17"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="21"/>
-      <c r="O108" s="22"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="28"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="28"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="46">
+      <c r="B109" s="31">
         <v>85</v>
       </c>
       <c r="C109" s="6">
@@ -5474,23 +5481,23 @@
       <c r="G109" s="1">
         <v>8</v>
       </c>
-      <c r="H109" s="16" t="s">
+      <c r="H109" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="I109" s="17"/>
-      <c r="J109" s="16" t="s">
+      <c r="I109" s="30"/>
+      <c r="J109" s="29" t="s">
         <v>458</v>
       </c>
-      <c r="K109" s="17"/>
-      <c r="L109" s="19" t="s">
+      <c r="K109" s="30"/>
+      <c r="L109" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="M109" s="20"/>
-      <c r="N109" s="19"/>
-      <c r="O109" s="20"/>
+      <c r="M109" s="24"/>
+      <c r="N109" s="23"/>
+      <c r="O109" s="24"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="47"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="1" t="s">
         <v>227</v>
       </c>
@@ -5502,21 +5509,21 @@
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
-      <c r="H110" s="16" t="s">
+      <c r="H110" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="I110" s="17"/>
-      <c r="J110" s="16" t="s">
+      <c r="I110" s="30"/>
+      <c r="J110" s="29" t="s">
         <v>459</v>
       </c>
-      <c r="K110" s="17"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="21"/>
-      <c r="O110" s="22"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="28"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="28"/>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="46">
+      <c r="B111" s="31">
         <v>86</v>
       </c>
       <c r="C111" s="6">
@@ -5534,23 +5541,23 @@
       <c r="G111" s="1">
         <v>1</v>
       </c>
-      <c r="H111" s="16" t="s">
+      <c r="H111" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="I111" s="17"/>
-      <c r="J111" s="16" t="s">
+      <c r="I111" s="30"/>
+      <c r="J111" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="K111" s="17"/>
-      <c r="L111" s="19" t="s">
+      <c r="K111" s="30"/>
+      <c r="L111" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="M111" s="20"/>
-      <c r="N111" s="19"/>
-      <c r="O111" s="20"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="24"/>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="47"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="1" t="s">
         <v>230</v>
       </c>
@@ -5562,21 +5569,21 @@
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
-      <c r="H112" s="16" t="s">
+      <c r="H112" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="I112" s="17"/>
-      <c r="J112" s="16" t="s">
+      <c r="I112" s="30"/>
+      <c r="J112" s="29" t="s">
         <v>457</v>
       </c>
-      <c r="K112" s="17"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="21"/>
-      <c r="O112" s="22"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="27"/>
+      <c r="M112" s="28"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="28"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="46">
+      <c r="B113" s="31">
         <v>87</v>
       </c>
       <c r="C113" s="6">
@@ -5594,23 +5601,23 @@
       <c r="G113" s="1">
         <v>2</v>
       </c>
-      <c r="H113" s="16" t="s">
+      <c r="H113" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="I113" s="17"/>
-      <c r="J113" s="16" t="s">
+      <c r="I113" s="30"/>
+      <c r="J113" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="K113" s="17"/>
-      <c r="L113" s="19" t="s">
+      <c r="K113" s="30"/>
+      <c r="L113" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="M113" s="20"/>
-      <c r="N113" s="19"/>
-      <c r="O113" s="20"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="23"/>
+      <c r="O113" s="24"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B114" s="47"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="1" t="s">
         <v>230</v>
       </c>
@@ -5622,21 +5629,21 @@
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
-      <c r="H114" s="16" t="s">
+      <c r="H114" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="I114" s="17"/>
-      <c r="J114" s="16" t="s">
+      <c r="I114" s="30"/>
+      <c r="J114" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="K114" s="17"/>
-      <c r="L114" s="21"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="21"/>
-      <c r="O114" s="22"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="28"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="28"/>
     </row>
     <row r="115" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B115" s="46">
+      <c r="B115" s="31">
         <v>88</v>
       </c>
       <c r="C115" s="6">
@@ -5654,23 +5661,23 @@
       <c r="G115" s="1">
         <v>3</v>
       </c>
-      <c r="H115" s="16" t="s">
+      <c r="H115" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="I115" s="17"/>
-      <c r="J115" s="16" t="s">
+      <c r="I115" s="30"/>
+      <c r="J115" s="29" t="s">
         <v>452</v>
       </c>
-      <c r="K115" s="17"/>
-      <c r="L115" s="19" t="s">
+      <c r="K115" s="30"/>
+      <c r="L115" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="M115" s="20"/>
-      <c r="N115" s="19"/>
-      <c r="O115" s="20"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="24"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B116" s="47"/>
+      <c r="B116" s="32"/>
       <c r="C116" s="1" t="s">
         <v>230</v>
       </c>
@@ -5682,21 +5689,21 @@
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="16" t="s">
+      <c r="H116" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="I116" s="17"/>
-      <c r="J116" s="16" t="s">
+      <c r="I116" s="30"/>
+      <c r="J116" s="29" t="s">
         <v>453</v>
       </c>
-      <c r="K116" s="17"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="21"/>
-      <c r="O116" s="22"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="27"/>
+      <c r="M116" s="28"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="28"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="46">
+      <c r="B117" s="31">
         <v>89</v>
       </c>
       <c r="C117" s="6">
@@ -5714,23 +5721,23 @@
       <c r="G117" s="1">
         <v>4</v>
       </c>
-      <c r="H117" s="16" t="s">
+      <c r="H117" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="I117" s="17"/>
-      <c r="J117" s="16" t="s">
+      <c r="I117" s="30"/>
+      <c r="J117" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="K117" s="17"/>
-      <c r="L117" s="19" t="s">
+      <c r="K117" s="30"/>
+      <c r="L117" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="M117" s="20"/>
-      <c r="N117" s="19"/>
-      <c r="O117" s="20"/>
+      <c r="M117" s="24"/>
+      <c r="N117" s="23"/>
+      <c r="O117" s="24"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="47"/>
+      <c r="B118" s="32"/>
       <c r="C118" s="1" t="s">
         <v>243</v>
       </c>
@@ -5746,21 +5753,21 @@
       <c r="G118" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H118" s="16" t="s">
+      <c r="H118" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="16" t="s">
+      <c r="I118" s="30"/>
+      <c r="J118" s="29" t="s">
         <v>451</v>
       </c>
-      <c r="K118" s="17"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="21"/>
-      <c r="O118" s="22"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="27"/>
+      <c r="M118" s="28"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="28"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B119" s="46">
+      <c r="B119" s="31">
         <v>90</v>
       </c>
       <c r="C119" s="6">
@@ -5778,23 +5785,23 @@
       <c r="G119" s="1">
         <v>0.3</v>
       </c>
-      <c r="H119" s="16" t="s">
+      <c r="H119" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="I119" s="17"/>
-      <c r="J119" s="16" t="s">
+      <c r="I119" s="30"/>
+      <c r="J119" s="29" t="s">
         <v>449</v>
       </c>
-      <c r="K119" s="17"/>
-      <c r="L119" s="19" t="s">
+      <c r="K119" s="30"/>
+      <c r="L119" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="M119" s="20"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="20"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="24"/>
     </row>
     <row r="120" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B120" s="47"/>
+      <c r="B120" s="32"/>
       <c r="C120" s="1" t="s">
         <v>223</v>
       </c>
@@ -5802,21 +5809,21 @@
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="16" t="s">
+      <c r="H120" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="I120" s="17"/>
-      <c r="J120" s="16" t="s">
+      <c r="I120" s="30"/>
+      <c r="J120" s="29" t="s">
         <v>450</v>
       </c>
-      <c r="K120" s="17"/>
-      <c r="L120" s="21"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="21"/>
-      <c r="O120" s="22"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="27"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="28"/>
     </row>
     <row r="121" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B121" s="46">
+      <c r="B121" s="31">
         <v>91</v>
       </c>
       <c r="C121" s="6">
@@ -5834,23 +5841,23 @@
       <c r="G121" s="1">
         <v>0.3</v>
       </c>
-      <c r="H121" s="16" t="s">
+      <c r="H121" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="I121" s="17"/>
-      <c r="J121" s="16" t="s">
+      <c r="I121" s="30"/>
+      <c r="J121" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="K121" s="17"/>
-      <c r="L121" s="19" t="s">
+      <c r="K121" s="30"/>
+      <c r="L121" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="M121" s="20"/>
-      <c r="N121" s="19"/>
-      <c r="O121" s="20"/>
+      <c r="M121" s="24"/>
+      <c r="N121" s="23"/>
+      <c r="O121" s="24"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="47"/>
+      <c r="B122" s="32"/>
       <c r="C122" s="1" t="s">
         <v>223</v>
       </c>
@@ -5858,21 +5865,21 @@
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
-      <c r="H122" s="16" t="s">
+      <c r="H122" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="I122" s="17"/>
-      <c r="J122" s="16" t="s">
+      <c r="I122" s="30"/>
+      <c r="J122" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="K122" s="17"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="22"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="28"/>
+      <c r="N122" s="27"/>
+      <c r="O122" s="28"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B123" s="46">
+      <c r="B123" s="31">
         <v>92</v>
       </c>
       <c r="C123" s="6">
@@ -5890,23 +5897,23 @@
       <c r="G123" s="1">
         <v>0.3</v>
       </c>
-      <c r="H123" s="16" t="s">
+      <c r="H123" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="I123" s="17"/>
-      <c r="J123" s="16" t="s">
+      <c r="I123" s="30"/>
+      <c r="J123" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="K123" s="17"/>
-      <c r="L123" s="19" t="s">
+      <c r="K123" s="30"/>
+      <c r="L123" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="M123" s="20"/>
-      <c r="N123" s="19"/>
-      <c r="O123" s="20"/>
+      <c r="M123" s="24"/>
+      <c r="N123" s="23"/>
+      <c r="O123" s="24"/>
     </row>
     <row r="124" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B124" s="47"/>
+      <c r="B124" s="32"/>
       <c r="C124" s="1" t="s">
         <v>223</v>
       </c>
@@ -5914,21 +5921,21 @@
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
-      <c r="H124" s="16" t="s">
+      <c r="H124" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="I124" s="17"/>
-      <c r="J124" s="16" t="s">
+      <c r="I124" s="30"/>
+      <c r="J124" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="K124" s="17"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="21"/>
-      <c r="O124" s="22"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="27"/>
+      <c r="M124" s="28"/>
+      <c r="N124" s="27"/>
+      <c r="O124" s="28"/>
     </row>
     <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="46">
+      <c r="B125" s="31">
         <v>93</v>
       </c>
       <c r="C125" s="6">
@@ -5946,23 +5953,23 @@
       <c r="G125" s="1">
         <v>0.3</v>
       </c>
-      <c r="H125" s="16" t="s">
+      <c r="H125" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="16" t="s">
+      <c r="I125" s="30"/>
+      <c r="J125" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="K125" s="17"/>
-      <c r="L125" s="19" t="s">
+      <c r="K125" s="30"/>
+      <c r="L125" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="M125" s="20"/>
-      <c r="N125" s="19"/>
-      <c r="O125" s="20"/>
+      <c r="M125" s="24"/>
+      <c r="N125" s="23"/>
+      <c r="O125" s="24"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="47"/>
+      <c r="B126" s="32"/>
       <c r="C126" s="1" t="s">
         <v>223</v>
       </c>
@@ -5970,21 +5977,21 @@
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
-      <c r="H126" s="16" t="s">
+      <c r="H126" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="I126" s="17"/>
-      <c r="J126" s="16" t="s">
+      <c r="I126" s="30"/>
+      <c r="J126" s="29" t="s">
         <v>446</v>
       </c>
-      <c r="K126" s="17"/>
-      <c r="L126" s="21"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="21"/>
-      <c r="O126" s="22"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="27"/>
+      <c r="M126" s="28"/>
+      <c r="N126" s="27"/>
+      <c r="O126" s="28"/>
     </row>
     <row r="127" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B127" s="46">
+      <c r="B127" s="31">
         <v>94</v>
       </c>
       <c r="C127" s="6">
@@ -6002,23 +6009,23 @@
       <c r="G127" s="1">
         <v>0.05</v>
       </c>
-      <c r="H127" s="16" t="s">
+      <c r="H127" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="I127" s="17"/>
-      <c r="J127" s="16" t="s">
+      <c r="I127" s="30"/>
+      <c r="J127" s="29" t="s">
         <v>443</v>
       </c>
-      <c r="K127" s="17"/>
-      <c r="L127" s="19" t="s">
+      <c r="K127" s="30"/>
+      <c r="L127" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="M127" s="20"/>
-      <c r="N127" s="19"/>
-      <c r="O127" s="20"/>
+      <c r="M127" s="24"/>
+      <c r="N127" s="23"/>
+      <c r="O127" s="24"/>
     </row>
     <row r="128" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B128" s="47"/>
+      <c r="B128" s="32"/>
       <c r="C128" s="1" t="s">
         <v>223</v>
       </c>
@@ -6026,21 +6033,21 @@
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
-      <c r="H128" s="16" t="s">
+      <c r="H128" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="I128" s="17"/>
-      <c r="J128" s="16" t="s">
+      <c r="I128" s="30"/>
+      <c r="J128" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="K128" s="17"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="21"/>
-      <c r="O128" s="22"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="27"/>
+      <c r="M128" s="28"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="28"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="46">
+      <c r="B129" s="31">
         <v>95</v>
       </c>
       <c r="C129" s="6">
@@ -6058,23 +6065,23 @@
       <c r="G129" s="1">
         <v>0.05</v>
       </c>
-      <c r="H129" s="16" t="s">
+      <c r="H129" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I129" s="17"/>
-      <c r="J129" s="16" t="s">
+      <c r="I129" s="30"/>
+      <c r="J129" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="K129" s="17"/>
-      <c r="L129" s="19" t="s">
+      <c r="K129" s="30"/>
+      <c r="L129" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="M129" s="20"/>
-      <c r="N129" s="19"/>
-      <c r="O129" s="20"/>
+      <c r="M129" s="24"/>
+      <c r="N129" s="23"/>
+      <c r="O129" s="24"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B130" s="47"/>
+      <c r="B130" s="32"/>
       <c r="C130" s="1" t="s">
         <v>223</v>
       </c>
@@ -6082,21 +6089,21 @@
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
-      <c r="H130" s="16" t="s">
+      <c r="H130" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="I130" s="17"/>
-      <c r="J130" s="16" t="s">
+      <c r="I130" s="30"/>
+      <c r="J130" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="K130" s="17"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="21"/>
-      <c r="O130" s="22"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="27"/>
+      <c r="M130" s="28"/>
+      <c r="N130" s="27"/>
+      <c r="O130" s="28"/>
     </row>
     <row r="131" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B131" s="46">
+      <c r="B131" s="31">
         <v>96</v>
       </c>
       <c r="C131" s="6">
@@ -6114,23 +6121,23 @@
       <c r="G131" s="1">
         <v>0.3</v>
       </c>
-      <c r="H131" s="16" t="s">
+      <c r="H131" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="I131" s="17"/>
-      <c r="J131" s="16" t="s">
+      <c r="I131" s="30"/>
+      <c r="J131" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="K131" s="17"/>
-      <c r="L131" s="19" t="s">
+      <c r="K131" s="30"/>
+      <c r="L131" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="M131" s="20"/>
-      <c r="N131" s="19"/>
-      <c r="O131" s="20"/>
+      <c r="M131" s="24"/>
+      <c r="N131" s="23"/>
+      <c r="O131" s="24"/>
     </row>
     <row r="132" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B132" s="47"/>
+      <c r="B132" s="32"/>
       <c r="C132" s="1" t="s">
         <v>227</v>
       </c>
@@ -6142,21 +6149,21 @@
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
-      <c r="H132" s="16" t="s">
+      <c r="H132" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="I132" s="17"/>
-      <c r="J132" s="16" t="s">
+      <c r="I132" s="30"/>
+      <c r="J132" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="K132" s="17"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="22"/>
-      <c r="N132" s="21"/>
-      <c r="O132" s="22"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="27"/>
+      <c r="M132" s="28"/>
+      <c r="N132" s="27"/>
+      <c r="O132" s="28"/>
     </row>
     <row r="133" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B133" s="46">
+      <c r="B133" s="31">
         <v>97</v>
       </c>
       <c r="C133" s="6">
@@ -6174,23 +6181,23 @@
       <c r="G133" s="1">
         <v>0.3</v>
       </c>
-      <c r="H133" s="16" t="s">
+      <c r="H133" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="I133" s="17"/>
-      <c r="J133" s="16" t="s">
+      <c r="I133" s="30"/>
+      <c r="J133" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="K133" s="17"/>
-      <c r="L133" s="19" t="s">
+      <c r="K133" s="30"/>
+      <c r="L133" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="M133" s="20"/>
-      <c r="N133" s="19"/>
-      <c r="O133" s="20"/>
+      <c r="M133" s="24"/>
+      <c r="N133" s="23"/>
+      <c r="O133" s="24"/>
     </row>
     <row r="134" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B134" s="47"/>
+      <c r="B134" s="32"/>
       <c r="C134" s="1" t="s">
         <v>230</v>
       </c>
@@ -6202,21 +6209,21 @@
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="16" t="s">
+      <c r="H134" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="I134" s="17"/>
-      <c r="J134" s="16" t="s">
+      <c r="I134" s="30"/>
+      <c r="J134" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="K134" s="17"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="21"/>
-      <c r="O134" s="22"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="27"/>
+      <c r="M134" s="28"/>
+      <c r="N134" s="27"/>
+      <c r="O134" s="28"/>
     </row>
     <row r="135" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B135" s="46">
+      <c r="B135" s="31">
         <v>98</v>
       </c>
       <c r="C135" s="6">
@@ -6234,23 +6241,23 @@
       <c r="G135" s="1">
         <v>0.3</v>
       </c>
-      <c r="H135" s="16" t="s">
+      <c r="H135" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="I135" s="17"/>
-      <c r="J135" s="16" t="s">
+      <c r="I135" s="30"/>
+      <c r="J135" s="29" t="s">
         <v>438</v>
       </c>
-      <c r="K135" s="17"/>
-      <c r="L135" s="19" t="s">
+      <c r="K135" s="30"/>
+      <c r="L135" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="M135" s="20"/>
-      <c r="N135" s="19"/>
-      <c r="O135" s="20"/>
+      <c r="M135" s="24"/>
+      <c r="N135" s="23"/>
+      <c r="O135" s="24"/>
     </row>
     <row r="136" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B136" s="47"/>
+      <c r="B136" s="32"/>
       <c r="C136" s="1" t="s">
         <v>230</v>
       </c>
@@ -6262,21 +6269,21 @@
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
-      <c r="H136" s="16" t="s">
+      <c r="H136" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="I136" s="17"/>
-      <c r="J136" s="16" t="s">
+      <c r="I136" s="30"/>
+      <c r="J136" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="K136" s="17"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="22"/>
-      <c r="N136" s="21"/>
-      <c r="O136" s="22"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="27"/>
+      <c r="M136" s="28"/>
+      <c r="N136" s="27"/>
+      <c r="O136" s="28"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B137" s="46">
+      <c r="B137" s="31">
         <v>99</v>
       </c>
       <c r="C137" s="6">
@@ -6294,23 +6301,23 @@
       <c r="G137" s="1">
         <v>0.3</v>
       </c>
-      <c r="H137" s="16" t="s">
+      <c r="H137" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="I137" s="17"/>
-      <c r="J137" s="16" t="s">
+      <c r="I137" s="30"/>
+      <c r="J137" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="K137" s="17"/>
-      <c r="L137" s="19" t="s">
+      <c r="K137" s="30"/>
+      <c r="L137" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="M137" s="20"/>
-      <c r="N137" s="19"/>
-      <c r="O137" s="20"/>
+      <c r="M137" s="24"/>
+      <c r="N137" s="23"/>
+      <c r="O137" s="24"/>
     </row>
     <row r="138" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B138" s="47"/>
+      <c r="B138" s="32"/>
       <c r="C138" s="1" t="s">
         <v>230</v>
       </c>
@@ -6322,21 +6329,21 @@
       </c>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="16" t="s">
+      <c r="H138" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="I138" s="17"/>
-      <c r="J138" s="16" t="s">
+      <c r="I138" s="30"/>
+      <c r="J138" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="K138" s="17"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="22"/>
-      <c r="N138" s="21"/>
-      <c r="O138" s="22"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="27"/>
+      <c r="M138" s="28"/>
+      <c r="N138" s="27"/>
+      <c r="O138" s="28"/>
     </row>
     <row r="139" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B139" s="46">
+      <c r="B139" s="31">
         <v>100</v>
       </c>
       <c r="C139" s="6">
@@ -6354,23 +6361,23 @@
       <c r="G139" s="1">
         <v>2.25</v>
       </c>
-      <c r="H139" s="16" t="s">
+      <c r="H139" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="I139" s="17"/>
-      <c r="J139" s="16" t="s">
+      <c r="I139" s="30"/>
+      <c r="J139" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="K139" s="17"/>
-      <c r="L139" s="19" t="s">
+      <c r="K139" s="30"/>
+      <c r="L139" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="M139" s="20"/>
-      <c r="N139" s="19"/>
-      <c r="O139" s="20"/>
+      <c r="M139" s="24"/>
+      <c r="N139" s="23"/>
+      <c r="O139" s="24"/>
     </row>
     <row r="140" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B140" s="47"/>
+      <c r="B140" s="32"/>
       <c r="C140" s="1" t="s">
         <v>243</v>
       </c>
@@ -6386,21 +6393,21 @@
       <c r="G140" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H140" s="16" t="s">
+      <c r="H140" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="I140" s="17"/>
-      <c r="J140" s="16" t="s">
+      <c r="I140" s="30"/>
+      <c r="J140" s="29" t="s">
         <v>436</v>
       </c>
-      <c r="K140" s="17"/>
-      <c r="L140" s="21"/>
-      <c r="M140" s="22"/>
-      <c r="N140" s="21"/>
-      <c r="O140" s="22"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="28"/>
+      <c r="N140" s="27"/>
+      <c r="O140" s="28"/>
     </row>
     <row r="141" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B141" s="46">
+      <c r="B141" s="31">
         <v>101</v>
       </c>
       <c r="C141" s="6">
@@ -6418,23 +6425,23 @@
       <c r="G141" s="1">
         <v>0.3</v>
       </c>
-      <c r="H141" s="16" t="s">
+      <c r="H141" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="I141" s="17"/>
-      <c r="J141" s="16" t="s">
+      <c r="I141" s="30"/>
+      <c r="J141" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="K141" s="17"/>
-      <c r="L141" s="19" t="s">
+      <c r="K141" s="30"/>
+      <c r="L141" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="M141" s="20"/>
-      <c r="N141" s="19"/>
-      <c r="O141" s="20"/>
+      <c r="M141" s="24"/>
+      <c r="N141" s="23"/>
+      <c r="O141" s="24"/>
     </row>
     <row r="142" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B142" s="47"/>
+      <c r="B142" s="32"/>
       <c r="C142" s="1" t="s">
         <v>223</v>
       </c>
@@ -6442,21 +6449,21 @@
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
-      <c r="H142" s="16" t="s">
+      <c r="H142" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="I142" s="17"/>
-      <c r="J142" s="16" t="s">
+      <c r="I142" s="30"/>
+      <c r="J142" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="K142" s="17"/>
-      <c r="L142" s="21"/>
-      <c r="M142" s="22"/>
-      <c r="N142" s="21"/>
-      <c r="O142" s="22"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="27"/>
+      <c r="M142" s="28"/>
+      <c r="N142" s="27"/>
+      <c r="O142" s="28"/>
     </row>
     <row r="143" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B143" s="46">
+      <c r="B143" s="31">
         <v>102</v>
       </c>
       <c r="C143" s="6">
@@ -6474,23 +6481,23 @@
       <c r="G143" s="1">
         <v>1.3</v>
       </c>
-      <c r="H143" s="16" t="s">
+      <c r="H143" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="I143" s="17"/>
-      <c r="J143" s="16" t="s">
+      <c r="I143" s="30"/>
+      <c r="J143" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="K143" s="17"/>
-      <c r="L143" s="19" t="s">
+      <c r="K143" s="30"/>
+      <c r="L143" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="M143" s="20"/>
-      <c r="N143" s="19"/>
-      <c r="O143" s="20"/>
+      <c r="M143" s="24"/>
+      <c r="N143" s="23"/>
+      <c r="O143" s="24"/>
     </row>
     <row r="144" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B144" s="47"/>
+      <c r="B144" s="32"/>
       <c r="C144" s="1" t="s">
         <v>223</v>
       </c>
@@ -6498,21 +6505,21 @@
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
-      <c r="H144" s="16" t="s">
+      <c r="H144" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="I144" s="17"/>
-      <c r="J144" s="16" t="s">
+      <c r="I144" s="30"/>
+      <c r="J144" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="K144" s="17"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="22"/>
-      <c r="N144" s="21"/>
-      <c r="O144" s="22"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="27"/>
+      <c r="M144" s="28"/>
+      <c r="N144" s="27"/>
+      <c r="O144" s="28"/>
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B145" s="46">
+      <c r="B145" s="31">
         <v>103</v>
       </c>
       <c r="C145" s="6">
@@ -6530,23 +6537,23 @@
       <c r="G145" s="1">
         <v>0.2</v>
       </c>
-      <c r="H145" s="16" t="s">
+      <c r="H145" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="I145" s="17"/>
-      <c r="J145" s="16" t="s">
+      <c r="I145" s="30"/>
+      <c r="J145" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="K145" s="17"/>
-      <c r="L145" s="19" t="s">
+      <c r="K145" s="30"/>
+      <c r="L145" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="M145" s="20"/>
-      <c r="N145" s="19"/>
-      <c r="O145" s="20"/>
+      <c r="M145" s="24"/>
+      <c r="N145" s="23"/>
+      <c r="O145" s="24"/>
     </row>
     <row r="146" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B146" s="47"/>
+      <c r="B146" s="32"/>
       <c r="C146" s="1" t="s">
         <v>223</v>
       </c>
@@ -6554,21 +6561,21 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
-      <c r="H146" s="16" t="s">
+      <c r="H146" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="I146" s="17"/>
-      <c r="J146" s="16" t="s">
+      <c r="I146" s="30"/>
+      <c r="J146" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="K146" s="17"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="22"/>
-      <c r="N146" s="21"/>
-      <c r="O146" s="22"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="27"/>
+      <c r="M146" s="28"/>
+      <c r="N146" s="27"/>
+      <c r="O146" s="28"/>
     </row>
     <row r="147" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B147" s="46">
+      <c r="B147" s="31">
         <v>104</v>
       </c>
       <c r="C147" s="6">
@@ -6586,23 +6593,23 @@
       <c r="G147" s="1">
         <v>3.3</v>
       </c>
-      <c r="H147" s="16" t="s">
+      <c r="H147" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="I147" s="17"/>
-      <c r="J147" s="16" t="s">
+      <c r="I147" s="30"/>
+      <c r="J147" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="K147" s="17"/>
-      <c r="L147" s="19" t="s">
+      <c r="K147" s="30"/>
+      <c r="L147" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="M147" s="20"/>
-      <c r="N147" s="19"/>
-      <c r="O147" s="20"/>
+      <c r="M147" s="24"/>
+      <c r="N147" s="23"/>
+      <c r="O147" s="24"/>
     </row>
     <row r="148" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B148" s="47"/>
+      <c r="B148" s="32"/>
       <c r="C148" s="1" t="s">
         <v>223</v>
       </c>
@@ -6610,21 +6617,21 @@
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
-      <c r="H148" s="16" t="s">
+      <c r="H148" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="I148" s="17"/>
-      <c r="J148" s="16" t="s">
+      <c r="I148" s="30"/>
+      <c r="J148" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="K148" s="17"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="22"/>
-      <c r="N148" s="21"/>
-      <c r="O148" s="22"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="27"/>
+      <c r="M148" s="28"/>
+      <c r="N148" s="27"/>
+      <c r="O148" s="28"/>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" s="46">
+      <c r="B149" s="31">
         <v>105</v>
       </c>
       <c r="C149" s="6">
@@ -6642,23 +6649,23 @@
       <c r="G149" s="1">
         <v>0.2</v>
       </c>
-      <c r="H149" s="16" t="s">
+      <c r="H149" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="I149" s="17"/>
-      <c r="J149" s="16" t="s">
+      <c r="I149" s="30"/>
+      <c r="J149" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="K149" s="17"/>
-      <c r="L149" s="19" t="s">
+      <c r="K149" s="30"/>
+      <c r="L149" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="M149" s="20"/>
-      <c r="N149" s="19"/>
-      <c r="O149" s="20"/>
+      <c r="M149" s="24"/>
+      <c r="N149" s="23"/>
+      <c r="O149" s="24"/>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" s="47"/>
+      <c r="B150" s="32"/>
       <c r="C150" s="1" t="s">
         <v>223</v>
       </c>
@@ -6666,21 +6673,21 @@
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
-      <c r="H150" s="16" t="s">
+      <c r="H150" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="I150" s="17"/>
-      <c r="J150" s="16" t="s">
+      <c r="I150" s="30"/>
+      <c r="J150" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="K150" s="17"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="22"/>
-      <c r="N150" s="21"/>
-      <c r="O150" s="22"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="28"/>
+      <c r="N150" s="27"/>
+      <c r="O150" s="28"/>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" s="46">
+      <c r="B151" s="31">
         <v>106</v>
       </c>
       <c r="C151" s="6">
@@ -6698,23 +6705,23 @@
       <c r="G151" s="1">
         <v>0.2</v>
       </c>
-      <c r="H151" s="16" t="s">
+      <c r="H151" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="I151" s="17"/>
-      <c r="J151" s="16" t="s">
+      <c r="I151" s="30"/>
+      <c r="J151" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="K151" s="17"/>
-      <c r="L151" s="19" t="s">
+      <c r="K151" s="30"/>
+      <c r="L151" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="M151" s="20"/>
-      <c r="N151" s="19"/>
-      <c r="O151" s="20"/>
+      <c r="M151" s="24"/>
+      <c r="N151" s="23"/>
+      <c r="O151" s="24"/>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B152" s="47"/>
+      <c r="B152" s="32"/>
       <c r="C152" s="1" t="s">
         <v>223</v>
       </c>
@@ -6722,21 +6729,21 @@
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
-      <c r="H152" s="16" t="s">
+      <c r="H152" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="I152" s="17"/>
-      <c r="J152" s="16" t="s">
+      <c r="I152" s="30"/>
+      <c r="J152" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="K152" s="17"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="22"/>
-      <c r="N152" s="21"/>
-      <c r="O152" s="22"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="27"/>
+      <c r="M152" s="28"/>
+      <c r="N152" s="27"/>
+      <c r="O152" s="28"/>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B153" s="46">
+      <c r="B153" s="31">
         <v>107</v>
       </c>
       <c r="C153" s="6">
@@ -6754,23 +6761,23 @@
       <c r="G153" s="1">
         <v>0.3</v>
       </c>
-      <c r="H153" s="16" t="s">
+      <c r="H153" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="I153" s="17"/>
-      <c r="J153" s="16" t="s">
+      <c r="I153" s="30"/>
+      <c r="J153" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="K153" s="17"/>
-      <c r="L153" s="19" t="s">
+      <c r="K153" s="30"/>
+      <c r="L153" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="M153" s="20"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="20"/>
+      <c r="M153" s="24"/>
+      <c r="N153" s="23"/>
+      <c r="O153" s="24"/>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B154" s="47"/>
+      <c r="B154" s="32"/>
       <c r="C154" s="1" t="s">
         <v>227</v>
       </c>
@@ -6782,21 +6789,21 @@
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
-      <c r="H154" s="16" t="s">
+      <c r="H154" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="I154" s="17"/>
-      <c r="J154" s="16" t="s">
+      <c r="I154" s="30"/>
+      <c r="J154" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="K154" s="17"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="22"/>
-      <c r="N154" s="21"/>
-      <c r="O154" s="22"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="28"/>
+      <c r="N154" s="27"/>
+      <c r="O154" s="28"/>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B155" s="46">
+      <c r="B155" s="31">
         <v>108</v>
       </c>
       <c r="C155" s="6">
@@ -6814,23 +6821,23 @@
       <c r="G155" s="1">
         <v>0.3</v>
       </c>
-      <c r="H155" s="16" t="s">
+      <c r="H155" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="I155" s="17"/>
-      <c r="J155" s="16" t="s">
+      <c r="I155" s="30"/>
+      <c r="J155" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="K155" s="17"/>
-      <c r="L155" s="19" t="s">
+      <c r="K155" s="30"/>
+      <c r="L155" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="M155" s="20"/>
-      <c r="N155" s="19"/>
-      <c r="O155" s="20"/>
+      <c r="M155" s="24"/>
+      <c r="N155" s="23"/>
+      <c r="O155" s="24"/>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B156" s="47"/>
+      <c r="B156" s="32"/>
       <c r="C156" s="1" t="s">
         <v>230</v>
       </c>
@@ -6842,21 +6849,21 @@
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
-      <c r="H156" s="16" t="s">
+      <c r="H156" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="I156" s="17"/>
-      <c r="J156" s="16" t="s">
+      <c r="I156" s="30"/>
+      <c r="J156" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="K156" s="17"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="22"/>
-      <c r="N156" s="21"/>
-      <c r="O156" s="22"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="28"/>
+      <c r="N156" s="27"/>
+      <c r="O156" s="28"/>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B157" s="46">
+      <c r="B157" s="31">
         <v>109</v>
       </c>
       <c r="C157" s="6">
@@ -6874,23 +6881,23 @@
       <c r="G157" s="1">
         <v>0.3</v>
       </c>
-      <c r="H157" s="16" t="s">
+      <c r="H157" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="I157" s="17"/>
-      <c r="J157" s="16" t="s">
+      <c r="I157" s="30"/>
+      <c r="J157" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="K157" s="17"/>
-      <c r="L157" s="19" t="s">
+      <c r="K157" s="30"/>
+      <c r="L157" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="M157" s="20"/>
-      <c r="N157" s="19"/>
-      <c r="O157" s="20"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="23"/>
+      <c r="O157" s="24"/>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B158" s="47"/>
+      <c r="B158" s="32"/>
       <c r="C158" s="1" t="s">
         <v>230</v>
       </c>
@@ -6902,21 +6909,21 @@
       </c>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
-      <c r="H158" s="16" t="s">
+      <c r="H158" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="I158" s="17"/>
-      <c r="J158" s="16" t="s">
+      <c r="I158" s="30"/>
+      <c r="J158" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="K158" s="17"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="22"/>
-      <c r="N158" s="21"/>
-      <c r="O158" s="22"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="27"/>
+      <c r="M158" s="28"/>
+      <c r="N158" s="27"/>
+      <c r="O158" s="28"/>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B159" s="46">
+      <c r="B159" s="31">
         <v>110</v>
       </c>
       <c r="C159" s="6">
@@ -6934,23 +6941,23 @@
       <c r="G159" s="1">
         <v>0.3</v>
       </c>
-      <c r="H159" s="16" t="s">
+      <c r="H159" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="I159" s="17"/>
-      <c r="J159" s="16" t="s">
+      <c r="I159" s="30"/>
+      <c r="J159" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="K159" s="17"/>
-      <c r="L159" s="19" t="s">
+      <c r="K159" s="30"/>
+      <c r="L159" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="M159" s="20"/>
-      <c r="N159" s="19"/>
-      <c r="O159" s="20"/>
+      <c r="M159" s="24"/>
+      <c r="N159" s="23"/>
+      <c r="O159" s="24"/>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B160" s="47"/>
+      <c r="B160" s="32"/>
       <c r="C160" s="1" t="s">
         <v>230</v>
       </c>
@@ -6962,21 +6969,21 @@
       </c>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
-      <c r="H160" s="16" t="s">
+      <c r="H160" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="I160" s="17"/>
-      <c r="J160" s="16" t="s">
+      <c r="I160" s="30"/>
+      <c r="J160" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="K160" s="17"/>
-      <c r="L160" s="21"/>
-      <c r="M160" s="22"/>
-      <c r="N160" s="21"/>
-      <c r="O160" s="22"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="27"/>
+      <c r="M160" s="28"/>
+      <c r="N160" s="27"/>
+      <c r="O160" s="28"/>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B161" s="46">
+      <c r="B161" s="31">
         <v>111</v>
       </c>
       <c r="C161" s="6">
@@ -6994,23 +7001,23 @@
       <c r="G161" s="1">
         <v>3</v>
       </c>
-      <c r="H161" s="16" t="s">
+      <c r="H161" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="I161" s="17"/>
-      <c r="J161" s="16" t="s">
+      <c r="I161" s="30"/>
+      <c r="J161" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="K161" s="17"/>
-      <c r="L161" s="19" t="s">
+      <c r="K161" s="30"/>
+      <c r="L161" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="M161" s="20"/>
-      <c r="N161" s="19"/>
-      <c r="O161" s="20"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="23"/>
+      <c r="O161" s="24"/>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B162" s="47"/>
+      <c r="B162" s="32"/>
       <c r="C162" s="1" t="s">
         <v>243</v>
       </c>
@@ -7026,18 +7033,18 @@
       <c r="G162" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H162" s="16" t="s">
+      <c r="H162" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="I162" s="17"/>
-      <c r="J162" s="16" t="s">
+      <c r="I162" s="30"/>
+      <c r="J162" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="K162" s="17"/>
-      <c r="L162" s="21"/>
-      <c r="M162" s="22"/>
-      <c r="N162" s="21"/>
-      <c r="O162" s="22"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="27"/>
+      <c r="M162" s="28"/>
+      <c r="N162" s="27"/>
+      <c r="O162" s="28"/>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B163" s="6">
@@ -7058,20 +7065,20 @@
       <c r="G163" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H163" s="16" t="s">
+      <c r="H163" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="I163" s="17"/>
-      <c r="J163" s="16" t="s">
+      <c r="I163" s="30"/>
+      <c r="J163" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="K163" s="17"/>
-      <c r="L163" s="16" t="s">
+      <c r="K163" s="30"/>
+      <c r="L163" s="29" t="s">
         <v>278</v>
       </c>
-      <c r="M163" s="17"/>
-      <c r="N163" s="16"/>
-      <c r="O163" s="17"/>
+      <c r="M163" s="30"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="30"/>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B164" s="6">
@@ -7092,23 +7099,23 @@
       <c r="G164" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H164" s="16" t="s">
+      <c r="H164" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="I164" s="17"/>
-      <c r="J164" s="16" t="s">
+      <c r="I164" s="30"/>
+      <c r="J164" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="K164" s="17"/>
-      <c r="L164" s="16" t="s">
+      <c r="K164" s="30"/>
+      <c r="L164" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="M164" s="17"/>
-      <c r="N164" s="16"/>
-      <c r="O164" s="17"/>
+      <c r="M164" s="30"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="30"/>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B165" s="23">
+      <c r="B165" s="19">
         <v>114</v>
       </c>
       <c r="C165" s="6">
@@ -7126,23 +7133,23 @@
       <c r="G165" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H165" s="31" t="s">
+      <c r="H165" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="I165" s="31"/>
-      <c r="J165" s="31" t="s">
+      <c r="I165" s="22"/>
+      <c r="J165" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="K165" s="31"/>
-      <c r="L165" s="19" t="s">
+      <c r="K165" s="22"/>
+      <c r="L165" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="M165" s="20"/>
-      <c r="N165" s="16"/>
-      <c r="O165" s="17"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="30"/>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B166" s="27"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="1" t="s">
         <v>221</v>
       </c>
@@ -7158,21 +7165,21 @@
       <c r="G166" s="1">
         <v>2</v>
       </c>
-      <c r="H166" s="16" t="s">
+      <c r="H166" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="I166" s="17"/>
-      <c r="J166" s="16" t="s">
+      <c r="I166" s="30"/>
+      <c r="J166" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="K166" s="17"/>
+      <c r="K166" s="30"/>
       <c r="L166" s="25"/>
       <c r="M166" s="26"/>
-      <c r="N166" s="16"/>
-      <c r="O166" s="17"/>
+      <c r="N166" s="29"/>
+      <c r="O166" s="30"/>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B167" s="24"/>
+      <c r="B167" s="21"/>
       <c r="C167" s="1" t="s">
         <v>293</v>
       </c>
@@ -7182,21 +7189,21 @@
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
-      <c r="H167" s="31">
+      <c r="H167" s="22">
         <v>7</v>
       </c>
-      <c r="I167" s="31"/>
-      <c r="J167" s="31">
+      <c r="I167" s="22"/>
+      <c r="J167" s="22">
         <v>7</v>
       </c>
-      <c r="K167" s="31"/>
-      <c r="L167" s="21"/>
-      <c r="M167" s="22"/>
-      <c r="N167" s="16"/>
-      <c r="O167" s="17"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="27"/>
+      <c r="M167" s="28"/>
+      <c r="N167" s="29"/>
+      <c r="O167" s="30"/>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B168" s="23">
+      <c r="B168" s="19">
         <v>115</v>
       </c>
       <c r="C168" s="6">
@@ -7214,23 +7221,23 @@
       <c r="G168" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H168" s="31" t="s">
+      <c r="H168" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="I168" s="31"/>
-      <c r="J168" s="31" t="s">
+      <c r="I168" s="22"/>
+      <c r="J168" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="K168" s="31"/>
-      <c r="L168" s="19" t="s">
+      <c r="K168" s="22"/>
+      <c r="L168" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="M168" s="20"/>
-      <c r="N168" s="16"/>
-      <c r="O168" s="17"/>
+      <c r="M168" s="24"/>
+      <c r="N168" s="29"/>
+      <c r="O168" s="30"/>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B169" s="27"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="1" t="s">
         <v>222</v>
       </c>
@@ -7246,21 +7253,21 @@
       <c r="G169" s="1">
         <v>3</v>
       </c>
-      <c r="H169" s="16" t="s">
+      <c r="H169" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="I169" s="17"/>
-      <c r="J169" s="16" t="s">
+      <c r="I169" s="30"/>
+      <c r="J169" s="29" t="s">
         <v>419</v>
       </c>
-      <c r="K169" s="17"/>
+      <c r="K169" s="30"/>
       <c r="L169" s="25"/>
       <c r="M169" s="26"/>
-      <c r="N169" s="16"/>
-      <c r="O169" s="17"/>
+      <c r="N169" s="29"/>
+      <c r="O169" s="30"/>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B170" s="24"/>
+      <c r="B170" s="21"/>
       <c r="C170" s="1" t="s">
         <v>293</v>
       </c>
@@ -7270,21 +7277,21 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
-      <c r="H170" s="31">
+      <c r="H170" s="22">
         <v>2</v>
       </c>
-      <c r="I170" s="31"/>
-      <c r="J170" s="31">
+      <c r="I170" s="22"/>
+      <c r="J170" s="22">
         <v>2</v>
       </c>
-      <c r="K170" s="31"/>
-      <c r="L170" s="21"/>
-      <c r="M170" s="22"/>
-      <c r="N170" s="16"/>
-      <c r="O170" s="17"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="27"/>
+      <c r="M170" s="28"/>
+      <c r="N170" s="29"/>
+      <c r="O170" s="30"/>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B171" s="23">
+      <c r="B171" s="19">
         <v>116</v>
       </c>
       <c r="C171" s="6">
@@ -7302,23 +7309,23 @@
       <c r="G171" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H171" s="31" t="s">
+      <c r="H171" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="I171" s="31"/>
-      <c r="J171" s="31" t="s">
+      <c r="I171" s="22"/>
+      <c r="J171" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="K171" s="31"/>
-      <c r="L171" s="19" t="s">
+      <c r="K171" s="22"/>
+      <c r="L171" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="M171" s="20"/>
-      <c r="N171" s="16"/>
-      <c r="O171" s="17"/>
+      <c r="M171" s="24"/>
+      <c r="N171" s="29"/>
+      <c r="O171" s="30"/>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B172" s="27"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="1" t="s">
         <v>227</v>
       </c>
@@ -7334,21 +7341,21 @@
       <c r="G172" s="1">
         <v>3</v>
       </c>
-      <c r="H172" s="16" t="s">
+      <c r="H172" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="I172" s="17"/>
-      <c r="J172" s="16" t="s">
+      <c r="I172" s="30"/>
+      <c r="J172" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="K172" s="17"/>
+      <c r="K172" s="30"/>
       <c r="L172" s="25"/>
       <c r="M172" s="26"/>
-      <c r="N172" s="16"/>
-      <c r="O172" s="17"/>
+      <c r="N172" s="29"/>
+      <c r="O172" s="30"/>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B173" s="24"/>
+      <c r="B173" s="21"/>
       <c r="C173" s="1" t="s">
         <v>293</v>
       </c>
@@ -7358,21 +7365,21 @@
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
-      <c r="H173" s="31">
+      <c r="H173" s="22">
         <v>-72</v>
       </c>
-      <c r="I173" s="31"/>
-      <c r="J173" s="31">
+      <c r="I173" s="22"/>
+      <c r="J173" s="22">
         <v>-72</v>
       </c>
-      <c r="K173" s="31"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="22"/>
-      <c r="N173" s="16"/>
-      <c r="O173" s="17"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="27"/>
+      <c r="M173" s="28"/>
+      <c r="N173" s="29"/>
+      <c r="O173" s="30"/>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B174" s="23">
+      <c r="B174" s="19">
         <v>117</v>
       </c>
       <c r="C174" s="6">
@@ -7390,23 +7397,23 @@
       <c r="G174" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H174" s="31" t="s">
+      <c r="H174" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="I174" s="31"/>
-      <c r="J174" s="31" t="s">
+      <c r="I174" s="22"/>
+      <c r="J174" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="K174" s="31"/>
-      <c r="L174" s="19" t="s">
+      <c r="K174" s="22"/>
+      <c r="L174" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="M174" s="20"/>
-      <c r="N174" s="16"/>
-      <c r="O174" s="17"/>
+      <c r="M174" s="24"/>
+      <c r="N174" s="29"/>
+      <c r="O174" s="30"/>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B175" s="27"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="1" t="s">
         <v>230</v>
       </c>
@@ -7422,21 +7429,21 @@
       <c r="G175" s="1">
         <v>4</v>
       </c>
-      <c r="H175" s="16" t="s">
+      <c r="H175" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="I175" s="17"/>
-      <c r="J175" s="16" t="s">
+      <c r="I175" s="30"/>
+      <c r="J175" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="K175" s="17"/>
+      <c r="K175" s="30"/>
       <c r="L175" s="25"/>
       <c r="M175" s="26"/>
-      <c r="N175" s="16"/>
-      <c r="O175" s="17"/>
+      <c r="N175" s="29"/>
+      <c r="O175" s="30"/>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="24"/>
+      <c r="B176" s="21"/>
       <c r="C176" s="1" t="s">
         <v>293</v>
       </c>
@@ -7446,21 +7453,21 @@
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
-      <c r="H176" s="31">
+      <c r="H176" s="22">
         <v>-0.125</v>
       </c>
-      <c r="I176" s="31"/>
-      <c r="J176" s="31">
+      <c r="I176" s="22"/>
+      <c r="J176" s="22">
         <v>-0.125</v>
       </c>
-      <c r="K176" s="31"/>
-      <c r="L176" s="21"/>
-      <c r="M176" s="22"/>
-      <c r="N176" s="16"/>
-      <c r="O176" s="17"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="27"/>
+      <c r="M176" s="28"/>
+      <c r="N176" s="29"/>
+      <c r="O176" s="30"/>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B177" s="32">
+      <c r="B177" s="44">
         <v>118</v>
       </c>
       <c r="C177" s="1">
@@ -7478,23 +7485,23 @@
       <c r="G177" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H177" s="31" t="s">
+      <c r="H177" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="I177" s="31"/>
-      <c r="J177" s="31" t="s">
+      <c r="I177" s="22"/>
+      <c r="J177" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="K177" s="31"/>
-      <c r="L177" s="19" t="s">
+      <c r="K177" s="22"/>
+      <c r="L177" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="M177" s="20"/>
+      <c r="M177" s="24"/>
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B178" s="33"/>
+      <c r="B178" s="45"/>
       <c r="C178" s="1" t="s">
         <v>297</v>
       </c>
@@ -7510,21 +7517,21 @@
       <c r="G178" s="1">
         <v>3.9990000000000001</v>
       </c>
-      <c r="H178" s="16" t="s">
+      <c r="H178" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="I178" s="17"/>
-      <c r="J178" s="16" t="s">
+      <c r="I178" s="30"/>
+      <c r="J178" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="K178" s="17"/>
+      <c r="K178" s="30"/>
       <c r="L178" s="25"/>
       <c r="M178" s="26"/>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B179" s="34"/>
+      <c r="B179" s="46"/>
       <c r="C179" s="1" t="s">
         <v>295</v>
       </c>
@@ -7534,21 +7541,21 @@
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
-      <c r="H179" s="31">
+      <c r="H179" s="22">
         <v>15.75606</v>
       </c>
-      <c r="I179" s="31"/>
-      <c r="J179" s="31">
+      <c r="I179" s="22"/>
+      <c r="J179" s="22">
         <v>15.75606</v>
       </c>
-      <c r="K179" s="31"/>
-      <c r="L179" s="21"/>
-      <c r="M179" s="22"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="27"/>
+      <c r="M179" s="28"/>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B180" s="23">
+      <c r="B180" s="19">
         <v>119</v>
       </c>
       <c r="C180" s="1">
@@ -7566,23 +7573,23 @@
       <c r="G180" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H180" s="19" t="s">
+      <c r="H180" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="I180" s="20"/>
-      <c r="J180" s="19" t="s">
+      <c r="I180" s="24"/>
+      <c r="J180" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="K180" s="20"/>
-      <c r="L180" s="19" t="s">
+      <c r="K180" s="24"/>
+      <c r="L180" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="M180" s="20"/>
+      <c r="M180" s="24"/>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B181" s="27"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="1" t="s">
         <v>292</v>
       </c>
@@ -7598,17 +7605,17 @@
       <c r="G181" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="H181" s="21"/>
-      <c r="I181" s="22"/>
-      <c r="J181" s="21"/>
-      <c r="K181" s="22"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="28"/>
+      <c r="J181" s="27"/>
+      <c r="K181" s="28"/>
       <c r="L181" s="25"/>
       <c r="M181" s="26"/>
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B182" s="24"/>
+      <c r="B182" s="21"/>
       <c r="C182" s="1" t="s">
         <v>294</v>
       </c>
@@ -7616,21 +7623,21 @@
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
-      <c r="H182" s="16" t="s">
+      <c r="H182" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="I182" s="17"/>
-      <c r="J182" s="16" t="s">
+      <c r="I182" s="30"/>
+      <c r="J182" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="K182" s="17"/>
-      <c r="L182" s="21"/>
-      <c r="M182" s="22"/>
+      <c r="K182" s="30"/>
+      <c r="L182" s="27"/>
+      <c r="M182" s="28"/>
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B183" s="23">
+      <c r="B183" s="19">
         <v>120</v>
       </c>
       <c r="C183" s="1">
@@ -7648,23 +7655,23 @@
       <c r="G183" s="1">
         <v>6.66</v>
       </c>
-      <c r="H183" s="16" t="s">
+      <c r="H183" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="I183" s="17"/>
-      <c r="J183" s="16" t="s">
+      <c r="I183" s="30"/>
+      <c r="J183" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="K183" s="17"/>
-      <c r="L183" s="19" t="s">
+      <c r="K183" s="30"/>
+      <c r="L183" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="M183" s="20"/>
+      <c r="M183" s="24"/>
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B184" s="27"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="1" t="s">
         <v>295</v>
       </c>
@@ -7680,21 +7687,21 @@
       <c r="G184" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H184" s="16" t="s">
+      <c r="H184" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="I184" s="17"/>
-      <c r="J184" s="16" t="s">
+      <c r="I184" s="30"/>
+      <c r="J184" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="K184" s="17"/>
+      <c r="K184" s="30"/>
       <c r="L184" s="25"/>
       <c r="M184" s="26"/>
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B185" s="24"/>
+      <c r="B185" s="21"/>
       <c r="C185" s="1" t="s">
         <v>296</v>
       </c>
@@ -7702,21 +7709,21 @@
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="8"/>
-      <c r="H185" s="30" t="s">
+      <c r="H185" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="I185" s="30"/>
-      <c r="J185" s="30" t="s">
+      <c r="I185" s="47"/>
+      <c r="J185" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="K185" s="30"/>
-      <c r="L185" s="21"/>
-      <c r="M185" s="22"/>
+      <c r="K185" s="47"/>
+      <c r="L185" s="27"/>
+      <c r="M185" s="28"/>
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B186" s="23">
+      <c r="B186" s="19">
         <v>121</v>
       </c>
       <c r="C186" s="1">
@@ -7734,21 +7741,21 @@
       <c r="G186" s="8">
         <v>0.88</v>
       </c>
-      <c r="H186" s="31" t="s">
+      <c r="H186" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="I186" s="31"/>
-      <c r="J186" s="18" t="s">
+      <c r="I186" s="22"/>
+      <c r="J186" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="K186" s="20"/>
-      <c r="L186" s="19" t="s">
+      <c r="K186" s="24"/>
+      <c r="L186" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="M186" s="20"/>
+      <c r="M186" s="24"/>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B187" s="27"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="1" t="s">
         <v>294</v>
       </c>
@@ -7776,7 +7783,7 @@
       <c r="M187" s="26"/>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B188" s="24"/>
+      <c r="B188" s="21"/>
       <c r="C188" s="1" t="s">
         <v>296</v>
       </c>
@@ -7784,19 +7791,19 @@
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="28" t="s">
+      <c r="H188" s="48" t="s">
         <v>407</v>
       </c>
-      <c r="I188" s="29"/>
-      <c r="J188" s="28" t="s">
+      <c r="I188" s="49"/>
+      <c r="J188" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="K188" s="29"/>
-      <c r="L188" s="21"/>
-      <c r="M188" s="22"/>
+      <c r="K188" s="49"/>
+      <c r="L188" s="27"/>
+      <c r="M188" s="28"/>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B189" s="23">
+      <c r="B189" s="19">
         <v>122</v>
       </c>
       <c r="C189" s="1">
@@ -7814,21 +7821,21 @@
       <c r="G189" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="H189" s="19" t="s">
+      <c r="H189" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="I189" s="20"/>
-      <c r="J189" s="19" t="s">
+      <c r="I189" s="24"/>
+      <c r="J189" s="23" t="s">
         <v>402</v>
       </c>
-      <c r="K189" s="20"/>
-      <c r="L189" s="19" t="s">
+      <c r="K189" s="24"/>
+      <c r="L189" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="M189" s="20"/>
+      <c r="M189" s="24"/>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B190" s="27"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="1">
         <v>66.599999999999994</v>
       </c>
@@ -7844,19 +7851,19 @@
       <c r="G190" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="H190" s="31" t="s">
+      <c r="H190" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="I190" s="31"/>
-      <c r="J190" s="21" t="s">
+      <c r="I190" s="22"/>
+      <c r="J190" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="K190" s="22"/>
+      <c r="K190" s="28"/>
       <c r="L190" s="25"/>
       <c r="M190" s="26"/>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B191" s="24"/>
+      <c r="B191" s="21"/>
       <c r="C191" s="1" t="s">
         <v>294</v>
       </c>
@@ -7866,19 +7873,19 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="28" t="s">
+      <c r="H191" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="I191" s="29"/>
-      <c r="J191" s="28" t="s">
+      <c r="I191" s="49"/>
+      <c r="J191" s="48" t="s">
         <v>404</v>
       </c>
-      <c r="K191" s="29"/>
-      <c r="L191" s="21"/>
-      <c r="M191" s="22"/>
+      <c r="K191" s="49"/>
+      <c r="L191" s="27"/>
+      <c r="M191" s="28"/>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B192" s="23">
+      <c r="B192" s="19">
         <v>123</v>
       </c>
       <c r="C192" s="1">
@@ -7896,21 +7903,21 @@
       <c r="G192" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H192" s="16" t="s">
+      <c r="H192" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="I192" s="17"/>
-      <c r="J192" s="16" t="s">
+      <c r="I192" s="30"/>
+      <c r="J192" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="K192" s="17"/>
-      <c r="L192" s="19" t="s">
+      <c r="K192" s="30"/>
+      <c r="L192" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="M192" s="20"/>
+      <c r="M192" s="24"/>
     </row>
     <row r="193" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B193" s="24"/>
+      <c r="B193" s="21"/>
       <c r="C193" s="1" t="s">
         <v>296</v>
       </c>
@@ -7918,19 +7925,19 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="16" t="s">
+      <c r="H193" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="I193" s="17"/>
-      <c r="J193" s="16" t="s">
+      <c r="I193" s="30"/>
+      <c r="J193" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="K193" s="17"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="22"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="27"/>
+      <c r="M193" s="28"/>
     </row>
     <row r="194" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B194" s="23">
+      <c r="B194" s="19">
         <v>124</v>
       </c>
       <c r="C194" s="1">
@@ -7948,19 +7955,19 @@
       <c r="G194" s="7">
         <v>10</v>
       </c>
-      <c r="H194" s="16" t="s">
+      <c r="H194" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="I194" s="17"/>
-      <c r="J194" s="16"/>
-      <c r="K194" s="17"/>
-      <c r="L194" s="19" t="s">
+      <c r="I194" s="30"/>
+      <c r="J194" s="29"/>
+      <c r="K194" s="30"/>
+      <c r="L194" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="M194" s="20"/>
+      <c r="M194" s="24"/>
     </row>
     <row r="195" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B195" s="24"/>
+      <c r="B195" s="21"/>
       <c r="C195" s="7" t="s">
         <v>88</v>
       </c>
@@ -7970,17 +7977,17 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="16" t="s">
+      <c r="H195" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="I195" s="17"/>
-      <c r="J195" s="16"/>
-      <c r="K195" s="17"/>
-      <c r="L195" s="21"/>
-      <c r="M195" s="22"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="29"/>
+      <c r="K195" s="30"/>
+      <c r="L195" s="27"/>
+      <c r="M195" s="28"/>
     </row>
     <row r="196" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B196" s="23">
+      <c r="B196" s="19">
         <v>125</v>
       </c>
       <c r="C196" s="1">
@@ -7998,21 +8005,21 @@
       <c r="G196" s="1">
         <v>60</v>
       </c>
-      <c r="H196" s="16" t="s">
+      <c r="H196" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="I196" s="17"/>
-      <c r="J196" s="16" t="s">
+      <c r="I196" s="30"/>
+      <c r="J196" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="K196" s="17"/>
-      <c r="L196" s="19" t="s">
+      <c r="K196" s="30"/>
+      <c r="L196" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="M196" s="20"/>
+      <c r="M196" s="24"/>
     </row>
     <row r="197" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B197" s="24"/>
+      <c r="B197" s="21"/>
       <c r="C197" s="1" t="s">
         <v>294</v>
       </c>
@@ -8022,19 +8029,19 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="16" t="s">
+      <c r="H197" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="I197" s="17"/>
-      <c r="J197" s="16" t="s">
+      <c r="I197" s="30"/>
+      <c r="J197" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="K197" s="17"/>
-      <c r="L197" s="21"/>
-      <c r="M197" s="22"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="27"/>
+      <c r="M197" s="28"/>
     </row>
     <row r="198" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B198" s="23">
+      <c r="B198" s="19">
         <v>126</v>
       </c>
       <c r="C198" s="1">
@@ -8052,21 +8059,21 @@
       <c r="G198" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H198" s="16" t="s">
+      <c r="H198" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="I198" s="17"/>
-      <c r="J198" s="16" t="s">
+      <c r="I198" s="30"/>
+      <c r="J198" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="K198" s="17"/>
-      <c r="L198" s="19" t="s">
+      <c r="K198" s="30"/>
+      <c r="L198" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="M198" s="20"/>
+      <c r="M198" s="24"/>
     </row>
     <row r="199" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B199" s="24"/>
+      <c r="B199" s="21"/>
       <c r="C199" s="1" t="s">
         <v>293</v>
       </c>
@@ -8076,19 +8083,19 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="16" t="s">
+      <c r="H199" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="I199" s="17"/>
-      <c r="J199" s="16" t="s">
+      <c r="I199" s="30"/>
+      <c r="J199" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="K199" s="17"/>
-      <c r="L199" s="21"/>
-      <c r="M199" s="22"/>
+      <c r="K199" s="30"/>
+      <c r="L199" s="27"/>
+      <c r="M199" s="28"/>
     </row>
     <row r="200" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B200" s="23">
+      <c r="B200" s="19">
         <v>127</v>
       </c>
       <c r="C200" s="1">
@@ -8106,21 +8113,21 @@
       <c r="G200" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H200" s="19" t="s">
+      <c r="H200" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="I200" s="20"/>
-      <c r="J200" s="19" t="s">
+      <c r="I200" s="24"/>
+      <c r="J200" s="23" t="s">
         <v>396</v>
       </c>
-      <c r="K200" s="20"/>
-      <c r="L200" s="19" t="s">
+      <c r="K200" s="24"/>
+      <c r="L200" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="M200" s="20"/>
+      <c r="M200" s="24"/>
     </row>
     <row r="201" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B201" s="27"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="1" t="s">
         <v>292</v>
       </c>
@@ -8148,7 +8155,7 @@
       <c r="M201" s="26"/>
     </row>
     <row r="202" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B202" s="24"/>
+      <c r="B202" s="21"/>
       <c r="C202" s="1" t="s">
         <v>308</v>
       </c>
@@ -8162,12 +8169,12 @@
         <v>296</v>
       </c>
       <c r="G202" s="1"/>
-      <c r="H202" s="21"/>
-      <c r="I202" s="22"/>
-      <c r="J202" s="21"/>
-      <c r="K202" s="22"/>
-      <c r="L202" s="21"/>
-      <c r="M202" s="22"/>
+      <c r="H202" s="27"/>
+      <c r="I202" s="28"/>
+      <c r="J202" s="27"/>
+      <c r="K202" s="28"/>
+      <c r="L202" s="27"/>
+      <c r="M202" s="28"/>
     </row>
     <row r="203" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B203" s="1">
@@ -8182,18 +8189,18 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="16" t="s">
+      <c r="H203" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="I203" s="17"/>
-      <c r="J203" s="16" t="s">
+      <c r="I203" s="30"/>
+      <c r="J203" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="K203" s="17"/>
-      <c r="L203" s="16" t="s">
+      <c r="K203" s="30"/>
+      <c r="L203" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="M203" s="17"/>
+      <c r="M203" s="30"/>
     </row>
     <row r="204" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
@@ -8214,18 +8221,18 @@
       <c r="G204" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H204" s="16" t="s">
+      <c r="H204" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="I204" s="17"/>
-      <c r="J204" s="16" t="s">
+      <c r="I204" s="30"/>
+      <c r="J204" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="K204" s="17"/>
-      <c r="L204" s="16" t="s">
+      <c r="K204" s="30"/>
+      <c r="L204" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="M204" s="17"/>
+      <c r="M204" s="30"/>
     </row>
     <row r="205" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
@@ -8244,18 +8251,18 @@
         <v>320</v>
       </c>
       <c r="G205" s="1"/>
-      <c r="H205" s="16" t="s">
+      <c r="H205" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="I205" s="17"/>
-      <c r="J205" s="16" t="s">
+      <c r="I205" s="30"/>
+      <c r="J205" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="K205" s="17"/>
-      <c r="L205" s="16" t="s">
+      <c r="K205" s="30"/>
+      <c r="L205" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="M205" s="17"/>
+      <c r="M205" s="30"/>
     </row>
     <row r="206" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B206" s="1">
@@ -8274,18 +8281,18 @@
         <v>320</v>
       </c>
       <c r="G206" s="1"/>
-      <c r="H206" s="16" t="s">
+      <c r="H206" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="I206" s="17"/>
-      <c r="J206" s="16" t="s">
+      <c r="I206" s="30"/>
+      <c r="J206" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="K206" s="17"/>
-      <c r="L206" s="16" t="s">
+      <c r="K206" s="30"/>
+      <c r="L206" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="M206" s="17"/>
+      <c r="M206" s="30"/>
     </row>
     <row r="207" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B207" s="1">
@@ -8304,18 +8311,18 @@
         <v>320</v>
       </c>
       <c r="G207" s="1"/>
-      <c r="H207" s="16" t="s">
+      <c r="H207" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="I207" s="17"/>
-      <c r="J207" s="16" t="s">
+      <c r="I207" s="30"/>
+      <c r="J207" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="K207" s="17"/>
-      <c r="L207" s="16" t="s">
+      <c r="K207" s="30"/>
+      <c r="L207" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="M207" s="17"/>
+      <c r="M207" s="30"/>
     </row>
     <row r="208" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B208" s="1">
@@ -8334,21 +8341,21 @@
         <v>320</v>
       </c>
       <c r="G208" s="1"/>
-      <c r="H208" s="16" t="s">
+      <c r="H208" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="I208" s="17"/>
-      <c r="J208" s="16" t="s">
+      <c r="I208" s="30"/>
+      <c r="J208" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="K208" s="17"/>
-      <c r="L208" s="16" t="s">
+      <c r="K208" s="30"/>
+      <c r="L208" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="M208" s="17"/>
+      <c r="M208" s="30"/>
     </row>
     <row r="209" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B209" s="23">
+      <c r="B209" s="19">
         <v>134</v>
       </c>
       <c r="C209" s="1">
@@ -8366,39 +8373,39 @@
       <c r="G209" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H209" s="16" t="s">
+      <c r="H209" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="I209" s="17"/>
-      <c r="J209" s="16" t="s">
+      <c r="I209" s="30"/>
+      <c r="J209" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="K209" s="17"/>
-      <c r="L209" s="19" t="s">
+      <c r="K209" s="30"/>
+      <c r="L209" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="M209" s="20"/>
+      <c r="M209" s="24"/>
     </row>
     <row r="210" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B210" s="24"/>
+      <c r="B210" s="21"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
       <c r="G210" s="1"/>
-      <c r="H210" s="16" t="s">
+      <c r="H210" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="I210" s="17"/>
-      <c r="J210" s="16" t="s">
+      <c r="I210" s="30"/>
+      <c r="J210" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="K210" s="17"/>
-      <c r="L210" s="21"/>
-      <c r="M210" s="22"/>
+      <c r="K210" s="30"/>
+      <c r="L210" s="27"/>
+      <c r="M210" s="28"/>
     </row>
     <row r="211" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B211" s="23">
+      <c r="B211" s="19">
         <v>135</v>
       </c>
       <c r="C211" s="1">
@@ -8416,39 +8423,39 @@
       <c r="G211" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H211" s="16" t="s">
+      <c r="H211" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="I211" s="17"/>
-      <c r="J211" s="16" t="s">
+      <c r="I211" s="30"/>
+      <c r="J211" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="K211" s="17"/>
-      <c r="L211" s="19" t="s">
+      <c r="K211" s="30"/>
+      <c r="L211" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="M211" s="20"/>
+      <c r="M211" s="24"/>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B212" s="24"/>
+      <c r="B212" s="21"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
       <c r="G212" s="1"/>
-      <c r="H212" s="16" t="s">
+      <c r="H212" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="I212" s="17"/>
-      <c r="J212" s="16" t="s">
+      <c r="I212" s="30"/>
+      <c r="J212" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="K212" s="17"/>
-      <c r="L212" s="21"/>
-      <c r="M212" s="22"/>
+      <c r="K212" s="30"/>
+      <c r="L212" s="27"/>
+      <c r="M212" s="28"/>
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B213" s="23">
+      <c r="B213" s="19">
         <v>136</v>
       </c>
       <c r="C213" s="1">
@@ -8466,39 +8473,39 @@
       <c r="G213" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H213" s="16" t="s">
+      <c r="H213" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="I213" s="17"/>
-      <c r="J213" s="16" t="s">
+      <c r="I213" s="30"/>
+      <c r="J213" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="K213" s="17"/>
-      <c r="L213" s="19" t="s">
+      <c r="K213" s="30"/>
+      <c r="L213" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="M213" s="20"/>
+      <c r="M213" s="24"/>
     </row>
     <row r="214" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B214" s="24"/>
+      <c r="B214" s="21"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
       <c r="G214" s="1"/>
-      <c r="H214" s="16" t="s">
+      <c r="H214" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="I214" s="17"/>
-      <c r="J214" s="16" t="s">
+      <c r="I214" s="30"/>
+      <c r="J214" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="K214" s="17"/>
-      <c r="L214" s="21"/>
-      <c r="M214" s="22"/>
+      <c r="K214" s="30"/>
+      <c r="L214" s="27"/>
+      <c r="M214" s="28"/>
     </row>
     <row r="215" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B215" s="23">
+      <c r="B215" s="19">
         <v>137</v>
       </c>
       <c r="C215" s="1">
@@ -8516,39 +8523,39 @@
       <c r="G215" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="H215" s="16" t="s">
+      <c r="H215" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="I215" s="17"/>
-      <c r="J215" s="16" t="s">
+      <c r="I215" s="30"/>
+      <c r="J215" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="K215" s="17"/>
-      <c r="L215" s="19" t="s">
+      <c r="K215" s="30"/>
+      <c r="L215" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="M215" s="20"/>
+      <c r="M215" s="24"/>
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B216" s="24"/>
+      <c r="B216" s="21"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
       <c r="G216" s="1"/>
-      <c r="H216" s="16" t="s">
+      <c r="H216" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="I216" s="17"/>
-      <c r="J216" s="16" t="s">
+      <c r="I216" s="30"/>
+      <c r="J216" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="K216" s="17"/>
-      <c r="L216" s="21"/>
-      <c r="M216" s="22"/>
+      <c r="K216" s="30"/>
+      <c r="L216" s="27"/>
+      <c r="M216" s="28"/>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B217" s="23">
+      <c r="B217" s="19">
         <v>138</v>
       </c>
       <c r="C217" s="1">
@@ -8566,21 +8573,21 @@
       <c r="G217" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H217" s="16" t="s">
+      <c r="H217" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="I217" s="17"/>
-      <c r="J217" s="16" t="s">
+      <c r="I217" s="30"/>
+      <c r="J217" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="K217" s="17"/>
-      <c r="L217" s="19" t="s">
+      <c r="K217" s="30"/>
+      <c r="L217" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="M217" s="20"/>
+      <c r="M217" s="24"/>
     </row>
     <row r="218" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B218" s="24"/>
+      <c r="B218" s="21"/>
       <c r="C218" s="1" t="s">
         <v>320</v>
       </c>
@@ -8588,19 +8595,19 @@
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
       <c r="G218" s="1"/>
-      <c r="H218" s="16" t="s">
+      <c r="H218" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="I218" s="17"/>
-      <c r="J218" s="16" t="s">
+      <c r="I218" s="30"/>
+      <c r="J218" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="K218" s="17"/>
-      <c r="L218" s="21"/>
-      <c r="M218" s="22"/>
+      <c r="K218" s="30"/>
+      <c r="L218" s="27"/>
+      <c r="M218" s="28"/>
     </row>
     <row r="219" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B219" s="23">
+      <c r="B219" s="19">
         <v>139</v>
       </c>
       <c r="C219" s="1">
@@ -8618,21 +8625,21 @@
       <c r="G219" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H219" s="16" t="s">
+      <c r="H219" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="I219" s="17"/>
-      <c r="J219" s="16" t="s">
+      <c r="I219" s="30"/>
+      <c r="J219" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="K219" s="17"/>
-      <c r="L219" s="19" t="s">
+      <c r="K219" s="30"/>
+      <c r="L219" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="M219" s="20"/>
+      <c r="M219" s="24"/>
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B220" s="24"/>
+      <c r="B220" s="21"/>
       <c r="C220" s="1" t="s">
         <v>320</v>
       </c>
@@ -8642,19 +8649,19 @@
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
       <c r="G220" s="1"/>
-      <c r="H220" s="16" t="s">
+      <c r="H220" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="I220" s="17"/>
-      <c r="J220" s="16" t="s">
+      <c r="I220" s="30"/>
+      <c r="J220" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="K220" s="17"/>
-      <c r="L220" s="21"/>
-      <c r="M220" s="22"/>
+      <c r="K220" s="30"/>
+      <c r="L220" s="27"/>
+      <c r="M220" s="28"/>
     </row>
     <row r="221" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B221" s="23">
+      <c r="B221" s="19">
         <v>140</v>
       </c>
       <c r="C221" s="1">
@@ -8672,21 +8679,21 @@
       <c r="G221" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H221" s="16" t="s">
+      <c r="H221" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="I221" s="17"/>
-      <c r="J221" s="16" t="s">
+      <c r="I221" s="30"/>
+      <c r="J221" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="K221" s="17"/>
-      <c r="L221" s="19" t="s">
+      <c r="K221" s="30"/>
+      <c r="L221" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="M221" s="20"/>
+      <c r="M221" s="24"/>
     </row>
     <row r="222" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B222" s="24"/>
+      <c r="B222" s="21"/>
       <c r="C222" s="1" t="s">
         <v>320</v>
       </c>
@@ -8700,19 +8707,19 @@
         <v>320</v>
       </c>
       <c r="G222" s="1"/>
-      <c r="H222" s="16" t="s">
+      <c r="H222" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="I222" s="17"/>
-      <c r="J222" s="16" t="s">
+      <c r="I222" s="30"/>
+      <c r="J222" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="K222" s="17"/>
-      <c r="L222" s="21"/>
-      <c r="M222" s="22"/>
+      <c r="K222" s="30"/>
+      <c r="L222" s="27"/>
+      <c r="M222" s="28"/>
     </row>
     <row r="223" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B223" s="23">
+      <c r="B223" s="19">
         <v>141</v>
       </c>
       <c r="C223" s="1">
@@ -8730,21 +8737,21 @@
       <c r="G223" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H223" s="16" t="s">
+      <c r="H223" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="I223" s="17"/>
-      <c r="J223" s="16" t="s">
+      <c r="I223" s="30"/>
+      <c r="J223" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="K223" s="17"/>
-      <c r="L223" s="19" t="s">
+      <c r="K223" s="30"/>
+      <c r="L223" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="M223" s="20"/>
+      <c r="M223" s="24"/>
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B224" s="24"/>
+      <c r="B224" s="21"/>
       <c r="C224" s="1" t="s">
         <v>320</v>
       </c>
@@ -8760,19 +8767,19 @@
       <c r="G224" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H224" s="16" t="s">
+      <c r="H224" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="I224" s="17"/>
-      <c r="J224" s="16" t="s">
+      <c r="I224" s="30"/>
+      <c r="J224" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="K224" s="17"/>
-      <c r="L224" s="21"/>
-      <c r="M224" s="22"/>
+      <c r="K224" s="30"/>
+      <c r="L224" s="27"/>
+      <c r="M224" s="28"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B225" s="23">
+      <c r="B225" s="19">
         <v>142</v>
       </c>
       <c r="C225" s="1">
@@ -8790,21 +8797,21 @@
       <c r="G225" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="H225" s="16" t="s">
+      <c r="H225" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="I225" s="17"/>
-      <c r="J225" s="16" t="s">
+      <c r="I225" s="30"/>
+      <c r="J225" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="K225" s="17"/>
-      <c r="L225" s="19" t="s">
+      <c r="K225" s="30"/>
+      <c r="L225" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="M225" s="20"/>
+      <c r="M225" s="24"/>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B226" s="27"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="1" t="s">
         <v>320</v>
       </c>
@@ -8820,19 +8827,19 @@
       <c r="G226" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="H226" s="16" t="s">
+      <c r="H226" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="I226" s="17"/>
-      <c r="J226" s="16" t="s">
+      <c r="I226" s="30"/>
+      <c r="J226" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="K226" s="17"/>
+      <c r="K226" s="30"/>
       <c r="L226" s="25"/>
       <c r="M226" s="26"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B227" s="24"/>
+      <c r="B227" s="21"/>
       <c r="C227" s="1" t="s">
         <v>296</v>
       </c>
@@ -8840,16 +8847,16 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1"/>
-      <c r="H227" s="16" t="s">
+      <c r="H227" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="I227" s="17"/>
-      <c r="J227" s="16" t="s">
+      <c r="I227" s="30"/>
+      <c r="J227" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="K227" s="17"/>
-      <c r="L227" s="21"/>
-      <c r="M227" s="22"/>
+      <c r="K227" s="30"/>
+      <c r="L227" s="27"/>
+      <c r="M227" s="28"/>
     </row>
     <row r="228" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B228" s="1">
@@ -8866,18 +8873,18 @@
       </c>
       <c r="F228" s="1"/>
       <c r="G228" s="1"/>
-      <c r="H228" s="16" t="s">
+      <c r="H228" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="I228" s="17"/>
-      <c r="J228" s="16" t="s">
+      <c r="I228" s="30"/>
+      <c r="J228" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="K228" s="17"/>
-      <c r="L228" s="16" t="s">
+      <c r="K228" s="30"/>
+      <c r="L228" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="M228" s="17"/>
+      <c r="M228" s="30"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B229" s="1">
@@ -8894,18 +8901,18 @@
       </c>
       <c r="F229" s="1"/>
       <c r="G229" s="1"/>
-      <c r="H229" s="16" t="s">
+      <c r="H229" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="I229" s="17"/>
-      <c r="J229" s="16" t="s">
+      <c r="I229" s="30"/>
+      <c r="J229" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="K229" s="17"/>
-      <c r="L229" s="16" t="s">
+      <c r="K229" s="30"/>
+      <c r="L229" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="M229" s="17"/>
+      <c r="M229" s="30"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B230" s="1">
@@ -8922,18 +8929,18 @@
       </c>
       <c r="F230" s="1"/>
       <c r="G230" s="1"/>
-      <c r="H230" s="16" t="s">
+      <c r="H230" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="I230" s="17"/>
-      <c r="J230" s="16" t="s">
+      <c r="I230" s="30"/>
+      <c r="J230" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="K230" s="17"/>
-      <c r="L230" s="16" t="s">
+      <c r="K230" s="30"/>
+      <c r="L230" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="M230" s="17"/>
+      <c r="M230" s="30"/>
     </row>
     <row r="231" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B231" s="1">
@@ -8950,18 +8957,18 @@
       </c>
       <c r="F231" s="1"/>
       <c r="G231" s="1"/>
-      <c r="H231" s="16" t="s">
+      <c r="H231" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="I231" s="17"/>
-      <c r="J231" s="16" t="s">
+      <c r="I231" s="30"/>
+      <c r="J231" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="K231" s="17"/>
-      <c r="L231" s="16" t="s">
+      <c r="K231" s="30"/>
+      <c r="L231" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="M231" s="17"/>
+      <c r="M231" s="30"/>
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B232" s="1">
@@ -8978,18 +8985,18 @@
       </c>
       <c r="F232" s="1"/>
       <c r="G232" s="1"/>
-      <c r="H232" s="16" t="s">
+      <c r="H232" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="I232" s="17"/>
-      <c r="J232" s="16" t="s">
+      <c r="I232" s="30"/>
+      <c r="J232" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="K232" s="17"/>
-      <c r="L232" s="16" t="s">
+      <c r="K232" s="30"/>
+      <c r="L232" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="M232" s="17"/>
+      <c r="M232" s="30"/>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B233" s="1">
@@ -9008,21 +9015,21 @@
         <v>296</v>
       </c>
       <c r="G233" s="1"/>
-      <c r="H233" s="16" t="s">
+      <c r="H233" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="I233" s="17"/>
-      <c r="J233" s="16" t="s">
+      <c r="I233" s="30"/>
+      <c r="J233" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="K233" s="17"/>
-      <c r="L233" s="16" t="s">
+      <c r="K233" s="30"/>
+      <c r="L233" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="M233" s="17"/>
+      <c r="M233" s="30"/>
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B234" s="23">
+      <c r="B234" s="19">
         <v>149</v>
       </c>
       <c r="C234" s="1">
@@ -9040,21 +9047,21 @@
       <c r="G234" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H234" s="16" t="s">
+      <c r="H234" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I234" s="17"/>
-      <c r="J234" s="16" t="s">
+      <c r="I234" s="30"/>
+      <c r="J234" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="K234" s="17"/>
-      <c r="L234" s="19" t="s">
+      <c r="K234" s="30"/>
+      <c r="L234" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="M234" s="20"/>
+      <c r="M234" s="24"/>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B235" s="24"/>
+      <c r="B235" s="21"/>
       <c r="C235" s="1" t="s">
         <v>296</v>
       </c>
@@ -9062,19 +9069,19 @@
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
       <c r="G235" s="1"/>
-      <c r="H235" s="16" t="s">
+      <c r="H235" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="I235" s="17"/>
-      <c r="J235" s="16" t="s">
+      <c r="I235" s="30"/>
+      <c r="J235" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="K235" s="17"/>
-      <c r="L235" s="21"/>
-      <c r="M235" s="22"/>
+      <c r="K235" s="30"/>
+      <c r="L235" s="27"/>
+      <c r="M235" s="28"/>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B236" s="23">
+      <c r="B236" s="19">
         <v>150</v>
       </c>
       <c r="C236" s="1">
@@ -9092,21 +9099,21 @@
       <c r="G236" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H236" s="16" t="s">
+      <c r="H236" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="I236" s="17"/>
-      <c r="J236" s="16" t="s">
+      <c r="I236" s="30"/>
+      <c r="J236" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="K236" s="17"/>
-      <c r="L236" s="19" t="s">
+      <c r="K236" s="30"/>
+      <c r="L236" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="M236" s="20"/>
+      <c r="M236" s="24"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B237" s="24"/>
+      <c r="B237" s="21"/>
       <c r="C237" s="1" t="s">
         <v>296</v>
       </c>
@@ -9114,19 +9121,19 @@
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
       <c r="G237" s="1"/>
-      <c r="H237" s="16" t="s">
+      <c r="H237" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="I237" s="17"/>
-      <c r="J237" s="16" t="s">
+      <c r="I237" s="30"/>
+      <c r="J237" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="K237" s="17"/>
-      <c r="L237" s="21"/>
-      <c r="M237" s="22"/>
+      <c r="K237" s="30"/>
+      <c r="L237" s="27"/>
+      <c r="M237" s="28"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B238" s="23">
+      <c r="B238" s="19">
         <v>151</v>
       </c>
       <c r="C238" s="1">
@@ -9144,21 +9151,21 @@
       <c r="G238" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H238" s="16" t="s">
+      <c r="H238" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="I238" s="17"/>
-      <c r="J238" s="16" t="s">
+      <c r="I238" s="30"/>
+      <c r="J238" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="K238" s="17"/>
-      <c r="L238" s="19" t="s">
+      <c r="K238" s="30"/>
+      <c r="L238" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="M238" s="20"/>
+      <c r="M238" s="24"/>
     </row>
     <row r="239" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B239" s="24"/>
+      <c r="B239" s="21"/>
       <c r="C239" s="1" t="s">
         <v>296</v>
       </c>
@@ -9166,19 +9173,19 @@
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
       <c r="G239" s="1"/>
-      <c r="H239" s="16" t="s">
+      <c r="H239" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="I239" s="17"/>
-      <c r="J239" s="16" t="s">
+      <c r="I239" s="30"/>
+      <c r="J239" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="K239" s="17"/>
-      <c r="L239" s="21"/>
-      <c r="M239" s="22"/>
+      <c r="K239" s="30"/>
+      <c r="L239" s="27"/>
+      <c r="M239" s="28"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B240" s="23">
+      <c r="B240" s="19">
         <v>152</v>
       </c>
       <c r="C240" s="1">
@@ -9196,21 +9203,21 @@
       <c r="G240" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="H240" s="16" t="s">
+      <c r="H240" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="I240" s="17"/>
-      <c r="J240" s="16" t="s">
+      <c r="I240" s="30"/>
+      <c r="J240" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="K240" s="17"/>
-      <c r="L240" s="19" t="s">
+      <c r="K240" s="30"/>
+      <c r="L240" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="M240" s="20"/>
+      <c r="M240" s="24"/>
     </row>
     <row r="241" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B241" s="24"/>
+      <c r="B241" s="21"/>
       <c r="C241" s="1" t="s">
         <v>296</v>
       </c>
@@ -9218,16 +9225,16 @@
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
       <c r="G241" s="1"/>
-      <c r="H241" s="16" t="s">
+      <c r="H241" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="I241" s="17"/>
-      <c r="J241" s="16" t="s">
+      <c r="I241" s="30"/>
+      <c r="J241" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="K241" s="17"/>
-      <c r="L241" s="21"/>
-      <c r="M241" s="22"/>
+      <c r="K241" s="30"/>
+      <c r="L241" s="27"/>
+      <c r="M241" s="28"/>
     </row>
     <row r="242" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B242" s="1">
@@ -9246,16 +9253,16 @@
         <v>296</v>
       </c>
       <c r="G242" s="1"/>
-      <c r="H242" s="16" t="s">
+      <c r="H242" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="I242" s="17"/>
-      <c r="J242" s="16"/>
-      <c r="K242" s="17"/>
-      <c r="L242" s="16" t="s">
+      <c r="I242" s="30"/>
+      <c r="J242" s="29"/>
+      <c r="K242" s="30"/>
+      <c r="L242" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="M242" s="17"/>
+      <c r="M242" s="30"/>
     </row>
     <row r="243" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B243" s="1">
@@ -9274,18 +9281,18 @@
         <v>296</v>
       </c>
       <c r="G243" s="1"/>
-      <c r="H243" s="16" t="s">
+      <c r="H243" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="I243" s="17"/>
-      <c r="J243" s="16" t="s">
+      <c r="I243" s="30"/>
+      <c r="J243" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="K243" s="17"/>
-      <c r="L243" s="16" t="s">
+      <c r="K243" s="30"/>
+      <c r="L243" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="M243" s="17"/>
+      <c r="M243" s="30"/>
     </row>
     <row r="244" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B244" s="1">
@@ -9304,18 +9311,18 @@
         <v>296</v>
       </c>
       <c r="G244" s="1"/>
-      <c r="H244" s="16" t="s">
+      <c r="H244" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="I244" s="17"/>
-      <c r="J244" s="16" t="s">
+      <c r="I244" s="30"/>
+      <c r="J244" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="K244" s="17"/>
-      <c r="L244" s="16" t="s">
+      <c r="K244" s="30"/>
+      <c r="L244" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="M244" s="17"/>
+      <c r="M244" s="30"/>
     </row>
     <row r="245" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B245" s="1">
@@ -9330,437 +9337,612 @@
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
       <c r="G245" s="1"/>
-      <c r="H245" s="16" t="s">
+      <c r="H245" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="I245" s="17"/>
-      <c r="J245" s="16" t="s">
+      <c r="I245" s="30"/>
+      <c r="J245" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="K245" s="17"/>
-      <c r="L245" s="16" t="s">
+      <c r="K245" s="30"/>
+      <c r="L245" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="M245" s="17"/>
+      <c r="M245" s="30"/>
     </row>
     <row r="246" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L246" s="18" t="s">
+      <c r="B246" s="9">
+        <v>157</v>
+      </c>
+      <c r="C246" s="9">
+        <v>56</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F246" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="H246" s="17"/>
+      <c r="I246" s="17"/>
+      <c r="L246" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="M246" s="18"/>
+      <c r="M246" s="17"/>
     </row>
     <row r="247" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L247" s="18" t="s">
+      <c r="H247" s="18"/>
+      <c r="I247" s="18"/>
+      <c r="L247" s="17" t="s">
         <v>470</v>
       </c>
-      <c r="M247" s="18"/>
+      <c r="M247" s="17"/>
     </row>
     <row r="248" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L248" s="48" t="s">
+      <c r="L248" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="M248" s="48"/>
+      <c r="M248" s="18"/>
     </row>
     <row r="249" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L249" s="48" t="s">
+      <c r="L249" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="M249" s="48"/>
+      <c r="M249" s="18"/>
     </row>
     <row r="250" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L250" s="48" t="s">
+      <c r="L250" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="M250" s="48"/>
+      <c r="M250" s="18"/>
     </row>
     <row r="251" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L251" s="48"/>
-      <c r="M251" s="48"/>
+      <c r="L251" s="18"/>
+      <c r="M251" s="18"/>
     </row>
     <row r="252" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L252" s="48"/>
-      <c r="M252" s="48"/>
+      <c r="L252" s="18"/>
+      <c r="M252" s="18"/>
     </row>
     <row r="253" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="L253" s="48"/>
-      <c r="M253" s="48"/>
+      <c r="L253" s="18"/>
+      <c r="M253" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="953">
-    <mergeCell ref="L247:M247"/>
-    <mergeCell ref="L248:M248"/>
-    <mergeCell ref="L249:M249"/>
-    <mergeCell ref="L250:M250"/>
-    <mergeCell ref="L251:M251"/>
-    <mergeCell ref="L252:M252"/>
-    <mergeCell ref="L253:M253"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="L174:M176"/>
-    <mergeCell ref="N174:O174"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="N175:O175"/>
-    <mergeCell ref="H176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="N176:O176"/>
-    <mergeCell ref="H174:I174"/>
-    <mergeCell ref="H175:I175"/>
-    <mergeCell ref="B171:B173"/>
-    <mergeCell ref="J171:K171"/>
-    <mergeCell ref="L171:M173"/>
-    <mergeCell ref="N171:O171"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="N172:O172"/>
-    <mergeCell ref="H173:I173"/>
-    <mergeCell ref="J173:K173"/>
-    <mergeCell ref="N173:O173"/>
-    <mergeCell ref="H171:I171"/>
-    <mergeCell ref="H172:I172"/>
-    <mergeCell ref="H163:I163"/>
-    <mergeCell ref="J163:K163"/>
-    <mergeCell ref="N167:O167"/>
-    <mergeCell ref="B168:B170"/>
-    <mergeCell ref="J168:K168"/>
-    <mergeCell ref="L168:M170"/>
-    <mergeCell ref="N168:O168"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="N169:O169"/>
-    <mergeCell ref="H170:I170"/>
-    <mergeCell ref="J170:K170"/>
-    <mergeCell ref="N170:O170"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="H167:I167"/>
-    <mergeCell ref="J165:K165"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="L165:M167"/>
-    <mergeCell ref="H168:I168"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="H165:I165"/>
-    <mergeCell ref="H166:I166"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="H159:I159"/>
-    <mergeCell ref="J159:K159"/>
-    <mergeCell ref="L159:M160"/>
-    <mergeCell ref="N159:O160"/>
-    <mergeCell ref="H160:I160"/>
-    <mergeCell ref="J160:K160"/>
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="H161:I161"/>
-    <mergeCell ref="J161:K161"/>
-    <mergeCell ref="L161:M162"/>
-    <mergeCell ref="N161:O162"/>
-    <mergeCell ref="H162:I162"/>
-    <mergeCell ref="J162:K162"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="L155:M156"/>
-    <mergeCell ref="N155:O156"/>
-    <mergeCell ref="H156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="L157:M158"/>
-    <mergeCell ref="N157:O158"/>
-    <mergeCell ref="H158:I158"/>
-    <mergeCell ref="J158:K158"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="L151:M152"/>
-    <mergeCell ref="N151:O152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B153:B154"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="L153:M154"/>
-    <mergeCell ref="N153:O154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="H147:I147"/>
-    <mergeCell ref="J147:K147"/>
-    <mergeCell ref="L147:M148"/>
-    <mergeCell ref="N147:O148"/>
-    <mergeCell ref="H148:I148"/>
-    <mergeCell ref="J148:K148"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="L149:M150"/>
-    <mergeCell ref="N149:O150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="H143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="L143:M144"/>
-    <mergeCell ref="N143:O144"/>
-    <mergeCell ref="H144:I144"/>
-    <mergeCell ref="J144:K144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="L145:M146"/>
-    <mergeCell ref="N145:O146"/>
-    <mergeCell ref="H146:I146"/>
-    <mergeCell ref="J146:K146"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="H139:I139"/>
-    <mergeCell ref="J139:K139"/>
-    <mergeCell ref="L139:M140"/>
-    <mergeCell ref="N139:O140"/>
-    <mergeCell ref="H140:I140"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="H141:I141"/>
-    <mergeCell ref="J141:K141"/>
-    <mergeCell ref="L141:M142"/>
-    <mergeCell ref="N141:O142"/>
-    <mergeCell ref="H142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="H135:I135"/>
-    <mergeCell ref="J135:K135"/>
-    <mergeCell ref="L135:M136"/>
-    <mergeCell ref="N135:O136"/>
-    <mergeCell ref="H136:I136"/>
-    <mergeCell ref="J136:K136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="H137:I137"/>
-    <mergeCell ref="J137:K137"/>
-    <mergeCell ref="L137:M138"/>
-    <mergeCell ref="N137:O138"/>
-    <mergeCell ref="H138:I138"/>
-    <mergeCell ref="J138:K138"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="H131:I131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="L131:M132"/>
-    <mergeCell ref="N131:O132"/>
-    <mergeCell ref="H132:I132"/>
-    <mergeCell ref="J132:K132"/>
-    <mergeCell ref="B133:B134"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="L133:M134"/>
-    <mergeCell ref="N133:O134"/>
-    <mergeCell ref="H134:I134"/>
-    <mergeCell ref="J134:K134"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="H127:I127"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="L127:M128"/>
-    <mergeCell ref="N127:O128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="J128:K128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="H129:I129"/>
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="L129:M130"/>
-    <mergeCell ref="N129:O130"/>
-    <mergeCell ref="H130:I130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="H123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="L123:M124"/>
-    <mergeCell ref="N123:O124"/>
-    <mergeCell ref="H124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="H125:I125"/>
-    <mergeCell ref="J125:K125"/>
-    <mergeCell ref="L125:M126"/>
-    <mergeCell ref="N125:O126"/>
-    <mergeCell ref="H126:I126"/>
-    <mergeCell ref="J126:K126"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="L119:M120"/>
-    <mergeCell ref="N119:O120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="H121:I121"/>
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="L121:M122"/>
-    <mergeCell ref="N121:O122"/>
-    <mergeCell ref="H122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="H115:I115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:M116"/>
-    <mergeCell ref="N115:O116"/>
-    <mergeCell ref="H116:I116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="L117:M118"/>
-    <mergeCell ref="N117:O118"/>
-    <mergeCell ref="H118:I118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="H111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:M112"/>
-    <mergeCell ref="N111:O112"/>
-    <mergeCell ref="H112:I112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:M114"/>
-    <mergeCell ref="N113:O114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="L107:M108"/>
-    <mergeCell ref="N107:O108"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:M110"/>
-    <mergeCell ref="N109:O110"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="L103:M104"/>
-    <mergeCell ref="N103:O104"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="J104:K104"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:M106"/>
-    <mergeCell ref="N105:O106"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J106:K106"/>
-    <mergeCell ref="N99:O100"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="J101:K101"/>
-    <mergeCell ref="L101:M102"/>
-    <mergeCell ref="N101:O102"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="J102:K102"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L97:M98"/>
-    <mergeCell ref="N97:O98"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="L56:M57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="L60:M61"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="L58:M59"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="F50:G51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N42:O43"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="N48:O49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="L44:M44"/>
+  <mergeCells count="955">
+    <mergeCell ref="H247:I247"/>
+    <mergeCell ref="L242:M242"/>
+    <mergeCell ref="H242:I242"/>
+    <mergeCell ref="L243:M243"/>
+    <mergeCell ref="H243:I243"/>
+    <mergeCell ref="L244:M244"/>
+    <mergeCell ref="H244:I244"/>
+    <mergeCell ref="L245:M245"/>
+    <mergeCell ref="H245:I245"/>
+    <mergeCell ref="L246:M246"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="J243:K243"/>
+    <mergeCell ref="J244:K244"/>
+    <mergeCell ref="J245:K245"/>
+    <mergeCell ref="H246:I246"/>
+    <mergeCell ref="L236:M237"/>
+    <mergeCell ref="L238:M239"/>
+    <mergeCell ref="L240:M241"/>
+    <mergeCell ref="B236:B237"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="H236:I236"/>
+    <mergeCell ref="H237:I237"/>
+    <mergeCell ref="H238:I238"/>
+    <mergeCell ref="H239:I239"/>
+    <mergeCell ref="H240:I240"/>
+    <mergeCell ref="H241:I241"/>
+    <mergeCell ref="B240:B241"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="L233:M233"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="H229:I229"/>
+    <mergeCell ref="H230:I230"/>
+    <mergeCell ref="H231:I231"/>
+    <mergeCell ref="H232:I232"/>
+    <mergeCell ref="H233:I233"/>
+    <mergeCell ref="H234:I234"/>
+    <mergeCell ref="H235:I235"/>
+    <mergeCell ref="L234:M235"/>
+    <mergeCell ref="J229:K229"/>
+    <mergeCell ref="J230:K230"/>
+    <mergeCell ref="J231:K231"/>
+    <mergeCell ref="J232:K232"/>
+    <mergeCell ref="J233:K233"/>
+    <mergeCell ref="J234:K234"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="H227:I227"/>
+    <mergeCell ref="L225:M227"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="L228:M228"/>
+    <mergeCell ref="H228:I228"/>
+    <mergeCell ref="L229:M229"/>
+    <mergeCell ref="L230:M230"/>
+    <mergeCell ref="L231:M231"/>
+    <mergeCell ref="L232:M232"/>
+    <mergeCell ref="J225:K225"/>
+    <mergeCell ref="J226:K226"/>
+    <mergeCell ref="J227:K227"/>
+    <mergeCell ref="J228:K228"/>
+    <mergeCell ref="H225:I225"/>
+    <mergeCell ref="H226:I226"/>
+    <mergeCell ref="B217:B218"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="L221:M222"/>
+    <mergeCell ref="H221:I221"/>
+    <mergeCell ref="H222:I222"/>
+    <mergeCell ref="B221:B222"/>
+    <mergeCell ref="L223:M224"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="H223:I223"/>
+    <mergeCell ref="J217:K217"/>
+    <mergeCell ref="J218:K218"/>
+    <mergeCell ref="J219:K219"/>
+    <mergeCell ref="J220:K220"/>
+    <mergeCell ref="J221:K221"/>
+    <mergeCell ref="J222:K222"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="J224:K224"/>
+    <mergeCell ref="H224:I224"/>
+    <mergeCell ref="H217:I217"/>
+    <mergeCell ref="L219:M220"/>
+    <mergeCell ref="L217:M218"/>
+    <mergeCell ref="H218:I218"/>
+    <mergeCell ref="H219:I219"/>
+    <mergeCell ref="H220:I220"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="H214:I214"/>
+    <mergeCell ref="L213:M214"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="L209:M210"/>
+    <mergeCell ref="L211:M212"/>
+    <mergeCell ref="H210:I210"/>
+    <mergeCell ref="H212:I212"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J210:K210"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="J212:K212"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J214:K214"/>
+    <mergeCell ref="J215:K215"/>
+    <mergeCell ref="J216:K216"/>
+    <mergeCell ref="H209:I209"/>
+    <mergeCell ref="H211:I211"/>
+    <mergeCell ref="H213:I213"/>
+    <mergeCell ref="H215:I215"/>
+    <mergeCell ref="H216:I216"/>
+    <mergeCell ref="L215:M216"/>
+    <mergeCell ref="J203:K203"/>
+    <mergeCell ref="J204:K204"/>
+    <mergeCell ref="L204:M204"/>
+    <mergeCell ref="H204:I204"/>
+    <mergeCell ref="L205:M205"/>
+    <mergeCell ref="H205:I205"/>
+    <mergeCell ref="L206:M206"/>
+    <mergeCell ref="L207:M207"/>
+    <mergeCell ref="L208:M208"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J206:K206"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="H206:I206"/>
+    <mergeCell ref="H207:I207"/>
+    <mergeCell ref="H208:I208"/>
+    <mergeCell ref="L203:M203"/>
+    <mergeCell ref="H203:I203"/>
+    <mergeCell ref="J199:K199"/>
+    <mergeCell ref="J200:K200"/>
+    <mergeCell ref="L196:M197"/>
+    <mergeCell ref="L198:M199"/>
+    <mergeCell ref="L200:M202"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="H200:I200"/>
+    <mergeCell ref="H201:I202"/>
+    <mergeCell ref="J201:K202"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="H191:I191"/>
+    <mergeCell ref="L189:M191"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="J190:K190"/>
+    <mergeCell ref="J191:K191"/>
+    <mergeCell ref="H192:I192"/>
+    <mergeCell ref="H198:I198"/>
+    <mergeCell ref="H199:I199"/>
+    <mergeCell ref="B198:B199"/>
+    <mergeCell ref="H193:I193"/>
+    <mergeCell ref="J192:K192"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="L192:M193"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="J194:K194"/>
+    <mergeCell ref="H194:I194"/>
+    <mergeCell ref="H195:I195"/>
+    <mergeCell ref="J195:K195"/>
+    <mergeCell ref="L194:M195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="J196:K196"/>
+    <mergeCell ref="J197:K197"/>
+    <mergeCell ref="J198:K198"/>
+    <mergeCell ref="J180:K181"/>
+    <mergeCell ref="H177:I177"/>
+    <mergeCell ref="H178:I178"/>
+    <mergeCell ref="L180:M182"/>
+    <mergeCell ref="L183:M185"/>
+    <mergeCell ref="L186:M188"/>
+    <mergeCell ref="H180:I181"/>
+    <mergeCell ref="H182:I182"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="H185:I185"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="H188:I188"/>
+    <mergeCell ref="J182:K182"/>
+    <mergeCell ref="J183:K183"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="J186:K186"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="L164:M164"/>
+    <mergeCell ref="L163:M163"/>
+    <mergeCell ref="N163:O163"/>
+    <mergeCell ref="N164:O164"/>
+    <mergeCell ref="N165:O165"/>
+    <mergeCell ref="N166:O166"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:G92"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K92"/>
+    <mergeCell ref="L91:M92"/>
+    <mergeCell ref="N91:O92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="L99:M100"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K88"/>
+    <mergeCell ref="L87:M88"/>
+    <mergeCell ref="N87:O88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K90"/>
+    <mergeCell ref="L89:M90"/>
+    <mergeCell ref="N89:O90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E89:G90"/>
+    <mergeCell ref="E87:G88"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:D86"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K86"/>
+    <mergeCell ref="L85:M86"/>
+    <mergeCell ref="N85:O86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="E85:G86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:E84"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K84"/>
+    <mergeCell ref="L83:M84"/>
+    <mergeCell ref="N83:O84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K82"/>
+    <mergeCell ref="L81:M82"/>
+    <mergeCell ref="N81:O82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K80"/>
+    <mergeCell ref="L79:M80"/>
+    <mergeCell ref="N79:O80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:E78"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="C73:E74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="F73:G74"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J73:K74"/>
+    <mergeCell ref="L73:M74"/>
+    <mergeCell ref="N73:O74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:E76"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K76"/>
+    <mergeCell ref="L75:M76"/>
+    <mergeCell ref="N75:O76"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="C69:E70"/>
+    <mergeCell ref="J69:K70"/>
+    <mergeCell ref="L69:M70"/>
+    <mergeCell ref="N69:O70"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="C71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="L71:M72"/>
+    <mergeCell ref="N71:O72"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="F42:G43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L42:M43"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="D47:E47"/>
@@ -9785,216 +9967,109 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="H46:I46"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="N44:O44"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="F42:G43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L42:M43"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="L19:M20"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N42:O43"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="N48:O49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="L58:M59"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="L60:M61"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="L56:M57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L97:M98"/>
+    <mergeCell ref="N97:O98"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="D66:E66"/>
@@ -10006,145 +10081,279 @@
     <mergeCell ref="N67:O67"/>
     <mergeCell ref="J66:K66"/>
     <mergeCell ref="J67:K67"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="C69:E70"/>
-    <mergeCell ref="J69:K70"/>
-    <mergeCell ref="L69:M70"/>
-    <mergeCell ref="N69:O70"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="C71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="L71:M72"/>
-    <mergeCell ref="N71:O72"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:E78"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="C73:E74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="F73:G74"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J73:K74"/>
-    <mergeCell ref="L73:M74"/>
-    <mergeCell ref="N73:O74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:E76"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="J75:K76"/>
-    <mergeCell ref="L75:M76"/>
-    <mergeCell ref="N75:O76"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K80"/>
-    <mergeCell ref="L79:M80"/>
-    <mergeCell ref="N79:O80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K82"/>
-    <mergeCell ref="L81:M82"/>
-    <mergeCell ref="N81:O82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:D86"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K86"/>
-    <mergeCell ref="L85:M86"/>
-    <mergeCell ref="N85:O86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="E85:G86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:E84"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K84"/>
-    <mergeCell ref="L83:M84"/>
-    <mergeCell ref="N83:O84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K88"/>
-    <mergeCell ref="L87:M88"/>
-    <mergeCell ref="N87:O88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K90"/>
-    <mergeCell ref="L89:M90"/>
-    <mergeCell ref="N89:O90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E89:G90"/>
-    <mergeCell ref="E87:G88"/>
+    <mergeCell ref="N99:O100"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="J101:K101"/>
+    <mergeCell ref="L101:M102"/>
+    <mergeCell ref="N101:O102"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="J102:K102"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="L103:M104"/>
+    <mergeCell ref="N103:O104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="J104:K104"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:M106"/>
+    <mergeCell ref="N105:O106"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="J106:K106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="L107:M108"/>
+    <mergeCell ref="N107:O108"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:M110"/>
+    <mergeCell ref="N109:O110"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="H111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:M112"/>
+    <mergeCell ref="N111:O112"/>
+    <mergeCell ref="H112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:M114"/>
+    <mergeCell ref="N113:O114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="H115:I115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:M116"/>
+    <mergeCell ref="N115:O116"/>
+    <mergeCell ref="H116:I116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="H117:I117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="L117:M118"/>
+    <mergeCell ref="N117:O118"/>
+    <mergeCell ref="H118:I118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="H119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="L119:M120"/>
+    <mergeCell ref="N119:O120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="H121:I121"/>
+    <mergeCell ref="J121:K121"/>
+    <mergeCell ref="L121:M122"/>
+    <mergeCell ref="N121:O122"/>
+    <mergeCell ref="H122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="L123:M124"/>
+    <mergeCell ref="N123:O124"/>
+    <mergeCell ref="H124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="J125:K125"/>
+    <mergeCell ref="L125:M126"/>
+    <mergeCell ref="N125:O126"/>
+    <mergeCell ref="H126:I126"/>
+    <mergeCell ref="J126:K126"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="L127:M128"/>
+    <mergeCell ref="N127:O128"/>
+    <mergeCell ref="H128:I128"/>
+    <mergeCell ref="J128:K128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="L129:M130"/>
+    <mergeCell ref="N129:O130"/>
+    <mergeCell ref="H130:I130"/>
+    <mergeCell ref="J130:K130"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="H131:I131"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="L131:M132"/>
+    <mergeCell ref="N131:O132"/>
+    <mergeCell ref="H132:I132"/>
+    <mergeCell ref="J132:K132"/>
+    <mergeCell ref="B133:B134"/>
+    <mergeCell ref="H133:I133"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="L133:M134"/>
+    <mergeCell ref="N133:O134"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="H135:I135"/>
+    <mergeCell ref="J135:K135"/>
+    <mergeCell ref="L135:M136"/>
+    <mergeCell ref="N135:O136"/>
+    <mergeCell ref="H136:I136"/>
+    <mergeCell ref="J136:K136"/>
+    <mergeCell ref="B137:B138"/>
+    <mergeCell ref="H137:I137"/>
+    <mergeCell ref="J137:K137"/>
+    <mergeCell ref="L137:M138"/>
+    <mergeCell ref="N137:O138"/>
+    <mergeCell ref="H138:I138"/>
+    <mergeCell ref="J138:K138"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="H139:I139"/>
+    <mergeCell ref="J139:K139"/>
+    <mergeCell ref="L139:M140"/>
+    <mergeCell ref="N139:O140"/>
+    <mergeCell ref="H140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="H141:I141"/>
+    <mergeCell ref="J141:K141"/>
+    <mergeCell ref="L141:M142"/>
+    <mergeCell ref="N141:O142"/>
+    <mergeCell ref="H142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="H143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="L143:M144"/>
+    <mergeCell ref="N143:O144"/>
+    <mergeCell ref="H144:I144"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="H145:I145"/>
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="L145:M146"/>
+    <mergeCell ref="N145:O146"/>
+    <mergeCell ref="H146:I146"/>
+    <mergeCell ref="J146:K146"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="L147:M148"/>
+    <mergeCell ref="N147:O148"/>
+    <mergeCell ref="H148:I148"/>
+    <mergeCell ref="J148:K148"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="L149:M150"/>
+    <mergeCell ref="N149:O150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="L151:M152"/>
+    <mergeCell ref="N151:O152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:B154"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="L153:M154"/>
+    <mergeCell ref="N153:O154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="L155:M156"/>
+    <mergeCell ref="N155:O156"/>
+    <mergeCell ref="H156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="H157:I157"/>
+    <mergeCell ref="J157:K157"/>
+    <mergeCell ref="L157:M158"/>
+    <mergeCell ref="N157:O158"/>
+    <mergeCell ref="H158:I158"/>
+    <mergeCell ref="J158:K158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="H159:I159"/>
+    <mergeCell ref="J159:K159"/>
+    <mergeCell ref="L159:M160"/>
+    <mergeCell ref="N159:O160"/>
+    <mergeCell ref="H160:I160"/>
+    <mergeCell ref="J160:K160"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="H161:I161"/>
+    <mergeCell ref="J161:K161"/>
+    <mergeCell ref="L161:M162"/>
+    <mergeCell ref="N161:O162"/>
+    <mergeCell ref="H162:I162"/>
+    <mergeCell ref="J162:K162"/>
+    <mergeCell ref="H163:I163"/>
+    <mergeCell ref="J163:K163"/>
+    <mergeCell ref="N167:O167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="J168:K168"/>
+    <mergeCell ref="L168:M170"/>
+    <mergeCell ref="N168:O168"/>
+    <mergeCell ref="J169:K169"/>
+    <mergeCell ref="N169:O169"/>
+    <mergeCell ref="H170:I170"/>
+    <mergeCell ref="J170:K170"/>
+    <mergeCell ref="N170:O170"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="H167:I167"/>
+    <mergeCell ref="J165:K165"/>
+    <mergeCell ref="J166:K166"/>
+    <mergeCell ref="J167:K167"/>
+    <mergeCell ref="L165:M167"/>
+    <mergeCell ref="H168:I168"/>
+    <mergeCell ref="H169:I169"/>
+    <mergeCell ref="H165:I165"/>
+    <mergeCell ref="H166:I166"/>
     <mergeCell ref="H164:I164"/>
     <mergeCell ref="J164:K164"/>
-    <mergeCell ref="L164:M164"/>
-    <mergeCell ref="L163:M163"/>
-    <mergeCell ref="N163:O163"/>
-    <mergeCell ref="N164:O164"/>
-    <mergeCell ref="N165:O165"/>
-    <mergeCell ref="N166:O166"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:G92"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K92"/>
-    <mergeCell ref="L91:M92"/>
-    <mergeCell ref="N91:O92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="L99:M100"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="N174:O174"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="N175:O175"/>
+    <mergeCell ref="H176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="N176:O176"/>
+    <mergeCell ref="H174:I174"/>
+    <mergeCell ref="H175:I175"/>
+    <mergeCell ref="B171:B173"/>
+    <mergeCell ref="J171:K171"/>
+    <mergeCell ref="L171:M173"/>
+    <mergeCell ref="N171:O171"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="N172:O172"/>
+    <mergeCell ref="H173:I173"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="N173:O173"/>
+    <mergeCell ref="H171:I171"/>
+    <mergeCell ref="H172:I172"/>
+    <mergeCell ref="L247:M247"/>
+    <mergeCell ref="L248:M248"/>
+    <mergeCell ref="L249:M249"/>
+    <mergeCell ref="L250:M250"/>
+    <mergeCell ref="L251:M251"/>
+    <mergeCell ref="L252:M252"/>
+    <mergeCell ref="L253:M253"/>
+    <mergeCell ref="B174:B176"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="L174:M176"/>
     <mergeCell ref="J177:K177"/>
     <mergeCell ref="B177:B179"/>
     <mergeCell ref="H179:I179"/>
@@ -10159,187 +10368,6 @@
     <mergeCell ref="H186:I186"/>
     <mergeCell ref="H183:I183"/>
     <mergeCell ref="H184:I184"/>
-    <mergeCell ref="J180:K181"/>
-    <mergeCell ref="H177:I177"/>
-    <mergeCell ref="H178:I178"/>
-    <mergeCell ref="L180:M182"/>
-    <mergeCell ref="L183:M185"/>
-    <mergeCell ref="L186:M188"/>
-    <mergeCell ref="H180:I181"/>
-    <mergeCell ref="H182:I182"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="H185:I185"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="H188:I188"/>
-    <mergeCell ref="J182:K182"/>
-    <mergeCell ref="J183:K183"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="H191:I191"/>
-    <mergeCell ref="L189:M191"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="J191:K191"/>
-    <mergeCell ref="H192:I192"/>
-    <mergeCell ref="H198:I198"/>
-    <mergeCell ref="H199:I199"/>
-    <mergeCell ref="B198:B199"/>
-    <mergeCell ref="H193:I193"/>
-    <mergeCell ref="J192:K192"/>
-    <mergeCell ref="J193:K193"/>
-    <mergeCell ref="L192:M193"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="J194:K194"/>
-    <mergeCell ref="H194:I194"/>
-    <mergeCell ref="H195:I195"/>
-    <mergeCell ref="J195:K195"/>
-    <mergeCell ref="L194:M195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="J196:K196"/>
-    <mergeCell ref="J197:K197"/>
-    <mergeCell ref="J198:K198"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="J200:K200"/>
-    <mergeCell ref="L196:M197"/>
-    <mergeCell ref="L198:M199"/>
-    <mergeCell ref="L200:M202"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="H200:I200"/>
-    <mergeCell ref="H201:I202"/>
-    <mergeCell ref="J201:K202"/>
-    <mergeCell ref="J203:K203"/>
-    <mergeCell ref="J204:K204"/>
-    <mergeCell ref="L204:M204"/>
-    <mergeCell ref="H204:I204"/>
-    <mergeCell ref="L205:M205"/>
-    <mergeCell ref="H205:I205"/>
-    <mergeCell ref="L206:M206"/>
-    <mergeCell ref="L207:M207"/>
-    <mergeCell ref="L208:M208"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J206:K206"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="H206:I206"/>
-    <mergeCell ref="H207:I207"/>
-    <mergeCell ref="H208:I208"/>
-    <mergeCell ref="L203:M203"/>
-    <mergeCell ref="H203:I203"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="H214:I214"/>
-    <mergeCell ref="L213:M214"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="B211:B212"/>
-    <mergeCell ref="L209:M210"/>
-    <mergeCell ref="L211:M212"/>
-    <mergeCell ref="H210:I210"/>
-    <mergeCell ref="H212:I212"/>
-    <mergeCell ref="J209:K209"/>
-    <mergeCell ref="J210:K210"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="J212:K212"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J214:K214"/>
-    <mergeCell ref="J215:K215"/>
-    <mergeCell ref="J216:K216"/>
-    <mergeCell ref="H209:I209"/>
-    <mergeCell ref="H211:I211"/>
-    <mergeCell ref="H213:I213"/>
-    <mergeCell ref="H215:I215"/>
-    <mergeCell ref="H216:I216"/>
-    <mergeCell ref="L215:M216"/>
-    <mergeCell ref="B217:B218"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="L221:M222"/>
-    <mergeCell ref="H221:I221"/>
-    <mergeCell ref="H222:I222"/>
-    <mergeCell ref="B221:B222"/>
-    <mergeCell ref="L223:M224"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="H223:I223"/>
-    <mergeCell ref="J217:K217"/>
-    <mergeCell ref="J218:K218"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="J220:K220"/>
-    <mergeCell ref="J221:K221"/>
-    <mergeCell ref="J222:K222"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="J224:K224"/>
-    <mergeCell ref="H224:I224"/>
-    <mergeCell ref="H217:I217"/>
-    <mergeCell ref="L219:M220"/>
-    <mergeCell ref="L217:M218"/>
-    <mergeCell ref="H218:I218"/>
-    <mergeCell ref="H219:I219"/>
-    <mergeCell ref="H220:I220"/>
-    <mergeCell ref="H227:I227"/>
-    <mergeCell ref="L225:M227"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="L228:M228"/>
-    <mergeCell ref="H228:I228"/>
-    <mergeCell ref="L229:M229"/>
-    <mergeCell ref="L230:M230"/>
-    <mergeCell ref="L231:M231"/>
-    <mergeCell ref="L232:M232"/>
-    <mergeCell ref="J225:K225"/>
-    <mergeCell ref="J226:K226"/>
-    <mergeCell ref="J227:K227"/>
-    <mergeCell ref="J228:K228"/>
-    <mergeCell ref="H225:I225"/>
-    <mergeCell ref="H226:I226"/>
-    <mergeCell ref="L233:M233"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="H229:I229"/>
-    <mergeCell ref="H230:I230"/>
-    <mergeCell ref="H231:I231"/>
-    <mergeCell ref="H232:I232"/>
-    <mergeCell ref="H233:I233"/>
-    <mergeCell ref="H234:I234"/>
-    <mergeCell ref="H235:I235"/>
-    <mergeCell ref="L234:M235"/>
-    <mergeCell ref="J229:K229"/>
-    <mergeCell ref="J230:K230"/>
-    <mergeCell ref="J231:K231"/>
-    <mergeCell ref="J232:K232"/>
-    <mergeCell ref="J233:K233"/>
-    <mergeCell ref="J234:K234"/>
-    <mergeCell ref="J235:K235"/>
-    <mergeCell ref="L236:M237"/>
-    <mergeCell ref="L238:M239"/>
-    <mergeCell ref="L240:M241"/>
-    <mergeCell ref="B236:B237"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="H236:I236"/>
-    <mergeCell ref="H237:I237"/>
-    <mergeCell ref="H238:I238"/>
-    <mergeCell ref="H239:I239"/>
-    <mergeCell ref="H240:I240"/>
-    <mergeCell ref="H241:I241"/>
-    <mergeCell ref="B240:B241"/>
-    <mergeCell ref="J236:K236"/>
-    <mergeCell ref="J237:K237"/>
-    <mergeCell ref="J238:K238"/>
-    <mergeCell ref="J239:K239"/>
-    <mergeCell ref="J240:K240"/>
-    <mergeCell ref="J241:K241"/>
-    <mergeCell ref="L242:M242"/>
-    <mergeCell ref="H242:I242"/>
-    <mergeCell ref="L243:M243"/>
-    <mergeCell ref="H243:I243"/>
-    <mergeCell ref="L244:M244"/>
-    <mergeCell ref="H244:I244"/>
-    <mergeCell ref="L245:M245"/>
-    <mergeCell ref="H245:I245"/>
-    <mergeCell ref="L246:M246"/>
-    <mergeCell ref="J242:K242"/>
-    <mergeCell ref="J243:K243"/>
-    <mergeCell ref="J244:K244"/>
-    <mergeCell ref="J245:K245"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
